--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4799,7 +4799,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4818,19 +4818,19 @@
         </is>
       </c>
       <c r="E144">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F144">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G144">
-        <v>72.72727272727273</v>
+        <v>61.11111111111111</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4849,19 +4849,19 @@
         </is>
       </c>
       <c r="E145">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F145">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G145">
-        <v>18.18181818181818</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4880,29 +4880,29 @@
         </is>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F146">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G146">
-        <v>9.090909090909092</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4911,29 +4911,29 @@
         </is>
       </c>
       <c r="E147">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F147">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G147">
-        <v>78.18181818181819</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4942,55 +4942,55 @@
         </is>
       </c>
       <c r="E148">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F148">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G148">
-        <v>18.18181818181818</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F149">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G149">
-        <v>3.636363636363636</v>
+        <v>85.41666666666666</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5000,28 +5000,28 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E150">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F150">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G150">
-        <v>66.66666666666666</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5031,17 +5031,17 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G151">
-        <v>33.33333333333333</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="152">
@@ -5052,12 +5052,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5066,13 +5066,13 @@
         </is>
       </c>
       <c r="E152">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F152">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G152">
-        <v>46.15384615384615</v>
+        <v>72.72727272727273</v>
       </c>
     </row>
     <row r="153">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5097,13 +5097,13 @@
         </is>
       </c>
       <c r="E153">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F153">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G153">
-        <v>46.15384615384615</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="154">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5128,13 +5128,13 @@
         </is>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F154">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G154">
-        <v>7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="155">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5159,13 +5159,13 @@
         </is>
       </c>
       <c r="E155">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F155">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G155">
-        <v>76.47058823529412</v>
+        <v>78.18181818181819</v>
       </c>
     </row>
     <row r="156">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5190,13 +5190,13 @@
         </is>
       </c>
       <c r="E156">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F156">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G156">
-        <v>17.64705882352941</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="157">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5221,13 +5221,13 @@
         </is>
       </c>
       <c r="E157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F157">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G157">
-        <v>5.88235294117647</v>
+        <v>3.636363636363636</v>
       </c>
     </row>
     <row r="158">
@@ -5238,12 +5238,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="E158">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="F158">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G158">
-        <v>87.17948717948718</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="159">
@@ -5269,12 +5269,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5283,13 +5283,13 @@
         </is>
       </c>
       <c r="E159">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F159">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G159">
-        <v>8.974358974358974</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="160">
@@ -5300,7 +5300,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5310,16 +5310,264 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E160">
+        <v>6</v>
+      </c>
+      <c r="F160">
+        <v>13</v>
+      </c>
+      <c r="G160">
+        <v>46.15384615384615</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E161">
+        <v>6</v>
+      </c>
+      <c r="F161">
+        <v>13</v>
+      </c>
+      <c r="G161">
+        <v>46.15384615384615</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>Genus and species wrong</t>
         </is>
       </c>
-      <c r="E160">
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>13</v>
+      </c>
+      <c r="G162">
+        <v>7.692307692307693</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E163">
+        <v>52</v>
+      </c>
+      <c r="F163">
+        <v>68</v>
+      </c>
+      <c r="G163">
+        <v>76.47058823529412</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E164">
+        <v>12</v>
+      </c>
+      <c r="F164">
+        <v>68</v>
+      </c>
+      <c r="G164">
+        <v>17.64705882352941</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E165">
+        <v>4</v>
+      </c>
+      <c r="F165">
+        <v>68</v>
+      </c>
+      <c r="G165">
+        <v>5.88235294117647</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E166">
+        <v>68</v>
+      </c>
+      <c r="F166">
+        <v>78</v>
+      </c>
+      <c r="G166">
+        <v>87.17948717948718</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E167">
+        <v>7</v>
+      </c>
+      <c r="F167">
+        <v>78</v>
+      </c>
+      <c r="G167">
+        <v>8.974358974358974</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E168">
         <v>3</v>
       </c>
-      <c r="F160">
+      <c r="F168">
         <v>78</v>
       </c>
-      <c r="G160">
+      <c r="G168">
         <v>3.846153846153846</v>
       </c>
     </row>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -422,7 +422,7 @@
         <v>65</v>
       </c>
       <c r="G2">
-        <v>90.76923076923077</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>65</v>
       </c>
       <c r="G3">
-        <v>9.230769230769232</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>93.33333333333333</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="6">
@@ -546,7 +546,7 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="7">
@@ -639,7 +639,7 @@
         <v>59</v>
       </c>
       <c r="G9">
-        <v>96.61016949152543</v>
+        <v>96.61</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         <v>59</v>
       </c>
       <c r="G10">
-        <v>3.389830508474576</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="11">
@@ -701,7 +701,7 @@
         <v>56</v>
       </c>
       <c r="G11">
-        <v>94.64285714285714</v>
+        <v>94.64</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         <v>56</v>
       </c>
       <c r="G12">
-        <v>3.571428571428571</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="13">
@@ -763,7 +763,7 @@
         <v>56</v>
       </c>
       <c r="G13">
-        <v>1.785714285714286</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="14">
@@ -794,7 +794,7 @@
         <v>56</v>
       </c>
       <c r="G14">
-        <v>85.71428571428571</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -825,7 +825,7 @@
         <v>56</v>
       </c>
       <c r="G15">
-        <v>10.71428571428571</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="16">
@@ -856,7 +856,7 @@
         <v>56</v>
       </c>
       <c r="G16">
-        <v>3.571428571428571</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="17">
@@ -887,7 +887,7 @@
         <v>53</v>
       </c>
       <c r="G17">
-        <v>90.56603773584906</v>
+        <v>90.56999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -918,7 +918,7 @@
         <v>53</v>
       </c>
       <c r="G18">
-        <v>9.433962264150944</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="19">
@@ -949,7 +949,7 @@
         <v>17</v>
       </c>
       <c r="G19">
-        <v>88.23529411764706</v>
+        <v>88.23999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -980,7 +980,7 @@
         <v>17</v>
       </c>
       <c r="G20">
-        <v>11.76470588235294</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="21">
@@ -1042,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="G22">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="23">
@@ -1073,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="G23">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="24">
@@ -1104,7 +1104,7 @@
         <v>67</v>
       </c>
       <c r="G24">
-        <v>88.05970149253731</v>
+        <v>88.06</v>
       </c>
     </row>
     <row r="25">
@@ -1135,7 +1135,7 @@
         <v>67</v>
       </c>
       <c r="G25">
-        <v>5.970149253731343</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="26">
@@ -1166,7 +1166,7 @@
         <v>67</v>
       </c>
       <c r="G26">
-        <v>5.970149253731343</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="27">
@@ -1197,7 +1197,7 @@
         <v>68</v>
       </c>
       <c r="G27">
-        <v>91.17647058823529</v>
+        <v>91.18000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1228,7 +1228,7 @@
         <v>68</v>
       </c>
       <c r="G28">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="29">
@@ -1259,7 +1259,7 @@
         <v>68</v>
       </c>
       <c r="G29">
-        <v>2.941176470588235</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="30">
@@ -1290,7 +1290,7 @@
         <v>68</v>
       </c>
       <c r="G30">
-        <v>79.41176470588235</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="31">
@@ -1321,7 +1321,7 @@
         <v>68</v>
       </c>
       <c r="G31">
-        <v>11.76470588235294</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="32">
@@ -1352,7 +1352,7 @@
         <v>68</v>
       </c>
       <c r="G32">
-        <v>8.823529411764707</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="33">
@@ -1383,7 +1383,7 @@
         <v>67</v>
       </c>
       <c r="G33">
-        <v>77.61194029850746</v>
+        <v>77.61</v>
       </c>
     </row>
     <row r="34">
@@ -1414,7 +1414,7 @@
         <v>67</v>
       </c>
       <c r="G34">
-        <v>17.91044776119403</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="35">
@@ -1445,7 +1445,7 @@
         <v>67</v>
       </c>
       <c r="G35">
-        <v>4.477611940298507</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="36">
@@ -1476,7 +1476,7 @@
         <v>18</v>
       </c>
       <c r="G36">
-        <v>88.88888888888889</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="37">
@@ -1507,7 +1507,7 @@
         <v>18</v>
       </c>
       <c r="G37">
-        <v>11.11111111111111</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="38">
@@ -1538,7 +1538,7 @@
         <v>22</v>
       </c>
       <c r="G38">
-        <v>45.45454545454545</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="39">
@@ -1569,7 +1569,7 @@
         <v>22</v>
       </c>
       <c r="G39">
-        <v>36.36363636363637</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="40">
@@ -1600,7 +1600,7 @@
         <v>22</v>
       </c>
       <c r="G40">
-        <v>18.18181818181818</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="41">
@@ -1631,7 +1631,7 @@
         <v>72</v>
       </c>
       <c r="G41">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="42">
@@ -1662,7 +1662,7 @@
         <v>72</v>
       </c>
       <c r="G42">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="43">
@@ -1693,7 +1693,7 @@
         <v>72</v>
       </c>
       <c r="G43">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="44">
@@ -1724,7 +1724,7 @@
         <v>86</v>
       </c>
       <c r="G44">
-        <v>81.3953488372093</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1755,7 +1755,7 @@
         <v>86</v>
       </c>
       <c r="G45">
-        <v>12.79069767441861</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="46">
@@ -1786,7 +1786,7 @@
         <v>86</v>
       </c>
       <c r="G46">
-        <v>5.813953488372093</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="47">
@@ -1817,7 +1817,7 @@
         <v>58</v>
       </c>
       <c r="G47">
-        <v>87.93103448275862</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1848,7 +1848,7 @@
         <v>58</v>
       </c>
       <c r="G48">
-        <v>8.620689655172415</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1879,7 +1879,7 @@
         <v>58</v>
       </c>
       <c r="G49">
-        <v>3.448275862068965</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="50">
@@ -1910,7 +1910,7 @@
         <v>61</v>
       </c>
       <c r="G50">
-        <v>78.68852459016394</v>
+        <v>78.69</v>
       </c>
     </row>
     <row r="51">
@@ -1941,7 +1941,7 @@
         <v>61</v>
       </c>
       <c r="G51">
-        <v>19.67213114754098</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="52">
@@ -1972,7 +1972,7 @@
         <v>61</v>
       </c>
       <c r="G52">
-        <v>1.639344262295082</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="53">
@@ -2003,7 +2003,7 @@
         <v>14</v>
       </c>
       <c r="G53">
-        <v>92.85714285714286</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="54">
@@ -2034,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="G54">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="55">
@@ -2158,7 +2158,7 @@
         <v>66</v>
       </c>
       <c r="G58">
-        <v>86.36363636363636</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="59">
@@ -2189,7 +2189,7 @@
         <v>66</v>
       </c>
       <c r="G59">
-        <v>7.575757575757576</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="60">
@@ -2220,7 +2220,7 @@
         <v>66</v>
       </c>
       <c r="G60">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="61">
@@ -2344,7 +2344,7 @@
         <v>52</v>
       </c>
       <c r="G64">
-        <v>90.38461538461539</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="65">
@@ -2375,7 +2375,7 @@
         <v>52</v>
       </c>
       <c r="G65">
-        <v>7.692307692307693</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="66">
@@ -2406,7 +2406,7 @@
         <v>52</v>
       </c>
       <c r="G66">
-        <v>1.923076923076923</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="67">
@@ -2437,7 +2437,7 @@
         <v>55</v>
       </c>
       <c r="G67">
-        <v>81.81818181818183</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -2468,7 +2468,7 @@
         <v>55</v>
       </c>
       <c r="G68">
-        <v>18.18181818181818</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="69">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="G70">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="71">
@@ -2592,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="G72">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="73">
@@ -2623,7 +2623,7 @@
         <v>58</v>
       </c>
       <c r="G73">
-        <v>91.37931034482759</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="74">
@@ -2654,7 +2654,7 @@
         <v>58</v>
       </c>
       <c r="G74">
-        <v>3.448275862068965</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="75">
@@ -2685,7 +2685,7 @@
         <v>58</v>
       </c>
       <c r="G75">
-        <v>5.172413793103448</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="76">
@@ -2716,7 +2716,7 @@
         <v>74</v>
       </c>
       <c r="G76">
-        <v>89.18918918918919</v>
+        <v>89.19</v>
       </c>
     </row>
     <row r="77">
@@ -2747,7 +2747,7 @@
         <v>74</v>
       </c>
       <c r="G77">
-        <v>8.108108108108109</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -2778,7 +2778,7 @@
         <v>74</v>
       </c>
       <c r="G78">
-        <v>2.702702702702703</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="79">
@@ -2809,7 +2809,7 @@
         <v>72</v>
       </c>
       <c r="G79">
-        <v>81.94444444444444</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="80">
@@ -2840,7 +2840,7 @@
         <v>72</v>
       </c>
       <c r="G80">
-        <v>13.88888888888889</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="81">
@@ -2871,7 +2871,7 @@
         <v>72</v>
       </c>
       <c r="G81">
-        <v>4.166666666666666</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="82">
@@ -2902,7 +2902,7 @@
         <v>65</v>
       </c>
       <c r="G82">
-        <v>92.30769230769231</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="83">
@@ -2933,7 +2933,7 @@
         <v>65</v>
       </c>
       <c r="G83">
-        <v>7.692307692307693</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="84">
@@ -2964,7 +2964,7 @@
         <v>17</v>
       </c>
       <c r="G84">
-        <v>94.11764705882352</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="85">
@@ -2995,7 +2995,7 @@
         <v>17</v>
       </c>
       <c r="G85">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="86">
@@ -3026,7 +3026,7 @@
         <v>14</v>
       </c>
       <c r="G86">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -3057,7 +3057,7 @@
         <v>14</v>
       </c>
       <c r="G87">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="88">
@@ -3088,7 +3088,7 @@
         <v>14</v>
       </c>
       <c r="G88">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="89">
@@ -3119,7 +3119,7 @@
         <v>71</v>
       </c>
       <c r="G89">
-        <v>90.14084507042254</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="90">
@@ -3150,7 +3150,7 @@
         <v>71</v>
       </c>
       <c r="G90">
-        <v>4.225352112676056</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="91">
@@ -3181,7 +3181,7 @@
         <v>71</v>
       </c>
       <c r="G91">
-        <v>5.633802816901409</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="92">
@@ -3212,7 +3212,7 @@
         <v>77</v>
       </c>
       <c r="G92">
-        <v>89.6103896103896</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="93">
@@ -3243,7 +3243,7 @@
         <v>77</v>
       </c>
       <c r="G93">
-        <v>6.493506493506493</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="94">
@@ -3274,7 +3274,7 @@
         <v>77</v>
       </c>
       <c r="G94">
-        <v>3.896103896103896</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="95">
@@ -3305,7 +3305,7 @@
         <v>61</v>
       </c>
       <c r="G95">
-        <v>67.21311475409836</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -3336,7 +3336,7 @@
         <v>61</v>
       </c>
       <c r="G96">
-        <v>24.59016393442623</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="97">
@@ -3367,7 +3367,7 @@
         <v>61</v>
       </c>
       <c r="G97">
-        <v>8.196721311475409</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -3398,7 +3398,7 @@
         <v>64</v>
       </c>
       <c r="G98">
-        <v>78.125</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="99">
@@ -3429,7 +3429,7 @@
         <v>64</v>
       </c>
       <c r="G99">
-        <v>15.625</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="100">
@@ -3491,7 +3491,7 @@
         <v>13</v>
       </c>
       <c r="G101">
-        <v>69.23076923076923</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="102">
@@ -3522,7 +3522,7 @@
         <v>13</v>
       </c>
       <c r="G102">
-        <v>30.76923076923077</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="103">
@@ -3584,7 +3584,7 @@
         <v>14</v>
       </c>
       <c r="G104">
-        <v>35.71428571428572</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="105">
@@ -3615,7 +3615,7 @@
         <v>14</v>
       </c>
       <c r="G105">
-        <v>14.28571428571428</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="106">
@@ -3646,7 +3646,7 @@
         <v>63</v>
       </c>
       <c r="G106">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="107">
@@ -3677,7 +3677,7 @@
         <v>63</v>
       </c>
       <c r="G107">
-        <v>28.57142857142857</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="108">
@@ -3708,7 +3708,7 @@
         <v>63</v>
       </c>
       <c r="G108">
-        <v>4.761904761904762</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="109">
@@ -3739,7 +3739,7 @@
         <v>86</v>
       </c>
       <c r="G109">
-        <v>70.93023255813954</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="110">
@@ -3770,7 +3770,7 @@
         <v>86</v>
       </c>
       <c r="G110">
-        <v>22.09302325581395</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="111">
@@ -3801,7 +3801,7 @@
         <v>86</v>
       </c>
       <c r="G111">
-        <v>6.976744186046512</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="112">
@@ -3832,7 +3832,7 @@
         <v>61</v>
       </c>
       <c r="G112">
-        <v>68.85245901639344</v>
+        <v>68.84999999999999</v>
       </c>
     </row>
     <row r="113">
@@ -3863,7 +3863,7 @@
         <v>61</v>
       </c>
       <c r="G113">
-        <v>29.50819672131147</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="114">
@@ -3894,7 +3894,7 @@
         <v>61</v>
       </c>
       <c r="G114">
-        <v>1.639344262295082</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="115">
@@ -3925,7 +3925,7 @@
         <v>66</v>
       </c>
       <c r="G115">
-        <v>81.81818181818183</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="116">
@@ -3956,7 +3956,7 @@
         <v>66</v>
       </c>
       <c r="G116">
-        <v>10.60606060606061</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="117">
@@ -3987,7 +3987,7 @@
         <v>66</v>
       </c>
       <c r="G117">
-        <v>7.575757575757576</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="118">
@@ -4142,7 +4142,7 @@
         <v>72</v>
       </c>
       <c r="G122">
-        <v>76.38888888888889</v>
+        <v>76.39</v>
       </c>
     </row>
     <row r="123">
@@ -4173,7 +4173,7 @@
         <v>72</v>
       </c>
       <c r="G123">
-        <v>20.83333333333334</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="124">
@@ -4204,7 +4204,7 @@
         <v>72</v>
       </c>
       <c r="G124">
-        <v>2.777777777777778</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="125">
@@ -4235,7 +4235,7 @@
         <v>75</v>
       </c>
       <c r="G125">
-        <v>74.66666666666667</v>
+        <v>74.67</v>
       </c>
     </row>
     <row r="126">
@@ -4266,7 +4266,7 @@
         <v>75</v>
       </c>
       <c r="G126">
-        <v>18.66666666666667</v>
+        <v>18.67</v>
       </c>
     </row>
     <row r="127">
@@ -4297,7 +4297,7 @@
         <v>75</v>
       </c>
       <c r="G127">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="128">
@@ -4328,7 +4328,7 @@
         <v>51</v>
       </c>
       <c r="G128">
-        <v>56.86274509803921</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="129">
@@ -4359,7 +4359,7 @@
         <v>51</v>
       </c>
       <c r="G129">
-        <v>31.37254901960784</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="130">
@@ -4390,7 +4390,7 @@
         <v>51</v>
       </c>
       <c r="G130">
-        <v>11.76470588235294</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="131">
@@ -4421,7 +4421,7 @@
         <v>57</v>
       </c>
       <c r="G131">
-        <v>73.68421052631578</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="132">
@@ -4452,7 +4452,7 @@
         <v>57</v>
       </c>
       <c r="G132">
-        <v>17.5438596491228</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="133">
@@ -4483,7 +4483,7 @@
         <v>57</v>
       </c>
       <c r="G133">
-        <v>8.771929824561402</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="134">
@@ -4514,7 +4514,7 @@
         <v>9</v>
       </c>
       <c r="G134">
-        <v>88.88888888888889</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="135">
@@ -4545,7 +4545,7 @@
         <v>9</v>
       </c>
       <c r="G135">
-        <v>11.11111111111111</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="136">
@@ -4638,7 +4638,7 @@
         <v>48</v>
       </c>
       <c r="G138">
-        <v>64.58333333333334</v>
+        <v>64.58</v>
       </c>
     </row>
     <row r="139">
@@ -4700,7 +4700,7 @@
         <v>48</v>
       </c>
       <c r="G140">
-        <v>10.41666666666667</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="141">
@@ -4731,7 +4731,7 @@
         <v>75</v>
       </c>
       <c r="G141">
-        <v>74.66666666666667</v>
+        <v>74.67</v>
       </c>
     </row>
     <row r="142">
@@ -4762,7 +4762,7 @@
         <v>75</v>
       </c>
       <c r="G142">
-        <v>21.33333333333334</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="143">
@@ -4824,7 +4824,7 @@
         <v>36</v>
       </c>
       <c r="G144">
-        <v>61.11111111111111</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="145">
@@ -4855,7 +4855,7 @@
         <v>36</v>
       </c>
       <c r="G145">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="146">
@@ -4886,7 +4886,7 @@
         <v>36</v>
       </c>
       <c r="G146">
-        <v>5.555555555555555</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="147">
@@ -4979,7 +4979,7 @@
         <v>48</v>
       </c>
       <c r="G149">
-        <v>85.41666666666666</v>
+        <v>85.42</v>
       </c>
     </row>
     <row r="150">
@@ -5041,7 +5041,7 @@
         <v>48</v>
       </c>
       <c r="G151">
-        <v>2.083333333333333</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="152">
@@ -5072,7 +5072,7 @@
         <v>55</v>
       </c>
       <c r="G152">
-        <v>72.72727272727273</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="153">
@@ -5103,7 +5103,7 @@
         <v>55</v>
       </c>
       <c r="G153">
-        <v>18.18181818181818</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="154">
@@ -5134,7 +5134,7 @@
         <v>55</v>
       </c>
       <c r="G154">
-        <v>9.090909090909092</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="155">
@@ -5165,7 +5165,7 @@
         <v>55</v>
       </c>
       <c r="G155">
-        <v>78.18181818181819</v>
+        <v>78.18000000000001</v>
       </c>
     </row>
     <row r="156">
@@ -5196,7 +5196,7 @@
         <v>55</v>
       </c>
       <c r="G156">
-        <v>18.18181818181818</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="157">
@@ -5227,7 +5227,7 @@
         <v>55</v>
       </c>
       <c r="G157">
-        <v>3.636363636363636</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="158">
@@ -5258,7 +5258,7 @@
         <v>12</v>
       </c>
       <c r="G158">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="159">
@@ -5289,7 +5289,7 @@
         <v>12</v>
       </c>
       <c r="G159">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="160">
@@ -5320,7 +5320,7 @@
         <v>13</v>
       </c>
       <c r="G160">
-        <v>46.15384615384615</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="161">
@@ -5351,7 +5351,7 @@
         <v>13</v>
       </c>
       <c r="G161">
-        <v>46.15384615384615</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="162">
@@ -5382,7 +5382,7 @@
         <v>13</v>
       </c>
       <c r="G162">
-        <v>7.692307692307693</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="163">
@@ -5413,7 +5413,7 @@
         <v>68</v>
       </c>
       <c r="G163">
-        <v>76.47058823529412</v>
+        <v>76.47</v>
       </c>
     </row>
     <row r="164">
@@ -5444,7 +5444,7 @@
         <v>68</v>
       </c>
       <c r="G164">
-        <v>17.64705882352941</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="165">
@@ -5475,7 +5475,7 @@
         <v>68</v>
       </c>
       <c r="G165">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="166">
@@ -5506,7 +5506,7 @@
         <v>78</v>
       </c>
       <c r="G166">
-        <v>87.17948717948718</v>
+        <v>87.18000000000001</v>
       </c>
     </row>
     <row r="167">
@@ -5537,7 +5537,7 @@
         <v>78</v>
       </c>
       <c r="G167">
-        <v>8.974358974358974</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="168">
@@ -5568,7 +5568,7 @@
         <v>78</v>
       </c>
       <c r="G168">
-        <v>3.846153846153846</v>
+        <v>3.85</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,12 +495,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>93.33</v>
+        <v>97.95999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>6.67</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="7">
@@ -562,7 +562,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>90</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="8">
@@ -593,7 +593,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="9">
@@ -619,12 +619,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="E9">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>96.61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -650,12 +650,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>3.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -681,12 +681,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="E11">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>94.64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -717,22 +717,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="F12">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G12">
-        <v>3.57</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="13">
@@ -748,64 +748,64 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G13">
-        <v>1.79</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E14">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G14">
-        <v>85.70999999999999</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -815,28 +815,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F15">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G15">
-        <v>10.71</v>
+        <v>96.61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -846,28 +846,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G16">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -881,24 +881,24 @@
         </is>
       </c>
       <c r="E17">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F17">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G17">
-        <v>90.56999999999999</v>
+        <v>94.64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -912,44 +912,44 @@
         </is>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G18">
-        <v>9.43</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G19">
-        <v>88.23999999999999</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="20">
@@ -960,7 +960,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -970,17 +970,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F20">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G20">
-        <v>11.76</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -991,27 +991,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G21">
-        <v>75</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="22">
@@ -1022,27 +1022,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G22">
-        <v>16.67</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="23">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1063,17 +1063,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G23">
-        <v>8.33</v>
+        <v>90.56999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1084,27 +1084,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E24">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G24">
-        <v>88.06</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="25">
@@ -1115,27 +1115,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F25">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G25">
-        <v>5.97</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="26">
@@ -1146,27 +1146,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G26">
-        <v>5.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="27">
@@ -1177,27 +1177,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E27">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G27">
-        <v>91.18000000000001</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="28">
@@ -1208,27 +1208,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="G28">
-        <v>5.88</v>
+        <v>88.23999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1239,43 +1239,43 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="G29">
-        <v>2.94</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1284,29 +1284,29 @@
         </is>
       </c>
       <c r="E30">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F30">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>79.41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1315,29 +1315,29 @@
         </is>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>11.76</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1346,29 +1346,29 @@
         </is>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>8.82</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1377,117 +1377,117 @@
         </is>
       </c>
       <c r="E33">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G33">
-        <v>77.61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F34">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G34">
-        <v>17.91</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G35">
-        <v>4.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E36">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G36">
-        <v>88.89</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1497,90 +1497,90 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="F37">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G37">
-        <v>11.11</v>
+        <v>88.06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G38">
-        <v>45.45</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G39">
-        <v>36.36</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1590,23 +1590,23 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="F40">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="G40">
-        <v>18.18</v>
+        <v>91.18000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1616,28 +1616,28 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E41">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G41">
-        <v>83.33</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1647,22 +1647,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G42">
-        <v>8.33</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="43">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F43">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G43">
-        <v>8.33</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="44">
@@ -1704,27 +1704,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G44">
-        <v>81.40000000000001</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="45">
@@ -1735,27 +1735,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E45">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F45">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G45">
-        <v>12.79</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="46">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1776,23 +1776,23 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F46">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G46">
-        <v>5.81</v>
+        <v>77.61</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1802,28 +1802,28 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E47">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G47">
-        <v>87.93000000000001</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1833,152 +1833,152 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G48">
-        <v>8.619999999999999</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F49">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G49">
-        <v>3.45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E50">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G50">
-        <v>78.69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G51">
-        <v>19.67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F52">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="G52">
-        <v>1.64</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1993,23 +1993,23 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E53">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G53">
-        <v>92.86</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2019,28 +2019,28 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G54">
-        <v>7.14</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2055,23 +2055,23 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G55">
-        <v>56.25</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2086,23 +2086,23 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E56">
         <v>4</v>
       </c>
       <c r="F56">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G56">
-        <v>25</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2112,28 +2112,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F57">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G57">
-        <v>18.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="E58">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F58">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G58">
-        <v>86.36</v>
+        <v>98.81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2174,28 +2174,28 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G59">
-        <v>7.58</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2210,23 +2210,23 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F60">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G60">
-        <v>6.06</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2236,28 +2236,28 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E61">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="F61">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G61">
-        <v>86.25</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2267,28 +2267,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F62">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2303,85 +2303,85 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="F63">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G63">
-        <v>3.75</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E64">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F64">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="G64">
-        <v>90.38</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="G65">
-        <v>7.69</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2396,23 +2396,23 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F66">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G66">
-        <v>1.92</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2422,28 +2422,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E67">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G67">
-        <v>81.81999999999999</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2453,38 +2453,38 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F68">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G68">
-        <v>18.18</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2493,24 +2493,24 @@
         </is>
       </c>
       <c r="E69">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="G69">
-        <v>100</v>
+        <v>78.69</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2520,28 +2520,28 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G70">
-        <v>66.67</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2551,90 +2551,90 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G71">
-        <v>25</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F72">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G72">
-        <v>8.33</v>
+        <v>97.44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E73">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G73">
-        <v>91.38</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2644,28 +2644,28 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F74">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="G74">
-        <v>3.45</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2675,28 +2675,28 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="G75">
-        <v>5.17</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2710,24 +2710,24 @@
         </is>
       </c>
       <c r="E76">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F76">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="G76">
-        <v>89.19</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2741,24 +2741,24 @@
         </is>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F77">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="G77">
-        <v>8.109999999999999</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2772,29 +2772,29 @@
         </is>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="G78">
-        <v>2.7</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2803,55 +2803,55 @@
         </is>
       </c>
       <c r="E79">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F79">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="G79">
-        <v>81.94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F80">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G80">
-        <v>13.89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2861,95 +2861,95 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="F81">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G81">
-        <v>4.17</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E82">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F82">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G82">
-        <v>92.31</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G83">
-        <v>7.69</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2958,29 +2958,29 @@
         </is>
       </c>
       <c r="E84">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F84">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="G84">
-        <v>94.12</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2989,24 +2989,24 @@
         </is>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F85">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="G85">
-        <v>5.88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3016,90 +3016,90 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F86">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G86">
-        <v>71.43000000000001</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F87">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G87">
-        <v>21.43</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G88">
-        <v>7.14</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3109,95 +3109,95 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E89">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G89">
-        <v>90.14</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F90">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G90">
-        <v>4.23</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F91">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G91">
-        <v>5.63</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3206,29 +3206,29 @@
         </is>
       </c>
       <c r="E92">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F92">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="G92">
-        <v>89.61</v>
+        <v>96.43000000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3237,60 +3237,60 @@
         </is>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="G93">
-        <v>6.49</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MMSeqs2</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F94">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="G94">
-        <v>3.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3299,29 +3299,29 @@
         </is>
       </c>
       <c r="E95">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="F95">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G95">
-        <v>67.20999999999999</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3330,29 +3330,29 @@
         </is>
       </c>
       <c r="E96">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F96">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G96">
-        <v>24.59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3361,29 +3361,29 @@
         </is>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G97">
-        <v>8.199999999999999</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3392,86 +3392,86 @@
         </is>
       </c>
       <c r="E98">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F98">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="G98">
-        <v>78.12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E99">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F99">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G99">
-        <v>15.62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F100">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G100">
-        <v>6.25</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3481,28 +3481,28 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E101">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F101">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="G101">
-        <v>69.23</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3512,28 +3512,28 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F102">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="G102">
-        <v>30.77</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3547,24 +3547,24 @@
         </is>
       </c>
       <c r="E103">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="F103">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G103">
-        <v>50</v>
+        <v>89.19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3578,24 +3578,24 @@
         </is>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F104">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G104">
-        <v>35.71</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3612,21 +3612,21 @@
         <v>2</v>
       </c>
       <c r="F105">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G105">
-        <v>14.29</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3640,24 +3640,24 @@
         </is>
       </c>
       <c r="E106">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F106">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G106">
-        <v>66.67</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3671,60 +3671,60 @@
         </is>
       </c>
       <c r="E107">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F107">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G107">
-        <v>28.57</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F108">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G108">
-        <v>4.76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3733,29 +3733,29 @@
         </is>
       </c>
       <c r="E109">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F109">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="G109">
-        <v>70.93000000000001</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3764,24 +3764,24 @@
         </is>
       </c>
       <c r="E110">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="G110">
-        <v>22.09</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3791,59 +3791,59 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E111">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F111">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>6.98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E112">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G112">
-        <v>68.84999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3853,28 +3853,28 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E113">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F113">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G113">
-        <v>29.51</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3884,28 +3884,28 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G114">
-        <v>1.64</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3922,21 +3922,21 @@
         <v>54</v>
       </c>
       <c r="F115">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G115">
-        <v>81.81999999999999</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3950,24 +3950,24 @@
         </is>
       </c>
       <c r="E116">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F116">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G116">
-        <v>10.61</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3981,24 +3981,24 @@
         </is>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G117">
-        <v>7.58</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4012,24 +4012,24 @@
         </is>
       </c>
       <c r="E118">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F118">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G118">
-        <v>75</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4043,55 +4043,55 @@
         </is>
       </c>
       <c r="E119">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F119">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G119">
-        <v>25</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E120">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F120">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G120">
-        <v>90</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4101,59 +4101,59 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F121">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G121">
-        <v>10</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E122">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F122">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G122">
-        <v>76.39</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4163,28 +4163,28 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E123">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F123">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G123">
-        <v>20.83</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4194,28 +4194,28 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G124">
-        <v>2.78</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4229,24 +4229,24 @@
         </is>
       </c>
       <c r="E125">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F125">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="G125">
-        <v>74.67</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4260,24 +4260,24 @@
         </is>
       </c>
       <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
         <v>14</v>
       </c>
-      <c r="F126">
-        <v>75</v>
-      </c>
       <c r="G126">
-        <v>18.67</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4291,24 +4291,24 @@
         </is>
       </c>
       <c r="E127">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="G127">
-        <v>6.67</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4322,24 +4322,24 @@
         </is>
       </c>
       <c r="E128">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F128">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G128">
-        <v>56.86</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4353,24 +4353,24 @@
         </is>
       </c>
       <c r="E129">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F129">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G129">
-        <v>31.37</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4384,24 +4384,24 @@
         </is>
       </c>
       <c r="E130">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F130">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G130">
-        <v>11.76</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4415,24 +4415,24 @@
         </is>
       </c>
       <c r="E131">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F131">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G131">
-        <v>73.68000000000001</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4446,24 +4446,24 @@
         </is>
       </c>
       <c r="E132">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F132">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G132">
-        <v>17.54</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4477,24 +4477,24 @@
         </is>
       </c>
       <c r="E133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F133">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G133">
-        <v>8.77</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4508,24 +4508,24 @@
         </is>
       </c>
       <c r="E134">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F134">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="G134">
-        <v>88.89</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4539,55 +4539,55 @@
         </is>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F135">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="G135">
-        <v>11.11</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E136">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F136">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G136">
-        <v>50</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4597,214 +4597,214 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E137">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F137">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G137">
-        <v>50</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E138">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F138">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G138">
-        <v>64.58</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E139">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F139">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G139">
-        <v>25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E140">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F140">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G140">
-        <v>10.42</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E141">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="F141">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G141">
-        <v>74.67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E142">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F142">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G142">
-        <v>21.33</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F143">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4814,85 +4814,85 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E144">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F144">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G144">
-        <v>61.11</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E145">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F145">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G145">
-        <v>33.33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E146">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F146">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G146">
-        <v>5.56</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4902,28 +4902,28 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147">
         <v>14</v>
       </c>
-      <c r="F147">
-        <v>16</v>
-      </c>
       <c r="G147">
-        <v>87.5</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4933,59 +4933,59 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F148">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G148">
-        <v>12.5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E149">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="F149">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G149">
-        <v>85.42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4995,28 +4995,28 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E150">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="F150">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="G150">
-        <v>12.5</v>
+        <v>89.11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5026,64 +5026,64 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F151">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="G151">
-        <v>2.08</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E152">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="G152">
-        <v>72.73</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5093,28 +5093,28 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E153">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F153">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G153">
-        <v>18.18</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5124,59 +5124,59 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E154">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F154">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G154">
-        <v>9.09</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E155">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="F155">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G155">
-        <v>78.18000000000001</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5186,28 +5186,28 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E156">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F156">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G156">
-        <v>18.18</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5217,59 +5217,59 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F157">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G157">
-        <v>3.64</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E158">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F158">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G158">
-        <v>66.67</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5279,90 +5279,90 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E159">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F159">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G159">
-        <v>33.33</v>
+        <v>68.84999999999999</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E160">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F160">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G160">
-        <v>46.15</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E161">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G161">
-        <v>46.15</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5372,90 +5372,90 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F162">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="G162">
-        <v>7.69</v>
+        <v>83.87</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E163">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F163">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G163">
-        <v>76.47</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E164">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F164">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G164">
-        <v>17.65</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5465,59 +5465,59 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E165">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F165">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G165">
-        <v>5.88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E166">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="F166">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="G166">
-        <v>87.18000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5527,47 +5527,1473 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E167">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F167">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="G167">
-        <v>8.970000000000001</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
+          <t>NBC</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>10</v>
+      </c>
+      <c r="G168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>NBC</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E169">
+        <v>53</v>
+      </c>
+      <c r="F169">
+        <v>70</v>
+      </c>
+      <c r="G169">
+        <v>75.70999999999999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>NBC</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E170">
+        <v>15</v>
+      </c>
+      <c r="F170">
+        <v>70</v>
+      </c>
+      <c r="G170">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>NBC</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>70</v>
+      </c>
+      <c r="G171">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>NBC</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E172">
+        <v>56</v>
+      </c>
+      <c r="F172">
+        <v>73</v>
+      </c>
+      <c r="G172">
+        <v>76.70999999999999</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>NBC</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E173">
+        <v>12</v>
+      </c>
+      <c r="F173">
+        <v>73</v>
+      </c>
+      <c r="G173">
+        <v>16.44</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>NBC</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+      <c r="F174">
+        <v>73</v>
+      </c>
+      <c r="G174">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E175">
+        <v>29</v>
+      </c>
+      <c r="F175">
+        <v>51</v>
+      </c>
+      <c r="G175">
+        <v>56.86</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E176">
+        <v>16</v>
+      </c>
+      <c r="F176">
+        <v>51</v>
+      </c>
+      <c r="G176">
+        <v>31.37</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E177">
+        <v>6</v>
+      </c>
+      <c r="F177">
+        <v>51</v>
+      </c>
+      <c r="G177">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E178">
+        <v>42</v>
+      </c>
+      <c r="F178">
+        <v>57</v>
+      </c>
+      <c r="G178">
+        <v>73.68000000000001</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E179">
+        <v>10</v>
+      </c>
+      <c r="F179">
+        <v>57</v>
+      </c>
+      <c r="G179">
+        <v>17.54</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E180">
+        <v>5</v>
+      </c>
+      <c r="F180">
+        <v>57</v>
+      </c>
+      <c r="G180">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>100 Australian speces</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E181">
+        <v>49</v>
+      </c>
+      <c r="F181">
+        <v>55</v>
+      </c>
+      <c r="G181">
+        <v>89.09</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>100 Australian speces</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E182">
+        <v>6</v>
+      </c>
+      <c r="F182">
+        <v>55</v>
+      </c>
+      <c r="G182">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E183">
+        <v>8</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+      <c r="G183">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="G184">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E185">
+        <v>6</v>
+      </c>
+      <c r="F185">
+        <v>12</v>
+      </c>
+      <c r="G185">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E186">
+        <v>6</v>
+      </c>
+      <c r="F186">
+        <v>12</v>
+      </c>
+      <c r="G186">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E187">
+        <v>23</v>
+      </c>
+      <c r="F187">
+        <v>25</v>
+      </c>
+      <c r="G187">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>25</v>
+      </c>
+      <c r="G188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E189">
+        <v>88</v>
+      </c>
+      <c r="F189">
+        <v>94</v>
+      </c>
+      <c r="G189">
+        <v>93.62</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E190">
+        <v>5</v>
+      </c>
+      <c r="F190">
+        <v>94</v>
+      </c>
+      <c r="G190">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>94</v>
+      </c>
+      <c r="G191">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E192">
+        <v>31</v>
+      </c>
+      <c r="F192">
+        <v>48</v>
+      </c>
+      <c r="G192">
+        <v>64.58</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E193">
+        <v>12</v>
+      </c>
+      <c r="F193">
+        <v>48</v>
+      </c>
+      <c r="G193">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E194">
+        <v>5</v>
+      </c>
+      <c r="F194">
+        <v>48</v>
+      </c>
+      <c r="G194">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E195">
+        <v>56</v>
+      </c>
+      <c r="F195">
+        <v>75</v>
+      </c>
+      <c r="G195">
+        <v>74.67</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E196">
+        <v>16</v>
+      </c>
+      <c r="F196">
+        <v>75</v>
+      </c>
+      <c r="G196">
+        <v>21.33</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E197">
+        <v>3</v>
+      </c>
+      <c r="F197">
+        <v>75</v>
+      </c>
+      <c r="G197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
           <t>VSEARCH</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Rottnest</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E198">
+        <v>40</v>
+      </c>
+      <c r="F198">
+        <v>55</v>
+      </c>
+      <c r="G198">
+        <v>72.73</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E199">
+        <v>10</v>
+      </c>
+      <c r="F199">
+        <v>55</v>
+      </c>
+      <c r="G199">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
         <is>
           <t>Genus and species wrong</t>
         </is>
       </c>
-      <c r="E168">
+      <c r="E200">
+        <v>5</v>
+      </c>
+      <c r="F200">
+        <v>55</v>
+      </c>
+      <c r="G200">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E201">
+        <v>43</v>
+      </c>
+      <c r="F201">
+        <v>55</v>
+      </c>
+      <c r="G201">
+        <v>78.18000000000001</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E202">
+        <v>10</v>
+      </c>
+      <c r="F202">
+        <v>55</v>
+      </c>
+      <c r="G202">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203">
+        <v>55</v>
+      </c>
+      <c r="G203">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E204">
+        <v>8</v>
+      </c>
+      <c r="F204">
+        <v>12</v>
+      </c>
+      <c r="G204">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E205">
+        <v>4</v>
+      </c>
+      <c r="F205">
+        <v>12</v>
+      </c>
+      <c r="G205">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E206">
+        <v>6</v>
+      </c>
+      <c r="F206">
+        <v>13</v>
+      </c>
+      <c r="G206">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E207">
+        <v>6</v>
+      </c>
+      <c r="F207">
+        <v>13</v>
+      </c>
+      <c r="G207">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>13</v>
+      </c>
+      <c r="G208">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E209">
+        <v>52</v>
+      </c>
+      <c r="F209">
+        <v>68</v>
+      </c>
+      <c r="G209">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E210">
+        <v>12</v>
+      </c>
+      <c r="F210">
+        <v>68</v>
+      </c>
+      <c r="G210">
+        <v>17.65</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E211">
+        <v>4</v>
+      </c>
+      <c r="F211">
+        <v>68</v>
+      </c>
+      <c r="G211">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E212">
+        <v>68</v>
+      </c>
+      <c r="F212">
+        <v>78</v>
+      </c>
+      <c r="G212">
+        <v>87.18000000000001</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E213">
+        <v>7</v>
+      </c>
+      <c r="F213">
+        <v>78</v>
+      </c>
+      <c r="G213">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E214">
         <v>3</v>
       </c>
-      <c r="F168">
+      <c r="F214">
         <v>78</v>
       </c>
-      <c r="G168">
+      <c r="G214">
         <v>3.85</v>
       </c>
     </row>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -1668,7 +1668,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1687,19 +1687,19 @@
         </is>
       </c>
       <c r="E43">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F43">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G43">
-        <v>79.41</v>
+        <v>68.84999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1718,19 +1718,19 @@
         </is>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F44">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G44">
-        <v>11.76</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1749,19 +1749,19 @@
         </is>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G45">
-        <v>8.82</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1783,16 +1783,16 @@
         <v>52</v>
       </c>
       <c r="F46">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G46">
-        <v>77.61</v>
+        <v>83.87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1811,19 +1811,19 @@
         </is>
       </c>
       <c r="E47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F47">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G47">
-        <v>17.91</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1845,26 +1845,26 @@
         <v>3</v>
       </c>
       <c r="F48">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G48">
-        <v>4.48</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1873,29 +1873,29 @@
         </is>
       </c>
       <c r="E49">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F49">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G49">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1904,50 +1904,50 @@
         </is>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1957,33 +1957,33 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G52">
-        <v>88.89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1993,90 +1993,90 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F53">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G53">
-        <v>11.11</v>
+        <v>75.70999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F54">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G54">
-        <v>45.45</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G55">
-        <v>36.36</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2086,54 +2086,54 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F56">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G56">
-        <v>18.18</v>
+        <v>76.70999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E57">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F57">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="G57">
-        <v>100</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2143,22 +2143,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E58">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G58">
-        <v>98.81</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="59">
@@ -2169,27 +2169,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="F59">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G59">
-        <v>1.19</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="60">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E60">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F60">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G60">
-        <v>83.33</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="61">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2241,17 +2241,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E61">
         <v>6</v>
       </c>
       <c r="F61">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G61">
-        <v>8.33</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="62">
@@ -2262,27 +2262,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F62">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G62">
-        <v>8.33</v>
+        <v>77.61</v>
       </c>
     </row>
     <row r="63">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2303,17 +2303,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E63">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F63">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G63">
-        <v>81.40000000000001</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="64">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G64">
-        <v>12.79</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="65">
@@ -2355,100 +2355,100 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F65">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="G65">
-        <v>5.81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E66">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G66">
-        <v>87.93000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G67">
-        <v>8.619999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2458,59 +2458,59 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F68">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G68">
-        <v>3.45</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E69">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="G69">
-        <v>78.69</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2520,28 +2520,28 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E70">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F70">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G70">
-        <v>19.67</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2551,59 +2551,59 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F71">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G71">
-        <v>1.64</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E72">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F72">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G72">
-        <v>97.44</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2613,33 +2613,33 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F73">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G73">
-        <v>2.56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2648,60 +2648,60 @@
         </is>
       </c>
       <c r="E74">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="F74">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="G74">
-        <v>92.86</v>
+        <v>98.81</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="G75">
-        <v>7.14</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2710,29 +2710,29 @@
         </is>
       </c>
       <c r="E76">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F76">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G76">
-        <v>56.25</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2741,29 +2741,29 @@
         </is>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F77">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G77">
-        <v>25</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2772,29 +2772,29 @@
         </is>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F78">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G78">
-        <v>18.75</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2803,19 +2803,19 @@
         </is>
       </c>
       <c r="E79">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F79">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="G79">
-        <v>100</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2825,28 +2825,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E80">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F80">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G80">
-        <v>100</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2856,22 +2856,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E81">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G81">
-        <v>86.36</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="82">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2892,17 +2892,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="F82">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G82">
-        <v>7.58</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="83">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2923,17 +2923,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F83">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G83">
-        <v>6.06</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -2944,27 +2944,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E84">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="F84">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="G84">
-        <v>86.25</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="85">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2985,17 +2985,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E85">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F85">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G85">
-        <v>10</v>
+        <v>78.69</v>
       </c>
     </row>
     <row r="86">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3016,23 +3016,23 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F86">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G86">
-        <v>3.75</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3042,100 +3042,100 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E87">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G87">
-        <v>90.38</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F88">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G88">
-        <v>7.69</v>
+        <v>97.44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G89">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3144,29 +3144,29 @@
         </is>
       </c>
       <c r="E90">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F90">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G90">
-        <v>81.81999999999999</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3175,29 +3175,29 @@
         </is>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G91">
-        <v>18.18</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3206,29 +3206,29 @@
         </is>
       </c>
       <c r="E92">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F92">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G92">
-        <v>96.43000000000001</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3237,19 +3237,19 @@
         </is>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F93">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G93">
-        <v>3.57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3259,28 +3259,28 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E94">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F94">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G94">
-        <v>100</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3299,112 +3299,112 @@
         </is>
       </c>
       <c r="E95">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F95">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G95">
-        <v>66.67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="F96">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G96">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F97">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G97">
-        <v>8.33</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="G98">
-        <v>100</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3414,28 +3414,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E99">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F99">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G99">
-        <v>100</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3454,19 +3454,19 @@
         </is>
       </c>
       <c r="E100">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F100">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G100">
-        <v>91.38</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3485,19 +3485,19 @@
         </is>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F101">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G101">
-        <v>3.45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3519,10 +3519,10 @@
         <v>3</v>
       </c>
       <c r="F102">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G102">
-        <v>5.17</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="103">
@@ -3533,12 +3533,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3547,13 +3547,13 @@
         </is>
       </c>
       <c r="E103">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F103">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G103">
-        <v>89.19</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="104">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3578,13 +3578,13 @@
         </is>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F104">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G104">
-        <v>8.109999999999999</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="105">
@@ -3595,12 +3595,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3609,19 +3609,19 @@
         </is>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G105">
-        <v>2.7</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3640,19 +3640,19 @@
         </is>
       </c>
       <c r="E106">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F106">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G106">
-        <v>90.77</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3671,29 +3671,29 @@
         </is>
       </c>
       <c r="E107">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F107">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G107">
-        <v>9.23</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3702,50 +3702,50 @@
         </is>
       </c>
       <c r="E108">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F108">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G108">
-        <v>100</v>
+        <v>96.43000000000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E109">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G109">
-        <v>93.33</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3760,23 +3760,23 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F110">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G110">
-        <v>6.67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3795,19 +3795,19 @@
         </is>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G111">
-        <v>90</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3826,81 +3826,81 @@
         </is>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G112">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E113">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G113">
-        <v>96.67</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F114">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G114">
-        <v>3.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3919,19 +3919,19 @@
         </is>
       </c>
       <c r="E115">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F115">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G115">
-        <v>94.73999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3941,28 +3941,28 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F116">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G116">
-        <v>3.51</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3972,33 +3972,33 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G117">
-        <v>1.75</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4008,90 +4008,90 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E118">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="F118">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G118">
-        <v>81.94</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E119">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F119">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G119">
-        <v>13.89</v>
+        <v>89.19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F120">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G120">
-        <v>4.17</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4101,23 +4101,23 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E121">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F121">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G121">
-        <v>92.31</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4127,33 +4127,33 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E122">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="F122">
         <v>65</v>
       </c>
       <c r="G122">
-        <v>7.69</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4163,54 +4163,54 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E123">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F123">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G123">
-        <v>94.12</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F124">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G124">
-        <v>5.88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4229,19 +4229,19 @@
         </is>
       </c>
       <c r="E125">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F125">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G125">
-        <v>71.43000000000001</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4260,19 +4260,19 @@
         </is>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G126">
-        <v>21.43</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4287,54 +4287,54 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F127">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G127">
-        <v>7.14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E128">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G128">
-        <v>90.14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4349,23 +4349,23 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="F129">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G129">
-        <v>4.23</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4380,23 +4380,23 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F130">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G130">
-        <v>5.63</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4415,19 +4415,19 @@
         </is>
       </c>
       <c r="E131">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F131">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G131">
-        <v>89.61</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4446,19 +4446,19 @@
         </is>
       </c>
       <c r="E132">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F132">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G132">
-        <v>6.49</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4477,19 +4477,19 @@
         </is>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G133">
-        <v>3.9</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4508,19 +4508,19 @@
         </is>
       </c>
       <c r="E134">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F134">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G134">
-        <v>67.20999999999999</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4539,19 +4539,19 @@
         </is>
       </c>
       <c r="E135">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F135">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G135">
-        <v>24.59</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4570,19 +4570,19 @@
         </is>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F136">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G136">
-        <v>8.199999999999999</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4601,19 +4601,19 @@
         </is>
       </c>
       <c r="E137">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F137">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G137">
-        <v>78.12</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4632,143 +4632,143 @@
         </is>
       </c>
       <c r="E138">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F138">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G138">
-        <v>15.62</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E139">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F139">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="G139">
-        <v>6.25</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E140">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G140">
-        <v>86.67</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E141">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F141">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G141">
-        <v>10</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F142">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G142">
-        <v>3.33</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4778,33 +4778,33 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E143">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G143">
-        <v>69.23</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4814,90 +4814,90 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E144">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F144">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="G144">
-        <v>30.77</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E145">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F145">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G145">
-        <v>50</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F146">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G146">
-        <v>35.71</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4907,79 +4907,79 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="F147">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="G147">
-        <v>14.29</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E148">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F148">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G148">
-        <v>92</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F149">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G149">
-        <v>8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="150">
@@ -4990,12 +4990,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="E150">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="F150">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="G150">
-        <v>89.11</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="151">
@@ -5021,12 +5021,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="E151">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F151">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="G151">
-        <v>9.9</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="152">
@@ -5052,12 +5052,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5066,13 +5066,13 @@
         </is>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F152">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="G152">
-        <v>0.99</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="153">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5097,13 +5097,13 @@
         </is>
       </c>
       <c r="E153">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F153">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G153">
-        <v>66.67</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="154">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5128,13 +5128,13 @@
         </is>
       </c>
       <c r="E154">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F154">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G154">
-        <v>28.57</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="155">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5159,13 +5159,13 @@
         </is>
       </c>
       <c r="E155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F155">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G155">
-        <v>4.76</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="156">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5190,13 +5190,13 @@
         </is>
       </c>
       <c r="E156">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F156">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G156">
-        <v>70.93000000000001</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="157">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5221,13 +5221,13 @@
         </is>
       </c>
       <c r="E157">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F157">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G157">
-        <v>22.09</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
@@ -5238,12 +5238,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian speces</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5252,24 +5252,24 @@
         </is>
       </c>
       <c r="E158">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F158">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G158">
-        <v>6.98</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5283,24 +5283,24 @@
         </is>
       </c>
       <c r="E159">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F159">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G159">
-        <v>68.84999999999999</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5314,55 +5314,55 @@
         </is>
       </c>
       <c r="E160">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F160">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G160">
-        <v>29.51</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F161">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G161">
-        <v>1.64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5372,28 +5372,28 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E162">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F162">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G162">
-        <v>83.87</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5403,54 +5403,54 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E163">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F163">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G163">
-        <v>11.29</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E164">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F164">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G164">
-        <v>4.84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5460,121 +5460,121 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E165">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F165">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G165">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E166">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="F166">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="G166">
-        <v>20</v>
+        <v>89.11</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E167">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F167">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G167">
-        <v>90</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G168">
-        <v>10</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5593,19 +5593,19 @@
         </is>
       </c>
       <c r="E169">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F169">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G169">
-        <v>75.70999999999999</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5624,19 +5624,19 @@
         </is>
       </c>
       <c r="E170">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F170">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G170">
-        <v>21.43</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5655,19 +5655,19 @@
         </is>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F171">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G171">
-        <v>2.86</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5686,19 +5686,19 @@
         </is>
       </c>
       <c r="E172">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F172">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G172">
-        <v>76.70999999999999</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5717,19 +5717,19 @@
         </is>
       </c>
       <c r="E173">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F173">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G173">
-        <v>16.44</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5748,13 +5748,13 @@
         </is>
       </c>
       <c r="E174">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F174">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G174">
-        <v>6.85</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="175">

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>100 Australian speces</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1859,12 +1859,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1873,13 +1873,13 @@
         </is>
       </c>
       <c r="E49">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F49">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G49">
-        <v>80</v>
+        <v>86.44</v>
       </c>
     </row>
     <row r="50">
@@ -1890,12 +1890,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1904,13 +1904,13 @@
         </is>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F50">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G50">
-        <v>20</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="51">
@@ -1921,27 +1921,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G51">
-        <v>90</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="52">
@@ -1957,22 +1957,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1993,17 +1993,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E53">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G53">
-        <v>75.70999999999999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -2014,27 +2014,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E54">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F54">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G54">
-        <v>21.43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
@@ -2045,27 +2045,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>2.86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2090,13 +2090,13 @@
         </is>
       </c>
       <c r="E56">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F56">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G56">
-        <v>76.70999999999999</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2121,13 +2121,13 @@
         </is>
       </c>
       <c r="E57">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G57">
-        <v>16.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -2143,64 +2143,64 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="F58">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G58">
-        <v>6.85</v>
+        <v>91.01000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E59">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F59">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G59">
-        <v>79.41</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2210,28 +2210,28 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="F60">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G60">
-        <v>11.76</v>
+        <v>75.70999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2241,59 +2241,59 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F61">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G61">
-        <v>8.82</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E62">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F62">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G62">
-        <v>77.61</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2303,28 +2303,28 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E63">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F63">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G63">
-        <v>17.91</v>
+        <v>76.70999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2334,48 +2334,48 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F64">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G64">
-        <v>4.48</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E65">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G65">
-        <v>96</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="66">
@@ -2391,22 +2391,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="F66">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="67">
@@ -2422,22 +2422,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F67">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="68">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2458,17 +2458,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E68">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F68">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G68">
-        <v>88.89</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="69">
@@ -2479,27 +2479,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="F69">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G69">
-        <v>11.11</v>
+        <v>77.61</v>
       </c>
     </row>
     <row r="70">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2520,17 +2520,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G70">
-        <v>45.45</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="71">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2551,17 +2551,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G71">
-        <v>36.36</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="72">
@@ -2572,27 +2572,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F72">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G72">
-        <v>18.18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2613,17 +2613,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E73">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G73">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E74">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G74">
-        <v>98.81</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2665,27 +2665,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F75">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="G75">
-        <v>1.19</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="76">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2706,17 +2706,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E76">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G76">
-        <v>83.33</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="77">
@@ -2727,27 +2727,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F77">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G77">
-        <v>8.33</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="78">
@@ -2758,27 +2758,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E78">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F78">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G78">
-        <v>8.33</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="79">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E79">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="F79">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="G79">
-        <v>81.40000000000001</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="80">
@@ -2820,27 +2820,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E80">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F80">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="G80">
-        <v>12.79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
@@ -2856,64 +2856,64 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="F81">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G81">
-        <v>5.81</v>
+        <v>98.81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E82">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G82">
-        <v>87.93000000000001</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2923,28 +2923,28 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F83">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G83">
-        <v>8.619999999999999</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2954,59 +2954,59 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F84">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G84">
-        <v>3.45</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E85">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F85">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G85">
-        <v>78.69</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3016,28 +3016,28 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E86">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F86">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="G86">
-        <v>19.67</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3047,48 +3047,48 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F87">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="G87">
-        <v>1.64</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E88">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F88">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G88">
-        <v>97.44</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="89">
@@ -3104,22 +3104,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F89">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G89">
-        <v>2.56</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="90">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3140,17 +3140,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E90">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F90">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="G90">
-        <v>92.86</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3171,17 +3171,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="G91">
-        <v>7.14</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="92">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3206,13 +3206,13 @@
         </is>
       </c>
       <c r="E92">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F92">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G92">
-        <v>56.25</v>
+        <v>78.69</v>
       </c>
     </row>
     <row r="93">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3237,13 +3237,13 @@
         </is>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F93">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G93">
-        <v>25</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="94">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3268,13 +3268,13 @@
         </is>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G94">
-        <v>18.75</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="95">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3299,13 +3299,13 @@
         </is>
       </c>
       <c r="E95">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F95">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G95">
-        <v>100</v>
+        <v>97.44</v>
       </c>
     </row>
     <row r="96">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3326,17 +3326,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E96">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G96">
-        <v>100</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="97">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3361,13 +3361,13 @@
         </is>
       </c>
       <c r="E97">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F97">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="G97">
-        <v>86.36</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="98">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3392,13 +3392,13 @@
         </is>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="G98">
-        <v>7.58</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="99">
@@ -3409,27 +3409,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F99">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G99">
-        <v>6.06</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="100">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3450,17 +3450,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E100">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="F100">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="G100">
-        <v>86.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3481,17 +3481,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E101">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F101">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="102">
@@ -3502,43 +3502,43 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F102">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="G102">
-        <v>3.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3547,24 +3547,24 @@
         </is>
       </c>
       <c r="E103">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F103">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G103">
-        <v>90.38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3574,28 +3574,28 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F104">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G104">
-        <v>7.69</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3605,59 +3605,59 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F105">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G105">
-        <v>1.92</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E106">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F106">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G106">
-        <v>81.81999999999999</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3667,79 +3667,79 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E107">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F107">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G107">
-        <v>18.18</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E108">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G108">
-        <v>96.43000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F109">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G109">
-        <v>3.57</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="110">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3764,13 +3764,13 @@
         </is>
       </c>
       <c r="E110">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F110">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="G110">
-        <v>100</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="111">
@@ -3781,27 +3781,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F111">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G111">
-        <v>66.67</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="112">
@@ -3812,27 +3812,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G112">
-        <v>25</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="113">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3853,17 +3853,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F113">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G113">
-        <v>8.33</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -3874,27 +3874,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E114">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F114">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G114">
-        <v>100</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="115">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="E115">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F115">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G115">
-        <v>100</v>
+        <v>96.43000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -3936,27 +3936,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E116">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="G116">
-        <v>91.38</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="117">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3977,17 +3977,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F117">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G117">
-        <v>3.45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118">
@@ -3998,27 +3998,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F118">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G118">
-        <v>5.17</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="119">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4039,17 +4039,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E119">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="F119">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G119">
-        <v>89.19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4070,17 +4070,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E120">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G120">
-        <v>8.109999999999999</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="121">
@@ -4091,43 +4091,43 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F121">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="G121">
-        <v>2.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4136,24 +4136,24 @@
         </is>
       </c>
       <c r="E122">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F122">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G122">
-        <v>90.77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4163,59 +4163,59 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E123">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="F123">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G123">
-        <v>9.23</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E124">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F124">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G124">
-        <v>100</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4225,59 +4225,59 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E125">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F125">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="G125">
-        <v>93.33</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="F126">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="G126">
-        <v>6.67</v>
+        <v>89.19</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4287,28 +4287,28 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E127">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="G127">
-        <v>90</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4318,17 +4318,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="G128">
-        <v>10</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="129">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="E129">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F129">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G129">
-        <v>96.67</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="130">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4384,13 +4384,13 @@
         </is>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F130">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G130">
-        <v>3.33</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="131">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4415,13 +4415,13 @@
         </is>
       </c>
       <c r="E131">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F131">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G131">
-        <v>94.73999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132">
@@ -4432,27 +4432,27 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F132">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="G132">
-        <v>3.51</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="133">
@@ -4463,43 +4463,43 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="F133">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="G133">
-        <v>1.75</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4508,29 +4508,29 @@
         </is>
       </c>
       <c r="E134">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F134">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G134">
-        <v>81.94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4539,24 +4539,24 @@
         </is>
       </c>
       <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
         <v>10</v>
       </c>
-      <c r="F135">
-        <v>72</v>
-      </c>
       <c r="G135">
-        <v>13.89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4566,59 +4566,59 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="F136">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G136">
-        <v>4.17</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
         <v>60</v>
       </c>
-      <c r="F137">
-        <v>65</v>
-      </c>
       <c r="G137">
-        <v>92.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4628,79 +4628,79 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E138">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F138">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G138">
-        <v>7.69</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E139">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F139">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G139">
-        <v>94.12</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G140">
-        <v>5.88</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="141">
@@ -4711,12 +4711,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4725,13 +4725,13 @@
         </is>
       </c>
       <c r="E141">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F141">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G141">
-        <v>71.43000000000001</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="142">
@@ -4742,12 +4742,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F142">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G142">
-        <v>21.43</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="143">
@@ -4773,12 +4773,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4787,13 +4787,13 @@
         </is>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F143">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G143">
-        <v>7.14</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="144">
@@ -4804,12 +4804,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4818,13 +4818,13 @@
         </is>
       </c>
       <c r="E144">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F144">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G144">
-        <v>90.14</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="145">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4849,13 +4849,13 @@
         </is>
       </c>
       <c r="E145">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F145">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G145">
-        <v>4.23</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="146">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4876,17 +4876,17 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E146">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F146">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="G146">
-        <v>5.63</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="147">
@@ -4897,27 +4897,27 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E147">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G147">
-        <v>89.61</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="148">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4938,17 +4938,17 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E148">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F148">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="G148">
-        <v>6.49</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="149">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4969,59 +4969,59 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E149">
         <v>3</v>
       </c>
       <c r="F149">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="G149">
-        <v>3.9</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E150">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G150">
-        <v>67.20999999999999</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5031,28 +5031,28 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E151">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F151">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G151">
-        <v>24.59</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5062,59 +5062,59 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E152">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F152">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G152">
-        <v>8.199999999999999</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E153">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F153">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G153">
-        <v>78.12</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5124,28 +5124,28 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E154">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F154">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G154">
-        <v>15.62</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5155,48 +5155,48 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F155">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G155">
-        <v>6.25</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E156">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="F156">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G156">
-        <v>86.67</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="157">
@@ -5212,22 +5212,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E157">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F157">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G157">
-        <v>10</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="158">
@@ -5243,22 +5243,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F158">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G158">
-        <v>3.33</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="159">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5279,17 +5279,17 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E159">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F159">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G159">
-        <v>69.23</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="160">
@@ -5300,27 +5300,27 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E160">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F160">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G160">
-        <v>30.77</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="161">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5341,17 +5341,17 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E161">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F161">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G161">
-        <v>50</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="162">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5372,17 +5372,17 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F162">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G162">
-        <v>35.71</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="163">
@@ -5393,27 +5393,27 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="F163">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G163">
-        <v>14.29</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="164">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5434,17 +5434,17 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E164">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F164">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G164">
-        <v>92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5465,17 +5465,17 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E165">
         <v>2</v>
       </c>
       <c r="F165">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G165">
-        <v>8</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="166">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="E166">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F166">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="G166">
-        <v>89.11</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="167">
@@ -5517,12 +5517,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E167">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F167">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="G167">
-        <v>9.9</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="168">
@@ -5548,27 +5548,27 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F168">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="G168">
-        <v>0.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169">
@@ -5579,27 +5579,27 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E169">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F169">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G169">
-        <v>66.67</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="170">
@@ -5610,27 +5610,27 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E170">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F170">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G170">
-        <v>28.57</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="171">
@@ -5641,27 +5641,27 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E171">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F171">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="G171">
-        <v>4.76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172">
@@ -5672,27 +5672,27 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E172">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="F172">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="G172">
-        <v>70.93000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173">
@@ -5708,22 +5708,22 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E173">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="F173">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G173">
-        <v>22.09</v>
+        <v>89.11</v>
       </c>
     </row>
     <row r="174">
@@ -5739,64 +5739,64 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E174">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F174">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G174">
-        <v>6.98</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E175">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="G175">
-        <v>56.86</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5806,28 +5806,28 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E176">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F176">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G176">
-        <v>31.37</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5837,59 +5837,59 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E177">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F177">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G177">
-        <v>11.76</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E178">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="F178">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G178">
-        <v>73.68000000000001</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5899,28 +5899,28 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E179">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F179">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="G179">
-        <v>17.54</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5930,48 +5930,48 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E180">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F180">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="G180">
-        <v>8.77</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E181">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="F181">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G181">
-        <v>89.09</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="182">
@@ -5987,22 +5987,22 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E182">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F182">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G182">
-        <v>10.91</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="183">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6023,17 +6023,17 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E183">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F183">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="G183">
-        <v>88.89</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="184">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6054,17 +6054,17 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F184">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="G184">
-        <v>11.11</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="185">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6089,13 +6089,13 @@
         </is>
       </c>
       <c r="E185">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F185">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G185">
-        <v>50</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="186">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6120,13 +6120,13 @@
         </is>
       </c>
       <c r="E186">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F186">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G186">
-        <v>50</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="187">
@@ -6137,27 +6137,27 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E187">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F187">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G187">
-        <v>92</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="188">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6178,17 +6178,17 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="F188">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G188">
-        <v>8</v>
+        <v>89.09</v>
       </c>
     </row>
     <row r="189">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6209,17 +6209,17 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E189">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="F189">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="G189">
-        <v>93.62</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="190">
@@ -6230,27 +6230,27 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E190">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F190">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="G190">
-        <v>5.32</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="191">
@@ -6261,27 +6261,27 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
       <c r="F191">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="G191">
-        <v>1.06</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="192">
@@ -6292,12 +6292,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="E192">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F192">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G192">
-        <v>64.58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193">
@@ -6323,12 +6323,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="E193">
+        <v>6</v>
+      </c>
+      <c r="F193">
         <v>12</v>
       </c>
-      <c r="F193">
-        <v>48</v>
-      </c>
       <c r="G193">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194">
@@ -6354,27 +6354,27 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E194">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F194">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G194">
-        <v>10.42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="195">
@@ -6385,27 +6385,27 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E195">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="F195">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G195">
-        <v>74.67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196">
@@ -6421,22 +6421,22 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E196">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F196">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G196">
-        <v>21.33</v>
+        <v>93.62</v>
       </c>
     </row>
     <row r="197">
@@ -6452,64 +6452,64 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E197">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F197">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G197">
-        <v>4</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E198">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G198">
-        <v>72.73</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6519,28 +6519,28 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E199">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F199">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G199">
-        <v>18.18</v>
+        <v>64.58</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6550,59 +6550,59 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E200">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F200">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G200">
-        <v>9.09</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E201">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F201">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G201">
-        <v>78.18000000000001</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6612,28 +6612,28 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E202">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F202">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G202">
-        <v>18.18</v>
+        <v>74.67</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6643,48 +6643,48 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E203">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F203">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G203">
-        <v>3.64</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E204">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F204">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G204">
-        <v>66.67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6705,17 +6705,17 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E205">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F205">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G205">
-        <v>33.33</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="206">
@@ -6726,27 +6726,27 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E206">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F206">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G206">
-        <v>46.15</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="207">
@@ -6757,27 +6757,27 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E207">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F207">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G207">
-        <v>46.15</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="208">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6798,17 +6798,17 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F208">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G208">
-        <v>7.69</v>
+        <v>78.18000000000001</v>
       </c>
     </row>
     <row r="209">
@@ -6819,27 +6819,27 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E209">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F209">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G209">
-        <v>76.47</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="210">
@@ -6850,27 +6850,27 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E210">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F210">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G210">
-        <v>17.65</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="211">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6891,17 +6891,17 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E211">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F211">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G211">
-        <v>5.88</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="212">
@@ -6912,27 +6912,27 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E212">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="F212">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G212">
-        <v>87.18000000000001</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="213">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6953,17 +6953,17 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E213">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F213">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="G213">
-        <v>8.970000000000001</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="214">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -6984,16 +6984,233 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E214">
+        <v>6</v>
+      </c>
+      <c r="F214">
+        <v>13</v>
+      </c>
+      <c r="G214">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
           <t>Genus and species wrong</t>
         </is>
       </c>
-      <c r="E214">
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>13</v>
+      </c>
+      <c r="G215">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E216">
+        <v>52</v>
+      </c>
+      <c r="F216">
+        <v>68</v>
+      </c>
+      <c r="G216">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E217">
+        <v>12</v>
+      </c>
+      <c r="F217">
+        <v>68</v>
+      </c>
+      <c r="G217">
+        <v>17.65</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E218">
+        <v>4</v>
+      </c>
+      <c r="F218">
+        <v>68</v>
+      </c>
+      <c r="G218">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E219">
+        <v>68</v>
+      </c>
+      <c r="F219">
+        <v>78</v>
+      </c>
+      <c r="G219">
+        <v>87.18000000000001</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E220">
+        <v>7</v>
+      </c>
+      <c r="F220">
+        <v>78</v>
+      </c>
+      <c r="G220">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E221">
         <v>3</v>
       </c>
-      <c r="F214">
+      <c r="F221">
         <v>78</v>
       </c>
-      <c r="G214">
+      <c r="G221">
         <v>3.85</v>
       </c>
     </row>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5202,7 +5202,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5221,19 +5221,19 @@
         </is>
       </c>
       <c r="E157">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F157">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G157">
-        <v>67.20999999999999</v>
+        <v>78.08</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="E158">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F158">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G158">
-        <v>24.59</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5283,19 +5283,19 @@
         </is>
       </c>
       <c r="E159">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F159">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G159">
-        <v>8.199999999999999</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5314,19 +5314,19 @@
         </is>
       </c>
       <c r="E160">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F160">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G160">
-        <v>78.12</v>
+        <v>72.37</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5345,19 +5345,19 @@
         </is>
       </c>
       <c r="E161">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F161">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G161">
-        <v>15.62</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5376,19 +5376,19 @@
         </is>
       </c>
       <c r="E162">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F162">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G162">
-        <v>6.25</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5407,19 +5407,19 @@
         </is>
       </c>
       <c r="E163">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F163">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G163">
-        <v>86.67</v>
+        <v>86.84</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5438,19 +5438,19 @@
         </is>
       </c>
       <c r="E164">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F164">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G164">
-        <v>10</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5469,19 +5469,19 @@
         </is>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F165">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G165">
-        <v>3.33</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5500,19 +5500,19 @@
         </is>
       </c>
       <c r="E166">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F166">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G166">
-        <v>69.23</v>
+        <v>89.47</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5531,19 +5531,19 @@
         </is>
       </c>
       <c r="E167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F167">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G167">
-        <v>30.77</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5562,19 +5562,19 @@
         </is>
       </c>
       <c r="E168">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F168">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G168">
-        <v>50</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5593,19 +5593,19 @@
         </is>
       </c>
       <c r="E169">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F169">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G169">
-        <v>35.71</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5624,19 +5624,19 @@
         </is>
       </c>
       <c r="E170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F170">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G170">
-        <v>14.29</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5655,19 +5655,19 @@
         </is>
       </c>
       <c r="E171">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F171">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G171">
-        <v>92</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5686,19 +5686,19 @@
         </is>
       </c>
       <c r="E172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G172">
-        <v>8</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5717,19 +5717,19 @@
         </is>
       </c>
       <c r="E173">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F173">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G173">
-        <v>89.11</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5748,19 +5748,19 @@
         </is>
       </c>
       <c r="E174">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F174">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G174">
-        <v>9.9</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5770,28 +5770,28 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="F175">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G175">
-        <v>0.99</v>
+        <v>84.42</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5806,23 +5806,23 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E176">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F176">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G176">
-        <v>66.67</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5837,23 +5837,23 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E177">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F177">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G177">
-        <v>28.57</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5863,28 +5863,28 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E178">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="F178">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G178">
-        <v>4.76</v>
+        <v>77.27</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5899,23 +5899,23 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E179">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F179">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G179">
-        <v>70.93000000000001</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5930,17 +5930,17 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E180">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F180">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G180">
-        <v>22.09</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="181">
@@ -5951,33 +5951,33 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E181">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F181">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G181">
-        <v>6.98</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5992,23 +5992,23 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E182">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F182">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G182">
-        <v>56.86</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6023,23 +6023,23 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E183">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F183">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G183">
-        <v>31.37</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6049,28 +6049,28 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E184">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F184">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G184">
-        <v>11.76</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6085,23 +6085,23 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E185">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F185">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G185">
-        <v>73.68000000000001</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6116,23 +6116,23 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E186">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F186">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G186">
-        <v>17.54</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6142,28 +6142,28 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E187">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F187">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G187">
-        <v>8.77</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6178,23 +6178,23 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E188">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="F188">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G188">
-        <v>89.09</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6209,23 +6209,23 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E189">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F189">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G189">
-        <v>10.91</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6244,19 +6244,19 @@
         </is>
       </c>
       <c r="E190">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F190">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G190">
-        <v>88.89</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6275,19 +6275,19 @@
         </is>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F191">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G191">
-        <v>11.11</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="E192">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F192">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G192">
         <v>50</v>
@@ -6318,7 +6318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="E193">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F193">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G193">
-        <v>50</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6359,28 +6359,28 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E194">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F194">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G194">
-        <v>92</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6395,28 +6395,28 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F195">
         <v>25</v>
       </c>
       <c r="G195">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6426,23 +6426,23 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E196">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="F196">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="G196">
-        <v>93.62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6457,23 +6457,23 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E197">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F197">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G197">
-        <v>5.32</v>
+        <v>89.11</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6488,23 +6488,23 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F198">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G198">
-        <v>1.06</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6514,28 +6514,28 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E199">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="G199">
-        <v>64.58</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6550,23 +6550,23 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E200">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F200">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G200">
-        <v>25</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6581,23 +6581,23 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E201">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F201">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G201">
-        <v>10.42</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -6607,28 +6607,28 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E202">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="F202">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G202">
-        <v>74.67</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6643,23 +6643,23 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E203">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F203">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G203">
-        <v>21.33</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6674,54 +6674,54 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E204">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F204">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G204">
-        <v>4</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Rottnest</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E205">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F205">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G205">
-        <v>72.73</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6736,23 +6736,23 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E206">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F206">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G206">
-        <v>18.18</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6767,23 +6767,23 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E207">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F207">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G207">
-        <v>9.09</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6793,28 +6793,28 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E208">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F208">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G208">
-        <v>78.18000000000001</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6829,23 +6829,23 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E209">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F209">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G209">
-        <v>18.18</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6860,116 +6860,116 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E210">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F210">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G210">
-        <v>3.64</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E211">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F211">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G211">
-        <v>66.67</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E212">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F212">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G212">
-        <v>33.33</v>
+        <v>89.09</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E213">
         <v>6</v>
       </c>
       <c r="F213">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G213">
-        <v>46.15</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6979,28 +6979,28 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E214">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F214">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G214">
-        <v>46.15</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7010,38 +7010,38 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G215">
-        <v>7.69</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7050,29 +7050,29 @@
         </is>
       </c>
       <c r="E216">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F216">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G216">
-        <v>76.47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7081,81 +7081,81 @@
         </is>
       </c>
       <c r="E217">
+        <v>6</v>
+      </c>
+      <c r="F217">
         <v>12</v>
       </c>
-      <c r="F217">
-        <v>68</v>
-      </c>
       <c r="G217">
-        <v>17.65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E218">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F218">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="G218">
-        <v>5.88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E219">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="F219">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="G219">
-        <v>87.18000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7165,52 +7165,796 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E220">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="F220">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G220">
-        <v>8.970000000000001</v>
+        <v>93.62</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E221">
+        <v>5</v>
+      </c>
+      <c r="F221">
+        <v>94</v>
+      </c>
+      <c r="G221">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>94</v>
+      </c>
+      <c r="G222">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E223">
+        <v>31</v>
+      </c>
+      <c r="F223">
+        <v>48</v>
+      </c>
+      <c r="G223">
+        <v>64.58</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E224">
+        <v>12</v>
+      </c>
+      <c r="F224">
+        <v>48</v>
+      </c>
+      <c r="G224">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E225">
+        <v>5</v>
+      </c>
+      <c r="F225">
+        <v>48</v>
+      </c>
+      <c r="G225">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E226">
+        <v>56</v>
+      </c>
+      <c r="F226">
+        <v>75</v>
+      </c>
+      <c r="G226">
+        <v>74.67</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E227">
+        <v>16</v>
+      </c>
+      <c r="F227">
+        <v>75</v>
+      </c>
+      <c r="G227">
+        <v>21.33</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E228">
+        <v>3</v>
+      </c>
+      <c r="F228">
+        <v>75</v>
+      </c>
+      <c r="G228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
           <t>VSEARCH</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Rottnest</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E229">
+        <v>40</v>
+      </c>
+      <c r="F229">
+        <v>55</v>
+      </c>
+      <c r="G229">
+        <v>72.73</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E230">
+        <v>10</v>
+      </c>
+      <c r="F230">
+        <v>55</v>
+      </c>
+      <c r="G230">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
         <is>
           <t>Genus and species wrong</t>
         </is>
       </c>
-      <c r="E221">
+      <c r="E231">
+        <v>5</v>
+      </c>
+      <c r="F231">
+        <v>55</v>
+      </c>
+      <c r="G231">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E232">
+        <v>43</v>
+      </c>
+      <c r="F232">
+        <v>55</v>
+      </c>
+      <c r="G232">
+        <v>78.18000000000001</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E233">
+        <v>10</v>
+      </c>
+      <c r="F233">
+        <v>55</v>
+      </c>
+      <c r="G233">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <v>55</v>
+      </c>
+      <c r="G234">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E235">
+        <v>8</v>
+      </c>
+      <c r="F235">
+        <v>12</v>
+      </c>
+      <c r="G235">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E236">
+        <v>4</v>
+      </c>
+      <c r="F236">
+        <v>12</v>
+      </c>
+      <c r="G236">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E237">
+        <v>6</v>
+      </c>
+      <c r="F237">
+        <v>13</v>
+      </c>
+      <c r="G237">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E238">
+        <v>6</v>
+      </c>
+      <c r="F238">
+        <v>13</v>
+      </c>
+      <c r="G238">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>13</v>
+      </c>
+      <c r="G239">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E240">
+        <v>52</v>
+      </c>
+      <c r="F240">
+        <v>68</v>
+      </c>
+      <c r="G240">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E241">
+        <v>12</v>
+      </c>
+      <c r="F241">
+        <v>68</v>
+      </c>
+      <c r="G241">
+        <v>17.65</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E242">
+        <v>4</v>
+      </c>
+      <c r="F242">
+        <v>68</v>
+      </c>
+      <c r="G242">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E243">
+        <v>68</v>
+      </c>
+      <c r="F243">
+        <v>78</v>
+      </c>
+      <c r="G243">
+        <v>87.18000000000001</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E244">
+        <v>7</v>
+      </c>
+      <c r="F244">
+        <v>78</v>
+      </c>
+      <c r="G244">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E245">
         <v>3</v>
       </c>
-      <c r="F221">
+      <c r="F245">
         <v>78</v>
       </c>
-      <c r="G221">
+      <c r="G245">
         <v>3.85</v>
       </c>
     </row>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G245"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7625,12 +7625,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7639,13 +7639,13 @@
         </is>
       </c>
       <c r="E235">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G235">
-        <v>66.67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236">
@@ -7656,12 +7656,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7673,10 +7673,10 @@
         <v>4</v>
       </c>
       <c r="F236">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G236">
-        <v>33.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="E237">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F237">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G237">
-        <v>46.15</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="238">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7732,13 +7732,13 @@
         </is>
       </c>
       <c r="E238">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F238">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G238">
-        <v>46.15</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="239">
@@ -7759,17 +7759,17 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F239">
         <v>13</v>
       </c>
       <c r="G239">
-        <v>7.69</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="240">
@@ -7780,27 +7780,27 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E240">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F240">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="G240">
-        <v>76.47</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="241">
@@ -7811,27 +7811,27 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E241">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="G241">
-        <v>17.65</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="242">
@@ -7842,27 +7842,27 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F242">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="G242">
-        <v>5.88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="E243">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F243">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="G243">
-        <v>87.18000000000001</v>
+        <v>73.53</v>
       </c>
     </row>
     <row r="244">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7918,13 +7918,13 @@
         </is>
       </c>
       <c r="E244">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F244">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="G244">
-        <v>8.970000000000001</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="245">
@@ -7940,21 +7940,176 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E245">
+        <v>52</v>
+      </c>
+      <c r="F245">
+        <v>68</v>
+      </c>
+      <c r="G245">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E246">
+        <v>12</v>
+      </c>
+      <c r="F246">
+        <v>68</v>
+      </c>
+      <c r="G246">
+        <v>17.65</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
           <t>Genus and species wrong</t>
         </is>
       </c>
-      <c r="E245">
+      <c r="E247">
+        <v>4</v>
+      </c>
+      <c r="F247">
+        <v>68</v>
+      </c>
+      <c r="G247">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E248">
+        <v>68</v>
+      </c>
+      <c r="F248">
+        <v>78</v>
+      </c>
+      <c r="G248">
+        <v>87.18000000000001</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E249">
+        <v>7</v>
+      </c>
+      <c r="F249">
+        <v>78</v>
+      </c>
+      <c r="G249">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Rottnest</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E250">
         <v>3</v>
       </c>
-      <c r="F245">
+      <c r="F250">
         <v>78</v>
       </c>
-      <c r="G245">
+      <c r="G250">
         <v>3.85</v>
       </c>
     </row>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:G260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,7 +712,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4432,12 +4432,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4446,13 +4446,13 @@
         </is>
       </c>
       <c r="E132">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F132">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G132">
-        <v>93.33</v>
+        <v>97.22</v>
       </c>
     </row>
     <row r="133">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4480,10 +4480,10 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G133">
-        <v>6.67</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="134">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4508,13 +4508,13 @@
         </is>
       </c>
       <c r="E134">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G134">
-        <v>90</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="135">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4542,10 +4542,10 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G135">
-        <v>10</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="136">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4570,13 +4570,13 @@
         </is>
       </c>
       <c r="E136">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F136">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G136">
-        <v>96.67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4601,13 +4601,13 @@
         </is>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G137">
-        <v>3.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -4618,12 +4618,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="E138">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F138">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G138">
-        <v>94.73999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139">
@@ -4649,27 +4649,27 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F139">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G139">
-        <v>3.51</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="140">
@@ -4680,38 +4680,38 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G140">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4725,24 +4725,24 @@
         </is>
       </c>
       <c r="E141">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F141">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G141">
-        <v>81.94</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4756,55 +4756,55 @@
         </is>
       </c>
       <c r="E142">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F142">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G142">
-        <v>13.89</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="F143">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G143">
-        <v>4.17</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4814,28 +4814,28 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E144">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F144">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G144">
-        <v>92.31</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4845,17 +4845,17 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G145">
-        <v>7.69</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="146">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4880,13 +4880,13 @@
         </is>
       </c>
       <c r="E146">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F146">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G146">
-        <v>94.12</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="147">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4911,13 +4911,13 @@
         </is>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F147">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G147">
-        <v>5.88</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="148">
@@ -4928,27 +4928,27 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E148">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F148">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G148">
-        <v>71.43000000000001</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="149">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4969,17 +4969,17 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E149">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F149">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G149">
-        <v>21.43</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="150">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5000,17 +5000,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F150">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G150">
-        <v>7.14</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="151">
@@ -5021,12 +5021,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="E151">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F151">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G151">
-        <v>90.14</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="152">
@@ -5052,12 +5052,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5066,13 +5066,13 @@
         </is>
       </c>
       <c r="E152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G152">
-        <v>4.23</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="153">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5093,17 +5093,17 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E153">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F153">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="G153">
-        <v>5.63</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="154">
@@ -5114,27 +5114,27 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E154">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G154">
-        <v>89.61</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="155">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5155,17 +5155,17 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E155">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F155">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="G155">
-        <v>6.49</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="156">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5186,327 +5186,327 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E156">
         <v>3</v>
       </c>
       <c r="F156">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="G156">
-        <v>3.9</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E157">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G157">
-        <v>78.08</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E158">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F158">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="G158">
-        <v>13.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E159">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="F159">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G159">
-        <v>8.220000000000001</v>
+        <v>97.94</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E160">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="F160">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G160">
-        <v>72.37</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E161">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F161">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G161">
-        <v>18.42</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E162">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F162">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G162">
-        <v>9.210000000000001</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E163">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F163">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G163">
-        <v>86.84</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E164">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="F164">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G164">
-        <v>5.26</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E165">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F165">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G165">
-        <v>7.89</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E166">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F166">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G166">
-        <v>89.47</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="167">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5527,17 +5527,17 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F167">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="G167">
-        <v>10.53</v>
+        <v>78.08</v>
       </c>
     </row>
     <row r="168">
@@ -5548,27 +5548,27 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E168">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F168">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G168">
-        <v>45.83</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="169">
@@ -5579,27 +5579,27 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E169">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F169">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G169">
-        <v>37.5</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="170">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5620,17 +5620,17 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E170">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F170">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="G170">
-        <v>16.67</v>
+        <v>72.37</v>
       </c>
     </row>
     <row r="171">
@@ -5641,27 +5641,27 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E171">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F171">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G171">
-        <v>94.12</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="172">
@@ -5672,27 +5672,27 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F172">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G172">
-        <v>5.88</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="173">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5717,13 +5717,13 @@
         </is>
       </c>
       <c r="E173">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F173">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G173">
-        <v>92.75</v>
+        <v>86.84</v>
       </c>
     </row>
     <row r="174">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5748,13 +5748,13 @@
         </is>
       </c>
       <c r="E174">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F174">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G174">
-        <v>7.25</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="175">
@@ -5765,27 +5765,27 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E175">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="F175">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G175">
-        <v>84.42</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="176">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5806,17 +5806,17 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E176">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F176">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G176">
-        <v>6.49</v>
+        <v>89.47</v>
       </c>
     </row>
     <row r="177">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5837,17 +5837,17 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E177">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F177">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G177">
-        <v>9.09</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="178">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5872,13 +5872,13 @@
         </is>
       </c>
       <c r="E178">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F178">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="G178">
-        <v>77.27</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="179">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5903,13 +5903,13 @@
         </is>
       </c>
       <c r="E179">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F179">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="G179">
-        <v>12.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="180">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5934,29 +5934,29 @@
         </is>
       </c>
       <c r="E180">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F180">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="G180">
-        <v>10.23</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5965,29 +5965,29 @@
         </is>
       </c>
       <c r="E181">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F181">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G181">
-        <v>67.20999999999999</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5996,261 +5996,261 @@
         </is>
       </c>
       <c r="E182">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G182">
-        <v>24.59</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E183">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="F183">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G183">
-        <v>8.199999999999999</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E184">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F184">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G184">
-        <v>78.12</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E185">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F185">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G185">
-        <v>15.62</v>
+        <v>84.42</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E186">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F186">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G186">
-        <v>6.25</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E187">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F187">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G187">
-        <v>86.67</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E188">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="F188">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G188">
-        <v>10</v>
+        <v>77.27</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E189">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F189">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G189">
-        <v>3.33</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E190">
         <v>9</v>
       </c>
       <c r="F190">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="G190">
-        <v>69.23</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="191">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6271,17 +6271,17 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E191">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F191">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G191">
-        <v>30.77</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="192">
@@ -6292,27 +6292,27 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E192">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F192">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G192">
-        <v>50</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="193">
@@ -6323,27 +6323,27 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E193">
         <v>5</v>
       </c>
       <c r="F193">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G193">
-        <v>35.71</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="194">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6364,17 +6364,17 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E194">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F194">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G194">
-        <v>14.29</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="195">
@@ -6385,27 +6385,27 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E195">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F195">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="G195">
-        <v>92</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="196">
@@ -6416,27 +6416,27 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F196">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="G196">
-        <v>8</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="197">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6461,13 +6461,13 @@
         </is>
       </c>
       <c r="E197">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="F197">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G197">
-        <v>89.11</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="198">
@@ -6478,7 +6478,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="E198">
+        <v>6</v>
+      </c>
+      <c r="F198">
+        <v>60</v>
+      </c>
+      <c r="G198">
         <v>10</v>
-      </c>
-      <c r="F198">
-        <v>101</v>
-      </c>
-      <c r="G198">
-        <v>9.9</v>
       </c>
     </row>
     <row r="199">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F199">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G199">
-        <v>0.99</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="200">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6554,13 +6554,13 @@
         </is>
       </c>
       <c r="E200">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F200">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="G200">
-        <v>66.67</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="201">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="E201">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F201">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="G201">
-        <v>28.57</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="202">
@@ -6602,27 +6602,27 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E202">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F202">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G202">
-        <v>4.76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6643,17 +6643,17 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E203">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="F203">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="G203">
-        <v>70.93000000000001</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="204">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6674,17 +6674,17 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E204">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F204">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="G204">
-        <v>22.09</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="205">
@@ -6695,337 +6695,337 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E205">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F205">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="G205">
-        <v>6.98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E206">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F206">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G206">
-        <v>56.86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E207">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="F207">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="G207">
-        <v>31.37</v>
+        <v>89.11</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E208">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F208">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="G208">
-        <v>11.76</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E209">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G209">
-        <v>73.68000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E210">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F210">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G210">
-        <v>17.54</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E211">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F211">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G211">
-        <v>8.77</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E212">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="F212">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G212">
-        <v>89.09</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E213">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F213">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G213">
-        <v>10.91</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E214">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F214">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="G214">
-        <v>88.89</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F215">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="G215">
-        <v>11.11</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="216">
@@ -7036,12 +7036,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7050,13 +7050,13 @@
         </is>
       </c>
       <c r="E216">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F216">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G216">
-        <v>50</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="217">
@@ -7067,12 +7067,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7081,13 +7081,13 @@
         </is>
       </c>
       <c r="E217">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F217">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G217">
-        <v>50</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="218">
@@ -7098,27 +7098,27 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E218">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F218">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G218">
-        <v>92</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="219">
@@ -7129,27 +7129,27 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E219">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F219">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G219">
-        <v>8</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="220">
@@ -7160,27 +7160,27 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E220">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="F220">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="G220">
-        <v>93.62</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="221">
@@ -7191,27 +7191,27 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E221">
         <v>5</v>
       </c>
       <c r="F221">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="G221">
-        <v>5.32</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="222">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7232,17 +7232,17 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F222">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="G222">
-        <v>1.06</v>
+        <v>89.09</v>
       </c>
     </row>
     <row r="223">
@@ -7253,27 +7253,27 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E223">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F223">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G223">
-        <v>64.58</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="224">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7294,17 +7294,17 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E224">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F224">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G224">
-        <v>25</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="225">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7325,17 +7325,17 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E225">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G225">
-        <v>10.42</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="226">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7360,13 +7360,13 @@
         </is>
       </c>
       <c r="E226">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="F226">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G226">
-        <v>74.67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="227">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7391,13 +7391,13 @@
         </is>
       </c>
       <c r="E227">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F227">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G227">
-        <v>21.33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="228">
@@ -7408,337 +7408,337 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E228">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F228">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G228">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E229">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F229">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G229">
-        <v>72.73</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E230">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F230">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G230">
-        <v>18.18</v>
+        <v>93.62</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E231">
         <v>5</v>
       </c>
       <c r="F231">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G231">
-        <v>9.09</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E232">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G232">
-        <v>78.18000000000001</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E233">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F233">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G233">
-        <v>18.18</v>
+        <v>64.58</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E234">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F234">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G234">
-        <v>3.64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F235">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G235">
-        <v>20</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E236">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F236">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G236">
-        <v>80</v>
+        <v>74.67</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E237">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F237">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G237">
-        <v>66.67</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E238">
+        <v>3</v>
+      </c>
+      <c r="F238">
+        <v>75</v>
+      </c>
+      <c r="G238">
         <v>4</v>
-      </c>
-      <c r="F238">
-        <v>12</v>
-      </c>
-      <c r="G238">
-        <v>33.33</v>
       </c>
     </row>
     <row r="239">
@@ -7749,12 +7749,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7763,13 +7763,13 @@
         </is>
       </c>
       <c r="E239">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F239">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G239">
-        <v>46.15</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="240">
@@ -7780,12 +7780,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="E240">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F240">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G240">
-        <v>46.15</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="241">
@@ -7811,12 +7811,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7825,13 +7825,13 @@
         </is>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F241">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G241">
-        <v>7.69</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="242">
@@ -7842,12 +7842,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7856,13 +7856,13 @@
         </is>
       </c>
       <c r="E242">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="F242">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G242">
-        <v>100</v>
+        <v>78.18000000000001</v>
       </c>
     </row>
     <row r="243">
@@ -7873,27 +7873,27 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E243">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F243">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G243">
-        <v>73.53</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="244">
@@ -7904,27 +7904,27 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E244">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F244">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G244">
-        <v>26.47</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="245">
@@ -7935,12 +7935,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7949,13 +7949,13 @@
         </is>
       </c>
       <c r="E245">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="G245">
-        <v>76.47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246">
@@ -7966,12 +7966,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7980,13 +7980,13 @@
         </is>
       </c>
       <c r="E246">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F246">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="G246">
-        <v>17.65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8007,17 +8007,17 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E247">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F247">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G247">
-        <v>5.88</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="248">
@@ -8028,27 +8028,27 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E248">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="F248">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G248">
-        <v>87.18000000000001</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="249">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8069,17 +8069,17 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E249">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F249">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="G249">
-        <v>8.970000000000001</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="250">
@@ -8090,7 +8090,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8100,16 +8100,326 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E250">
+        <v>6</v>
+      </c>
+      <c r="F250">
+        <v>13</v>
+      </c>
+      <c r="G250">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
           <t>Genus and species wrong</t>
         </is>
       </c>
-      <c r="E250">
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>13</v>
+      </c>
+      <c r="G251">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E252">
+        <v>5</v>
+      </c>
+      <c r="F252">
+        <v>5</v>
+      </c>
+      <c r="G252">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E253">
+        <v>25</v>
+      </c>
+      <c r="F253">
+        <v>34</v>
+      </c>
+      <c r="G253">
+        <v>73.53</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E254">
+        <v>9</v>
+      </c>
+      <c r="F254">
+        <v>34</v>
+      </c>
+      <c r="G254">
+        <v>26.47</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E255">
+        <v>52</v>
+      </c>
+      <c r="F255">
+        <v>68</v>
+      </c>
+      <c r="G255">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E256">
+        <v>12</v>
+      </c>
+      <c r="F256">
+        <v>68</v>
+      </c>
+      <c r="G256">
+        <v>17.65</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E257">
+        <v>4</v>
+      </c>
+      <c r="F257">
+        <v>68</v>
+      </c>
+      <c r="G257">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E258">
+        <v>68</v>
+      </c>
+      <c r="F258">
+        <v>78</v>
+      </c>
+      <c r="G258">
+        <v>87.18000000000001</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E259">
+        <v>7</v>
+      </c>
+      <c r="F259">
+        <v>78</v>
+      </c>
+      <c r="G259">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E260">
         <v>3</v>
       </c>
-      <c r="F250">
+      <c r="F260">
         <v>78</v>
       </c>
-      <c r="G250">
+      <c r="G260">
         <v>3.85</v>
       </c>
     </row>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G260"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2381,7 +2381,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2396,23 +2396,23 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E66">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G66">
-        <v>79.41</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2427,23 +2427,23 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="F67">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G67">
-        <v>11.76</v>
+        <v>98.84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2453,28 +2453,28 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G68">
-        <v>8.82</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2489,59 +2489,59 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E69">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F69">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G69">
-        <v>77.61</v>
+        <v>98.61</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E70">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F70">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G70">
-        <v>17.91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2555,148 +2555,148 @@
         </is>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F71">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G71">
-        <v>4.48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E72">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="F72">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G72">
-        <v>96</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="F73">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E75">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F75">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G75">
-        <v>88.89</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2706,90 +2706,90 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F76">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G76">
-        <v>11.11</v>
+        <v>36.17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G77">
-        <v>45.45</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F78">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G78">
-        <v>36.36</v>
+        <v>44.68</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2799,90 +2799,90 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F79">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="G79">
-        <v>18.18</v>
+        <v>36.51</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E80">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F80">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="G80">
-        <v>100</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E81">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="F81">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G81">
-        <v>98.81</v>
+        <v>53.97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2892,90 +2892,90 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F82">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="G82">
-        <v>1.19</v>
+        <v>26.83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E83">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F83">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G83">
-        <v>83.33</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F84">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G84">
-        <v>8.33</v>
+        <v>68.29000000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2985,90 +2985,90 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F85">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G85">
-        <v>8.33</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E86">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="F86">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G86">
-        <v>81.40000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E87">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F87">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G87">
-        <v>12.79</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3078,214 +3078,214 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F88">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="G88">
-        <v>5.81</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E89">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="G89">
-        <v>87.93000000000001</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F90">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="G90">
-        <v>8.619999999999999</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F91">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G91">
-        <v>3.45</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E92">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="F92">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="G92">
-        <v>78.69</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E93">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F93">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="G93">
-        <v>19.67</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F94">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G94">
-        <v>1.64</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3295,28 +3295,28 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E95">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F95">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G95">
-        <v>97.44</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3326,28 +3326,28 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F96">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G96">
-        <v>2.56</v>
+        <v>55.13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3361,24 +3361,24 @@
         </is>
       </c>
       <c r="E97">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G97">
-        <v>92.86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3392,55 +3392,55 @@
         </is>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F98">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G98">
-        <v>7.14</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E99">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F99">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G99">
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3450,28 +3450,28 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F100">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G100">
-        <v>25</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3481,64 +3481,64 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F101">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G101">
-        <v>18.75</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E102">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F102">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G102">
-        <v>100</v>
+        <v>71.64</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3547,24 +3547,24 @@
         </is>
       </c>
       <c r="E103">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F103">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G103">
-        <v>100</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3574,28 +3574,28 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E104">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F104">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G104">
-        <v>86.36</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3605,59 +3605,59 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F105">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G105">
-        <v>7.58</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F106">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G106">
-        <v>6.06</v>
+        <v>77.61</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3667,28 +3667,28 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E107">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="F107">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G107">
-        <v>86.25</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3698,54 +3698,54 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E108">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F108">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F109">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G109">
-        <v>3.75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3755,28 +3755,28 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E110">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G110">
-        <v>90.38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3786,33 +3786,33 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G111">
-        <v>7.69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3822,59 +3822,59 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F112">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G112">
-        <v>1.92</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E113">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="F113">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G113">
-        <v>81.81999999999999</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3884,85 +3884,85 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E114">
         <v>10</v>
       </c>
       <c r="F114">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G114">
-        <v>18.18</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E115">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F115">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G115">
-        <v>96.43000000000001</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F116">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G116">
-        <v>3.57</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3981,10 +3981,10 @@
         </is>
       </c>
       <c r="E117">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F117">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G117">
         <v>100</v>
@@ -3993,17 +3993,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4012,112 +4012,112 @@
         </is>
       </c>
       <c r="E118">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="F118">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="G118">
-        <v>66.67</v>
+        <v>98.81</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="G119">
-        <v>25</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F120">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G120">
-        <v>8.33</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E121">
         <v>6</v>
       </c>
       <c r="F121">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="G121">
-        <v>100</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4127,28 +4127,28 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E122">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="F122">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G122">
-        <v>100</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4167,19 +4167,19 @@
         </is>
       </c>
       <c r="E123">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F123">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G123">
-        <v>91.38</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4198,19 +4198,19 @@
         </is>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F124">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G124">
-        <v>3.45</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4229,29 +4229,29 @@
         </is>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F125">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G125">
-        <v>5.17</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4260,29 +4260,29 @@
         </is>
       </c>
       <c r="E126">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F126">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G126">
-        <v>89.19</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4291,29 +4291,29 @@
         </is>
       </c>
       <c r="E127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F127">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G127">
-        <v>8.109999999999999</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4325,16 +4325,16 @@
         <v>2</v>
       </c>
       <c r="F128">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G128">
-        <v>2.7</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4353,19 +4353,19 @@
         </is>
       </c>
       <c r="E129">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F129">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G129">
-        <v>90.77</v>
+        <v>78.69</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4384,19 +4384,19 @@
         </is>
       </c>
       <c r="E130">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F130">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G130">
-        <v>9.23</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4411,23 +4411,23 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E131">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G131">
-        <v>100</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4446,19 +4446,19 @@
         </is>
       </c>
       <c r="E132">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F132">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G132">
-        <v>97.22</v>
+        <v>97.44</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4480,16 +4480,16 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G133">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4508,19 +4508,19 @@
         </is>
       </c>
       <c r="E134">
+        <v>13</v>
+      </c>
+      <c r="F134">
         <v>14</v>
       </c>
-      <c r="F134">
-        <v>15</v>
-      </c>
       <c r="G134">
-        <v>93.33</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4542,16 +4542,16 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G135">
-        <v>6.67</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4573,16 +4573,16 @@
         <v>9</v>
       </c>
       <c r="F136">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G136">
-        <v>90</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4601,19 +4601,19 @@
         </is>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G137">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4623,33 +4623,33 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E138">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F138">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G138">
-        <v>100</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4663,19 +4663,19 @@
         </is>
       </c>
       <c r="E139">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F139">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G139">
-        <v>98.31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4690,23 +4690,23 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="F140">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G140">
-        <v>1.69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4725,19 +4725,19 @@
         </is>
       </c>
       <c r="E141">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F141">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G141">
-        <v>96.67</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4756,19 +4756,19 @@
         </is>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F142">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G142">
-        <v>3.33</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4778,28 +4778,28 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E143">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F143">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G143">
-        <v>94.73999999999999</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4814,23 +4814,23 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E144">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="F144">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="G144">
-        <v>3.51</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4845,54 +4845,54 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F145">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="G145">
-        <v>1.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E146">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="F146">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G146">
-        <v>81.94</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4907,23 +4907,23 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E147">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F147">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G147">
-        <v>13.89</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4938,23 +4938,23 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F148">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G148">
-        <v>4.17</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4964,28 +4964,28 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E149">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G149">
-        <v>92.31</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5000,23 +5000,23 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F150">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G150">
-        <v>7.69</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5026,28 +5026,28 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E151">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F151">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G151">
-        <v>98.31</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5062,54 +5062,54 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F152">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G152">
-        <v>1.69</v>
+        <v>96.43000000000001</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E153">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G153">
-        <v>94.12</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5124,23 +5124,23 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F154">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G154">
-        <v>5.88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5159,19 +5159,19 @@
         </is>
       </c>
       <c r="E155">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F155">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G155">
-        <v>71.43000000000001</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5193,16 +5193,16 @@
         <v>3</v>
       </c>
       <c r="F156">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G156">
-        <v>21.43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5224,16 +5224,16 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G157">
-        <v>7.14</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="E158">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F158">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G158">
         <v>100</v>
@@ -5264,7 +5264,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5283,19 +5283,19 @@
         </is>
       </c>
       <c r="E159">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F159">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="G159">
-        <v>97.94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5305,28 +5305,28 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E160">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F160">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="G160">
-        <v>2.06</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5341,23 +5341,23 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E161">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="F161">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G161">
-        <v>90.14</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5372,23 +5372,23 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E162">
         <v>3</v>
       </c>
       <c r="F162">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G162">
-        <v>4.23</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5398,28 +5398,28 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E163">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="F163">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G163">
-        <v>5.63</v>
+        <v>89.19</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5434,23 +5434,23 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E164">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="F164">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G164">
-        <v>89.61</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5465,54 +5465,54 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E165">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F165">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G165">
-        <v>6.49</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E166">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="F166">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G166">
-        <v>3.9</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5527,23 +5527,23 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E167">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="F167">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G167">
-        <v>78.08</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5553,28 +5553,28 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E168">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F168">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G168">
-        <v>13.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5584,28 +5584,28 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E169">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F169">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="G169">
-        <v>8.220000000000001</v>
+        <v>97.22</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5615,100 +5615,100 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E170">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="G170">
-        <v>72.37</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E171">
         <v>14</v>
       </c>
       <c r="F171">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="G171">
-        <v>18.42</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E172">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="G172">
-        <v>9.210000000000001</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5717,29 +5717,29 @@
         </is>
       </c>
       <c r="E173">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F173">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G173">
-        <v>86.84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5748,24 +5748,24 @@
         </is>
       </c>
       <c r="E174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G174">
-        <v>5.26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5775,33 +5775,33 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E175">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F175">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G175">
-        <v>7.89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5810,29 +5810,29 @@
         </is>
       </c>
       <c r="E176">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F176">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G176">
-        <v>89.47</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5841,29 +5841,29 @@
         </is>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G177">
-        <v>10.53</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5872,29 +5872,29 @@
         </is>
       </c>
       <c r="E178">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F178">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G178">
-        <v>45.83</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5903,24 +5903,24 @@
         </is>
       </c>
       <c r="E179">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F179">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G179">
-        <v>37.5</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5930,95 +5930,95 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E180">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F180">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="G180">
-        <v>16.67</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E181">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F181">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G181">
-        <v>94.12</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G182">
-        <v>5.88</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6027,29 +6027,29 @@
         </is>
       </c>
       <c r="E183">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F183">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G183">
-        <v>92.75</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6058,24 +6058,24 @@
         </is>
       </c>
       <c r="E184">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F184">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G184">
-        <v>7.25</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6085,95 +6085,95 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E185">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="F185">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G185">
-        <v>84.42</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E186">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F186">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G186">
-        <v>6.49</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E187">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F187">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G187">
-        <v>9.09</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6182,29 +6182,29 @@
         </is>
       </c>
       <c r="E188">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F188">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="G188">
-        <v>77.27</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6213,55 +6213,55 @@
         </is>
       </c>
       <c r="E189">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="G189">
-        <v>12.5</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E190">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F190">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="G190">
-        <v>10.23</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6271,90 +6271,90 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E191">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G191">
-        <v>67.20999999999999</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E192">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F192">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G192">
-        <v>24.59</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E193">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F193">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G193">
-        <v>8.199999999999999</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6364,90 +6364,90 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E194">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G194">
-        <v>78.12</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E195">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F195">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="G195">
-        <v>15.62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E196">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F196">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="G196">
-        <v>6.25</v>
+        <v>97.94</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6457,90 +6457,90 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E197">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F197">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="G197">
-        <v>86.67</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E198">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="F198">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G198">
-        <v>10</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F199">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G199">
-        <v>3.33</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6550,59 +6550,59 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E200">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F200">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="G200">
-        <v>69.23</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E201">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F201">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="G201">
-        <v>30.77</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6612,28 +6612,28 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E202">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F202">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="G202">
-        <v>50</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6643,126 +6643,126 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E203">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F203">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="G203">
-        <v>35.71</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E204">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F204">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="G204">
-        <v>14.29</v>
+        <v>78.08</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E205">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F205">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="G205">
-        <v>92</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E206">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F206">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="G206">
-        <v>8</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6771,29 +6771,29 @@
         </is>
       </c>
       <c r="E207">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F207">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="G207">
-        <v>89.11</v>
+        <v>72.37</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6802,29 +6802,29 @@
         </is>
       </c>
       <c r="E208">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F208">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="G208">
-        <v>9.9</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6833,29 +6833,29 @@
         </is>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F209">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="G209">
-        <v>0.99</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6864,29 +6864,29 @@
         </is>
       </c>
       <c r="E210">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F210">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G210">
-        <v>66.67</v>
+        <v>86.84</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6895,29 +6895,29 @@
         </is>
       </c>
       <c r="E211">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F211">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G211">
-        <v>28.57</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6929,26 +6929,26 @@
         <v>3</v>
       </c>
       <c r="F212">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G212">
-        <v>4.76</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6957,29 +6957,29 @@
         </is>
       </c>
       <c r="E213">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F213">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="G213">
-        <v>70.93000000000001</v>
+        <v>89.47</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6988,24 +6988,24 @@
         </is>
       </c>
       <c r="E214">
+        <v>2</v>
+      </c>
+      <c r="F214">
         <v>19</v>
       </c>
-      <c r="F214">
-        <v>86</v>
-      </c>
       <c r="G214">
-        <v>22.09</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7015,219 +7015,219 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E215">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F215">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="G215">
-        <v>6.98</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E216">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F216">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G216">
-        <v>56.86</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E217">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F217">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G217">
-        <v>31.37</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E218">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F218">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G218">
-        <v>11.76</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E219">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G219">
-        <v>73.68000000000001</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E220">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F220">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G220">
-        <v>17.54</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E221">
         <v>5</v>
       </c>
       <c r="F221">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G221">
-        <v>8.77</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7236,29 +7236,29 @@
         </is>
       </c>
       <c r="E222">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F222">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G222">
-        <v>89.09</v>
+        <v>84.42</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7267,24 +7267,24 @@
         </is>
       </c>
       <c r="E223">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F223">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G223">
-        <v>10.91</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7294,59 +7294,59 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E224">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F224">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="G224">
-        <v>88.89</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="F225">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G225">
-        <v>11.11</v>
+        <v>77.27</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7356,28 +7356,28 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E226">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F226">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G226">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7387,33 +7387,33 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E227">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F227">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G227">
-        <v>50</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7422,29 +7422,29 @@
         </is>
       </c>
       <c r="E228">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F228">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="G228">
-        <v>92</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7453,308 +7453,308 @@
         </is>
       </c>
       <c r="E229">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F229">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="G229">
-        <v>8</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E230">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="F230">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G230">
-        <v>93.62</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E231">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F231">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="G231">
-        <v>5.32</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F232">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="G232">
-        <v>1.06</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E233">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F233">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G233">
-        <v>64.58</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E234">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F234">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G234">
-        <v>25</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E235">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F235">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G235">
-        <v>10.42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E236">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="F236">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G236">
-        <v>74.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E237">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F237">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G237">
-        <v>21.33</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E238">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F238">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G238">
-        <v>4</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7763,29 +7763,29 @@
         </is>
       </c>
       <c r="E239">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F239">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G239">
-        <v>72.73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7794,29 +7794,29 @@
         </is>
       </c>
       <c r="E240">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F240">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G240">
-        <v>18.18</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7825,29 +7825,29 @@
         </is>
       </c>
       <c r="E241">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F241">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G241">
-        <v>9.09</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7856,29 +7856,29 @@
         </is>
       </c>
       <c r="E242">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F242">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G242">
-        <v>78.18000000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7887,55 +7887,55 @@
         </is>
       </c>
       <c r="E243">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F243">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G243">
-        <v>18.18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E244">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="F244">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="G244">
-        <v>3.64</v>
+        <v>89.11</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -7945,28 +7945,28 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F245">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="G245">
-        <v>20</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7976,28 +7976,28 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E246">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="G246">
-        <v>80</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="E247">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F247">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="G247">
         <v>66.67</v>
@@ -8023,12 +8023,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8042,55 +8042,55 @@
         </is>
       </c>
       <c r="E248">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F248">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="G248">
-        <v>33.33</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E249">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F249">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="G249">
-        <v>46.15</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8100,28 +8100,28 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E250">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F250">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G250">
-        <v>46.15</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8131,64 +8131,64 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F251">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G251">
-        <v>7.69</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E252">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F252">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="G252">
-        <v>100</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8197,29 +8197,29 @@
         </is>
       </c>
       <c r="E253">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F253">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G253">
-        <v>73.53</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8228,24 +8228,24 @@
         </is>
       </c>
       <c r="E254">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F254">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G254">
-        <v>26.47</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -8255,90 +8255,90 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E255">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F255">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G255">
-        <v>76.47</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E256">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F256">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G256">
-        <v>17.65</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E257">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F257">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G257">
-        <v>5.88</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -8348,78 +8348,1225 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E258">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="F258">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G258">
-        <v>87.18000000000001</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E259">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F259">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G259">
-        <v>8.970000000000001</v>
+        <v>89.09</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E260">
+        <v>6</v>
+      </c>
+      <c r="F260">
+        <v>55</v>
+      </c>
+      <c r="G260">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E261">
+        <v>8</v>
+      </c>
+      <c r="F261">
+        <v>9</v>
+      </c>
+      <c r="G261">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>9</v>
+      </c>
+      <c r="G262">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E263">
+        <v>6</v>
+      </c>
+      <c r="F263">
+        <v>12</v>
+      </c>
+      <c r="G263">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E264">
+        <v>6</v>
+      </c>
+      <c r="F264">
+        <v>12</v>
+      </c>
+      <c r="G264">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E265">
+        <v>23</v>
+      </c>
+      <c r="F265">
+        <v>25</v>
+      </c>
+      <c r="G265">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E266">
+        <v>2</v>
+      </c>
+      <c r="F266">
+        <v>25</v>
+      </c>
+      <c r="G266">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E267">
+        <v>88</v>
+      </c>
+      <c r="F267">
+        <v>94</v>
+      </c>
+      <c r="G267">
+        <v>93.62</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E268">
+        <v>5</v>
+      </c>
+      <c r="F268">
+        <v>94</v>
+      </c>
+      <c r="G268">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>94</v>
+      </c>
+      <c r="G269">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E270">
+        <v>31</v>
+      </c>
+      <c r="F270">
+        <v>48</v>
+      </c>
+      <c r="G270">
+        <v>64.58</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E271">
+        <v>12</v>
+      </c>
+      <c r="F271">
+        <v>48</v>
+      </c>
+      <c r="G271">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E272">
+        <v>5</v>
+      </c>
+      <c r="F272">
+        <v>48</v>
+      </c>
+      <c r="G272">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E273">
+        <v>56</v>
+      </c>
+      <c r="F273">
+        <v>75</v>
+      </c>
+      <c r="G273">
+        <v>74.67</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E274">
+        <v>16</v>
+      </c>
+      <c r="F274">
+        <v>75</v>
+      </c>
+      <c r="G274">
+        <v>21.33</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E275">
+        <v>3</v>
+      </c>
+      <c r="F275">
+        <v>75</v>
+      </c>
+      <c r="G275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
           <t>VSEARCH</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E276">
+        <v>40</v>
+      </c>
+      <c r="F276">
+        <v>55</v>
+      </c>
+      <c r="G276">
+        <v>72.73</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E277">
+        <v>10</v>
+      </c>
+      <c r="F277">
+        <v>55</v>
+      </c>
+      <c r="G277">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
         <is>
           <t>Genus and species wrong</t>
         </is>
       </c>
-      <c r="E260">
+      <c r="E278">
+        <v>5</v>
+      </c>
+      <c r="F278">
+        <v>55</v>
+      </c>
+      <c r="G278">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E279">
+        <v>43</v>
+      </c>
+      <c r="F279">
+        <v>55</v>
+      </c>
+      <c r="G279">
+        <v>78.18000000000001</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E280">
+        <v>10</v>
+      </c>
+      <c r="F280">
+        <v>55</v>
+      </c>
+      <c r="G280">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E281">
+        <v>2</v>
+      </c>
+      <c r="F281">
+        <v>55</v>
+      </c>
+      <c r="G281">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>5</v>
+      </c>
+      <c r="G282">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E283">
+        <v>4</v>
+      </c>
+      <c r="F283">
+        <v>5</v>
+      </c>
+      <c r="G283">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E284">
+        <v>8</v>
+      </c>
+      <c r="F284">
+        <v>12</v>
+      </c>
+      <c r="G284">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E285">
+        <v>4</v>
+      </c>
+      <c r="F285">
+        <v>12</v>
+      </c>
+      <c r="G285">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E286">
+        <v>6</v>
+      </c>
+      <c r="F286">
+        <v>13</v>
+      </c>
+      <c r="G286">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E287">
+        <v>6</v>
+      </c>
+      <c r="F287">
+        <v>13</v>
+      </c>
+      <c r="G287">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>13</v>
+      </c>
+      <c r="G288">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E289">
+        <v>5</v>
+      </c>
+      <c r="F289">
+        <v>5</v>
+      </c>
+      <c r="G289">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E290">
+        <v>25</v>
+      </c>
+      <c r="F290">
+        <v>34</v>
+      </c>
+      <c r="G290">
+        <v>73.53</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E291">
+        <v>9</v>
+      </c>
+      <c r="F291">
+        <v>34</v>
+      </c>
+      <c r="G291">
+        <v>26.47</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E292">
+        <v>52</v>
+      </c>
+      <c r="F292">
+        <v>68</v>
+      </c>
+      <c r="G292">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E293">
+        <v>12</v>
+      </c>
+      <c r="F293">
+        <v>68</v>
+      </c>
+      <c r="G293">
+        <v>17.65</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E294">
+        <v>4</v>
+      </c>
+      <c r="F294">
+        <v>68</v>
+      </c>
+      <c r="G294">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E295">
+        <v>68</v>
+      </c>
+      <c r="F295">
+        <v>78</v>
+      </c>
+      <c r="G295">
+        <v>87.18000000000001</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E296">
+        <v>7</v>
+      </c>
+      <c r="F296">
+        <v>78</v>
+      </c>
+      <c r="G296">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E297">
         <v>3</v>
       </c>
-      <c r="F260">
+      <c r="F297">
         <v>78</v>
       </c>
-      <c r="G260">
+      <c r="G297">
         <v>3.85</v>
       </c>
     </row>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G297"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2381,7 +2381,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2412,7 +2412,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2443,7 +2443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2474,7 +2474,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2567,7 +2567,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2629,7 +2629,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2660,7 +2660,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2691,7 +2691,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="E76">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F76">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G76">
-        <v>36.17</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2741,19 +2741,19 @@
         </is>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F77">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G77">
-        <v>19.15</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2772,19 +2772,19 @@
         </is>
       </c>
       <c r="E78">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F78">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G78">
-        <v>44.68</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2803,19 +2803,19 @@
         </is>
       </c>
       <c r="E79">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F79">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G79">
-        <v>36.51</v>
+        <v>41.18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2834,19 +2834,19 @@
         </is>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G80">
-        <v>9.52</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2865,19 +2865,19 @@
         </is>
       </c>
       <c r="E81">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F81">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G81">
-        <v>53.97</v>
+        <v>49.02</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2899,16 +2899,16 @@
         <v>11</v>
       </c>
       <c r="F82">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G82">
-        <v>26.83</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2923,54 +2923,54 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F83">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G83">
-        <v>4.88</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E84">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G84">
-        <v>68.29000000000001</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2985,23 +2985,23 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F85">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G85">
-        <v>16.67</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3016,23 +3016,23 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F86">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G86">
-        <v>50</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3042,28 +3042,28 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F87">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G87">
-        <v>33.33</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3078,23 +3078,23 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G88">
-        <v>46.15</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3104,28 +3104,28 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F89">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G89">
-        <v>7.69</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3135,28 +3135,28 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F90">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G90">
-        <v>46.15</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3171,28 +3171,28 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E91">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F91">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G91">
-        <v>61.11</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3202,28 +3202,28 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F92">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G92">
-        <v>16.67</v>
+        <v>35.29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3233,23 +3233,23 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G93">
-        <v>22.22</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3264,23 +3264,23 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E94">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F94">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="G94">
-        <v>33.33</v>
+        <v>58.82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3290,28 +3290,28 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E95">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F95">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G95">
-        <v>11.54</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3321,28 +3321,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E96">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F96">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G96">
-        <v>55.13</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3357,23 +3357,23 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E97">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F97">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G97">
-        <v>25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3383,28 +3383,28 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F98">
         <v>48</v>
       </c>
       <c r="G98">
-        <v>12.5</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3414,28 +3414,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E99">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F99">
         <v>48</v>
       </c>
       <c r="G99">
-        <v>62.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3450,79 +3450,79 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F100">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G100">
-        <v>14.93</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E101">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F101">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G101">
-        <v>13.43</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E102">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="F102">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G102">
-        <v>71.64</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="103">
@@ -3543,17 +3543,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E103">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="F103">
         <v>68</v>
       </c>
       <c r="G103">
-        <v>79.41</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="104">
@@ -3569,22 +3569,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E104">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="F104">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G104">
-        <v>11.76</v>
+        <v>77.61</v>
       </c>
     </row>
     <row r="105">
@@ -3600,22 +3600,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E105">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F105">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G105">
-        <v>8.82</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="106">
@@ -3636,17 +3636,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E106">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="F106">
         <v>67</v>
       </c>
       <c r="G106">
-        <v>77.61</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="107">
@@ -3662,22 +3662,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E107">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F107">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G107">
-        <v>17.91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108">
@@ -3693,22 +3693,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G108">
-        <v>4.48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -3729,17 +3729,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E109">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F109">
         <v>50</v>
       </c>
       <c r="G109">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -3750,27 +3750,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F110">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="111">
@@ -3781,27 +3781,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="112">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3826,13 +3826,13 @@
         </is>
       </c>
       <c r="E112">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F112">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G112">
-        <v>88.89</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="113">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3857,13 +3857,13 @@
         </is>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F113">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G113">
-        <v>11.11</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="114">
@@ -3884,17 +3884,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F114">
         <v>22</v>
       </c>
       <c r="G114">
-        <v>45.45</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="115">
@@ -3910,22 +3910,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E115">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F115">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G115">
-        <v>36.36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116">
@@ -3936,27 +3936,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="F116">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="G116">
-        <v>18.18</v>
+        <v>98.81</v>
       </c>
     </row>
     <row r="117">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3977,17 +3977,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E117">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="G117">
-        <v>100</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="118">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4012,13 +4012,13 @@
         </is>
       </c>
       <c r="E118">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F118">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G118">
-        <v>98.81</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="119">
@@ -4034,22 +4034,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F119">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G119">
-        <v>1.19</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="120">
@@ -4070,17 +4070,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E120">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F120">
         <v>72</v>
       </c>
       <c r="G120">
-        <v>83.33</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="121">
@@ -4096,22 +4096,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E121">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="F121">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G121">
-        <v>8.33</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4127,22 +4127,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E122">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F122">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G122">
-        <v>8.33</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="123">
@@ -4163,79 +4163,79 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E123">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F123">
         <v>86</v>
       </c>
       <c r="G123">
-        <v>81.40000000000001</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E124">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F124">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G124">
-        <v>12.79</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E125">
         <v>5</v>
       </c>
       <c r="F125">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G125">
-        <v>5.81</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4256,17 +4256,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E126">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F126">
         <v>58</v>
       </c>
       <c r="G126">
-        <v>87.93000000000001</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="127">
@@ -4282,22 +4282,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E127">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F127">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G127">
-        <v>8.619999999999999</v>
+        <v>78.69</v>
       </c>
     </row>
     <row r="128">
@@ -4313,22 +4313,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F128">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G128">
-        <v>3.45</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="129">
@@ -4349,17 +4349,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E129">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F129">
         <v>61</v>
       </c>
       <c r="G129">
-        <v>78.69</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="130">
@@ -4375,22 +4375,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E130">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F130">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G130">
-        <v>19.67</v>
+        <v>97.44</v>
       </c>
     </row>
     <row r="131">
@@ -4406,22 +4406,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G131">
-        <v>1.64</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="132">
@@ -4432,12 +4432,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4446,13 +4446,13 @@
         </is>
       </c>
       <c r="E132">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F132">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G132">
-        <v>97.44</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="133">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4480,10 +4480,10 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G133">
-        <v>2.56</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="134">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4508,13 +4508,13 @@
         </is>
       </c>
       <c r="E134">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F134">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G134">
-        <v>92.86</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="135">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4539,13 +4539,13 @@
         </is>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F135">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G135">
-        <v>7.14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136">
@@ -4566,17 +4566,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E136">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F136">
         <v>16</v>
       </c>
       <c r="G136">
-        <v>56.25</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="137">
@@ -4592,22 +4592,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E137">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F137">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G137">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138">
@@ -4618,27 +4618,27 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E138">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="F138">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="G138">
-        <v>18.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4663,13 +4663,13 @@
         </is>
       </c>
       <c r="E139">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F139">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G139">
-        <v>100</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="140">
@@ -4685,22 +4685,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E140">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="F140">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G140">
-        <v>100</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="141">
@@ -4721,17 +4721,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E141">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F141">
         <v>66</v>
       </c>
       <c r="G141">
-        <v>86.36</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="142">
@@ -4747,22 +4747,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F142">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G142">
-        <v>7.58</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="143">
@@ -4778,22 +4778,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E143">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F143">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G143">
-        <v>6.06</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -4814,79 +4814,79 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E144">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="F144">
         <v>80</v>
       </c>
       <c r="G144">
-        <v>86.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E145">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="F145">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G145">
-        <v>10</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F146">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G146">
-        <v>3.75</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="147">
@@ -4907,17 +4907,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E147">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F147">
         <v>52</v>
       </c>
       <c r="G147">
-        <v>90.38</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="148">
@@ -4933,22 +4933,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E148">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F148">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G148">
-        <v>7.69</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="149">
@@ -4964,22 +4964,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F149">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G149">
-        <v>1.92</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="150">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="E150">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F150">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G150">
-        <v>81.81999999999999</v>
+        <v>96.43000000000001</v>
       </c>
     </row>
     <row r="151">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="E151">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G151">
-        <v>18.18</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="152">
@@ -5052,12 +5052,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5066,13 +5066,13 @@
         </is>
       </c>
       <c r="E152">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F152">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G152">
-        <v>96.43000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153">
@@ -5083,27 +5083,27 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F153">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G153">
-        <v>3.57</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="154">
@@ -5119,22 +5119,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E154">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F154">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G154">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155">
@@ -5155,17 +5155,17 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E155">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F155">
         <v>12</v>
       </c>
       <c r="G155">
-        <v>66.67</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="156">
@@ -5181,22 +5181,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F156">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G156">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157">
@@ -5207,27 +5207,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F157">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G157">
-        <v>8.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158">
@@ -5238,12 +5238,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="E158">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="F158">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="G158">
-        <v>100</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="159">
@@ -5274,22 +5274,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E159">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F159">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G159">
-        <v>100</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="160">
@@ -5310,17 +5310,17 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E160">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="F160">
         <v>58</v>
       </c>
       <c r="G160">
-        <v>91.38</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="161">
@@ -5336,22 +5336,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E161">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="F161">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G161">
-        <v>3.45</v>
+        <v>89.19</v>
       </c>
     </row>
     <row r="162">
@@ -5367,22 +5367,22 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E162">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F162">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G162">
-        <v>5.17</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -5403,79 +5403,79 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E163">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="F163">
         <v>74</v>
       </c>
       <c r="G163">
-        <v>89.19</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E164">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F164">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G164">
-        <v>8.109999999999999</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F165">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G165">
-        <v>2.7</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="166">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="E166">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F166">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G166">
-        <v>90.77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167">
@@ -5522,22 +5522,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E167">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F167">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="G167">
-        <v>9.23</v>
+        <v>97.22</v>
       </c>
     </row>
     <row r="168">
@@ -5553,22 +5553,22 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E168">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G168">
-        <v>100</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="169">
@@ -5579,12 +5579,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5593,13 +5593,13 @@
         </is>
       </c>
       <c r="E169">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F169">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G169">
-        <v>97.22</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="170">
@@ -5610,12 +5610,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5627,10 +5627,10 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G170">
-        <v>2.78</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="171">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5655,13 +5655,13 @@
         </is>
       </c>
       <c r="E171">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F171">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G171">
-        <v>93.33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5689,10 +5689,10 @@
         <v>1</v>
       </c>
       <c r="F172">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G172">
-        <v>6.67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5717,13 +5717,13 @@
         </is>
       </c>
       <c r="E173">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F173">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G173">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174">
@@ -5734,27 +5734,27 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="F174">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G174">
-        <v>10</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="175">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E175">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G175">
-        <v>100</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="176">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5813,10 +5813,10 @@
         <v>58</v>
       </c>
       <c r="F176">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G176">
-        <v>98.31</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="177">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5841,13 +5841,13 @@
         </is>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F177">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G177">
-        <v>1.69</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="178">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5872,13 +5872,13 @@
         </is>
       </c>
       <c r="E178">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F178">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G178">
-        <v>96.67</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="179">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5906,10 +5906,10 @@
         <v>2</v>
       </c>
       <c r="F179">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G179">
-        <v>3.33</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="180">
@@ -5930,79 +5930,79 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E180">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F180">
         <v>57</v>
       </c>
       <c r="G180">
-        <v>94.73999999999999</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E181">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="F181">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G181">
-        <v>3.51</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F182">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G182">
-        <v>1.75</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="183">
@@ -6023,17 +6023,17 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E183">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="F183">
         <v>72</v>
       </c>
       <c r="G183">
-        <v>81.94</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="184">
@@ -6049,22 +6049,22 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E184">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F184">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G184">
-        <v>13.89</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="185">
@@ -6080,22 +6080,22 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E185">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F185">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G185">
-        <v>4.17</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="186">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6120,13 +6120,13 @@
         </is>
       </c>
       <c r="E186">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F186">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G186">
-        <v>92.31</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="187">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6151,13 +6151,13 @@
         </is>
       </c>
       <c r="E187">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G187">
-        <v>7.69</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="188">
@@ -6168,12 +6168,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6182,13 +6182,13 @@
         </is>
       </c>
       <c r="E188">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F188">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="G188">
-        <v>98.31</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="189">
@@ -6199,12 +6199,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6216,10 +6216,10 @@
         <v>1</v>
       </c>
       <c r="F189">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="G189">
-        <v>1.69</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="190">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6244,13 +6244,13 @@
         </is>
       </c>
       <c r="E190">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F190">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G190">
-        <v>94.12</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="191">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6275,13 +6275,13 @@
         </is>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F191">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G191">
-        <v>5.88</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="192">
@@ -6302,17 +6302,17 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E192">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F192">
         <v>14</v>
       </c>
       <c r="G192">
-        <v>71.43000000000001</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="193">
@@ -6328,22 +6328,22 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E193">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F193">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G193">
-        <v>21.43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194">
@@ -6354,27 +6354,27 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="F194">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G194">
-        <v>7.14</v>
+        <v>97.94</v>
       </c>
     </row>
     <row r="195">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6395,17 +6395,17 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E195">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F195">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="G195">
-        <v>100</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="196">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E196">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="F196">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G196">
-        <v>97.94</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="197">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6461,13 +6461,13 @@
         </is>
       </c>
       <c r="E197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F197">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G197">
-        <v>2.06</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="198">
@@ -6488,17 +6488,17 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E198">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F198">
         <v>71</v>
       </c>
       <c r="G198">
-        <v>90.14</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="199">
@@ -6514,22 +6514,22 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E199">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F199">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G199">
-        <v>4.23</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="200">
@@ -6545,22 +6545,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E200">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F200">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G200">
-        <v>5.63</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="201">
@@ -6581,79 +6581,79 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E201">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="F201">
         <v>77</v>
       </c>
       <c r="G201">
-        <v>89.61</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E202">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F202">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G202">
-        <v>6.49</v>
+        <v>78.08</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E203">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F203">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G203">
-        <v>3.9</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="204">
@@ -6674,17 +6674,17 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E204">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="F204">
         <v>73</v>
       </c>
       <c r="G204">
-        <v>78.08</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="205">
@@ -6700,22 +6700,22 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E205">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F205">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G205">
-        <v>13.7</v>
+        <v>72.37</v>
       </c>
     </row>
     <row r="206">
@@ -6731,22 +6731,22 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E206">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F206">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G206">
-        <v>8.220000000000001</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="207">
@@ -6767,17 +6767,17 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E207">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="F207">
         <v>76</v>
       </c>
       <c r="G207">
-        <v>72.37</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="208">
@@ -6793,22 +6793,22 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E208">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F208">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="G208">
-        <v>18.42</v>
+        <v>86.84</v>
       </c>
     </row>
     <row r="209">
@@ -6824,22 +6824,22 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E209">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F209">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="G209">
-        <v>9.210000000000001</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="210">
@@ -6860,17 +6860,17 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E210">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F210">
         <v>38</v>
       </c>
       <c r="G210">
-        <v>86.84</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="211">
@@ -6881,27 +6881,27 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E211">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F211">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G211">
-        <v>5.26</v>
+        <v>89.47</v>
       </c>
     </row>
     <row r="212">
@@ -6912,27 +6912,27 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F212">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G212">
-        <v>7.89</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="213">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="E213">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F213">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G213">
-        <v>89.47</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="214">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6988,13 +6988,13 @@
         </is>
       </c>
       <c r="E214">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F214">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G214">
-        <v>10.53</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="215">
@@ -7015,17 +7015,17 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E215">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F215">
         <v>24</v>
       </c>
       <c r="G215">
-        <v>45.83</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="216">
@@ -7041,22 +7041,22 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E216">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F216">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G216">
-        <v>37.5</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="217">
@@ -7072,22 +7072,22 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G217">
-        <v>16.67</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="218">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7112,13 +7112,13 @@
         </is>
       </c>
       <c r="E218">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F218">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G218">
-        <v>94.12</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="219">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F219">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G219">
-        <v>5.88</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="220">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7174,13 +7174,13 @@
         </is>
       </c>
       <c r="E220">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F220">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G220">
-        <v>92.75</v>
+        <v>84.42</v>
       </c>
     </row>
     <row r="221">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7208,10 +7208,10 @@
         <v>5</v>
       </c>
       <c r="F221">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G221">
-        <v>7.25</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="222">
@@ -7232,17 +7232,17 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E222">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F222">
         <v>77</v>
       </c>
       <c r="G222">
-        <v>84.42</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="223">
@@ -7258,22 +7258,22 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E223">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="F223">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G223">
-        <v>6.49</v>
+        <v>77.27</v>
       </c>
     </row>
     <row r="224">
@@ -7289,22 +7289,22 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E224">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F224">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G224">
-        <v>9.09</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="225">
@@ -7325,79 +7325,79 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E225">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F225">
         <v>88</v>
       </c>
       <c r="G225">
-        <v>77.27</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E226">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F226">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G226">
-        <v>12.5</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E227">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F227">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G227">
-        <v>10.23</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="228">
@@ -7418,17 +7418,17 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E228">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F228">
         <v>61</v>
       </c>
       <c r="G228">
-        <v>67.20999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="229">
@@ -7444,22 +7444,22 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E229">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F229">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G229">
-        <v>24.59</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="230">
@@ -7475,22 +7475,22 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E230">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F230">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G230">
-        <v>8.199999999999999</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="231">
@@ -7511,17 +7511,17 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E231">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F231">
         <v>64</v>
       </c>
       <c r="G231">
-        <v>78.12</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="232">
@@ -7537,22 +7537,22 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E232">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F232">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G232">
-        <v>15.62</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="233">
@@ -7568,22 +7568,22 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E233">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F233">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G233">
-        <v>6.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234">
@@ -7604,17 +7604,17 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E234">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F234">
         <v>60</v>
       </c>
       <c r="G234">
-        <v>86.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="235">
@@ -7625,27 +7625,27 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E235">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F235">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G235">
-        <v>10</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="236">
@@ -7656,27 +7656,27 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E236">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F236">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G236">
-        <v>3.33</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="237">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="E237">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F237">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G237">
-        <v>69.23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="238">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7732,13 +7732,13 @@
         </is>
       </c>
       <c r="E238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F238">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G238">
-        <v>30.77</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="239">
@@ -7759,17 +7759,17 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E239">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F239">
         <v>14</v>
       </c>
       <c r="G239">
-        <v>50</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="240">
@@ -7785,22 +7785,22 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E240">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F240">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G240">
-        <v>35.71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="241">
@@ -7816,22 +7816,22 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E241">
         <v>2</v>
       </c>
       <c r="F241">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G241">
-        <v>14.29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -7856,13 +7856,13 @@
         </is>
       </c>
       <c r="E242">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F242">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G242">
-        <v>92</v>
+        <v>89.11</v>
       </c>
     </row>
     <row r="243">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="E243">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F243">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G243">
-        <v>8</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="244">
@@ -7914,17 +7914,17 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E244">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="F244">
         <v>101</v>
       </c>
       <c r="G244">
-        <v>89.11</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="245">
@@ -7940,22 +7940,22 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E245">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F245">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="G245">
-        <v>9.9</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="246">
@@ -7971,22 +7971,22 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F246">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="G246">
-        <v>0.99</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="247">
@@ -8007,17 +8007,17 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E247">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="F247">
         <v>63</v>
       </c>
       <c r="G247">
-        <v>66.67</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="248">
@@ -8033,22 +8033,22 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E248">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F248">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="G248">
-        <v>28.57</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="249">
@@ -8064,22 +8064,22 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E249">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F249">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="G249">
-        <v>4.76</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="250">
@@ -8100,79 +8100,79 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E250">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F250">
         <v>86</v>
       </c>
       <c r="G250">
-        <v>70.93000000000001</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E251">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F251">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="G251">
-        <v>22.09</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E252">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F252">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="G252">
-        <v>6.98</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="253">
@@ -8193,17 +8193,17 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E253">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F253">
         <v>51</v>
       </c>
       <c r="G253">
-        <v>56.86</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="254">
@@ -8219,22 +8219,22 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E254">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F254">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G254">
-        <v>31.37</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="255">
@@ -8250,22 +8250,22 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E255">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F255">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G255">
-        <v>11.76</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="256">
@@ -8286,17 +8286,17 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E256">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F256">
         <v>57</v>
       </c>
       <c r="G256">
-        <v>73.68000000000001</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="257">
@@ -8312,22 +8312,22 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E257">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F257">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G257">
-        <v>17.54</v>
+        <v>89.09</v>
       </c>
     </row>
     <row r="258">
@@ -8343,22 +8343,22 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E258">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F258">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G258">
-        <v>8.77</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="259">
@@ -8369,12 +8369,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8383,13 +8383,13 @@
         </is>
       </c>
       <c r="E259">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="F259">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G259">
-        <v>89.09</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="260">
@@ -8400,12 +8400,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -8414,13 +8414,13 @@
         </is>
       </c>
       <c r="E260">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F260">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G260">
-        <v>10.91</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="261">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -8445,13 +8445,13 @@
         </is>
       </c>
       <c r="E261">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F261">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G261">
-        <v>88.89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="262">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -8476,13 +8476,13 @@
         </is>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F262">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G262">
-        <v>11.11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="263">
@@ -8498,7 +8498,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -8507,13 +8507,13 @@
         </is>
       </c>
       <c r="E263">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F263">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G263">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="264">
@@ -8529,7 +8529,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -8538,13 +8538,13 @@
         </is>
       </c>
       <c r="E264">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F264">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G264">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -8569,13 +8569,13 @@
         </is>
       </c>
       <c r="E265">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="F265">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G265">
-        <v>92</v>
+        <v>93.62</v>
       </c>
     </row>
     <row r="266">
@@ -8586,7 +8586,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -8600,13 +8600,13 @@
         </is>
       </c>
       <c r="E266">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F266">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G266">
-        <v>8</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="267">
@@ -8627,17 +8627,17 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E267">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="F267">
         <v>94</v>
       </c>
       <c r="G267">
-        <v>93.62</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="268">
@@ -8653,22 +8653,22 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E268">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F268">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="G268">
-        <v>5.32</v>
+        <v>64.58</v>
       </c>
     </row>
     <row r="269">
@@ -8684,22 +8684,22 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F269">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="G269">
-        <v>1.06</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270">
@@ -8720,17 +8720,17 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E270">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F270">
         <v>48</v>
       </c>
       <c r="G270">
-        <v>64.58</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="271">
@@ -8746,22 +8746,22 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E271">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F271">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="G271">
-        <v>25</v>
+        <v>74.67</v>
       </c>
     </row>
     <row r="272">
@@ -8777,22 +8777,22 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E272">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F272">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="G272">
-        <v>10.42</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="273">
@@ -8813,79 +8813,79 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E273">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="F273">
         <v>75</v>
       </c>
       <c r="G273">
-        <v>74.67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E274">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F274">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G274">
-        <v>21.33</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E275">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F275">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G275">
-        <v>4</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="276">
@@ -8906,17 +8906,17 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E276">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F276">
         <v>55</v>
       </c>
       <c r="G276">
-        <v>72.73</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="277">
@@ -8932,22 +8932,22 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E277">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F277">
         <v>55</v>
       </c>
       <c r="G277">
-        <v>18.18</v>
+        <v>78.18000000000001</v>
       </c>
     </row>
     <row r="278">
@@ -8963,22 +8963,22 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E278">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F278">
         <v>55</v>
       </c>
       <c r="G278">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="279">
@@ -8999,17 +8999,17 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E279">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F279">
         <v>55</v>
       </c>
       <c r="G279">
-        <v>78.18000000000001</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="280">
@@ -9025,22 +9025,22 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E280">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F280">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G280">
-        <v>18.18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281">
@@ -9056,22 +9056,22 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E281">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F281">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G281">
-        <v>3.64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="282">
@@ -9082,12 +9082,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -9096,13 +9096,13 @@
         </is>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F282">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G282">
-        <v>20</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="283">
@@ -9113,12 +9113,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -9130,10 +9130,10 @@
         <v>4</v>
       </c>
       <c r="F283">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G283">
-        <v>80</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="284">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -9158,13 +9158,13 @@
         </is>
       </c>
       <c r="E284">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F284">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G284">
-        <v>66.67</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="285">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -9189,13 +9189,13 @@
         </is>
       </c>
       <c r="E285">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F285">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G285">
-        <v>33.33</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="286">
@@ -9216,17 +9216,17 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E286">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F286">
         <v>13</v>
       </c>
       <c r="G286">
-        <v>46.15</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="287">
@@ -9242,22 +9242,22 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E287">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F287">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G287">
-        <v>46.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="288">
@@ -9268,27 +9268,27 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E288">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F288">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G288">
-        <v>7.69</v>
+        <v>73.53</v>
       </c>
     </row>
     <row r="289">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -9309,17 +9309,17 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E289">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F289">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G289">
-        <v>100</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="290">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -9344,13 +9344,13 @@
         </is>
       </c>
       <c r="E290">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F290">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G290">
-        <v>73.53</v>
+        <v>76.47</v>
       </c>
     </row>
     <row r="291">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -9375,13 +9375,13 @@
         </is>
       </c>
       <c r="E291">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F291">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G291">
-        <v>26.47</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="292">
@@ -9402,17 +9402,17 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E292">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F292">
         <v>68</v>
       </c>
       <c r="G292">
-        <v>76.47</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="293">
@@ -9428,22 +9428,22 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E293">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F293">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G293">
-        <v>17.65</v>
+        <v>87.18000000000001</v>
       </c>
     </row>
     <row r="294">
@@ -9459,22 +9459,22 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E294">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F294">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G294">
-        <v>5.88</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="295">
@@ -9495,78 +9495,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E295">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="F295">
         <v>78</v>
       </c>
       <c r="G295">
-        <v>87.18000000000001</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E296">
-        <v>7</v>
-      </c>
-      <c r="F296">
-        <v>78</v>
-      </c>
-      <c r="G296">
-        <v>8.970000000000001</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E297">
-        <v>3</v>
-      </c>
-      <c r="F297">
-        <v>78</v>
-      </c>
-      <c r="G297">
         <v>3.85</v>
       </c>
     </row>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,7 +500,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F66">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G66">
-        <v>1.16</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="67">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E67">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="F67">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G67">
-        <v>98.84</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="68">
@@ -2458,17 +2458,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F68">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G68">
-        <v>1.39</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -2493,13 +2493,13 @@
         </is>
       </c>
       <c r="E69">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G69">
-        <v>98.61</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="70">
@@ -2520,17 +2520,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E70">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G70">
-        <v>100</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="71">
@@ -2546,22 +2546,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E71">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G71">
-        <v>100</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="72">
@@ -2572,27 +2572,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F72">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="G72">
-        <v>3.8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
@@ -2603,27 +2603,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E73">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="G73">
-        <v>96.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -2639,22 +2639,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F74">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G74">
-        <v>2.9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
@@ -2670,38 +2670,38 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E75">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G75">
-        <v>97.09999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2710,29 +2710,29 @@
         </is>
       </c>
       <c r="E76">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F76">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G76">
-        <v>42.86</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2741,29 +2741,29 @@
         </is>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F77">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G77">
-        <v>17.86</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2772,13 +2772,13 @@
         </is>
       </c>
       <c r="E78">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G78">
-        <v>39.29</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="79">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="E79">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F79">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G79">
-        <v>41.18</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="80">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2837,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="F80">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G80">
-        <v>9.800000000000001</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="81">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2865,13 +2865,13 @@
         </is>
       </c>
       <c r="E81">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F81">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G81">
-        <v>49.02</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="82">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2896,13 +2896,13 @@
         </is>
       </c>
       <c r="E82">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F82">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G82">
-        <v>33.33</v>
+        <v>41.18</v>
       </c>
     </row>
     <row r="83">
@@ -2918,22 +2918,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E83">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F83">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G83">
-        <v>66.67</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -2944,27 +2944,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F84">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="G84">
-        <v>11.11</v>
+        <v>49.02</v>
       </c>
     </row>
     <row r="85">
@@ -2975,27 +2975,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G85">
-        <v>66.67</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="86">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F86">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G86">
-        <v>22.22</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="87">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G87">
-        <v>85.70999999999999</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="88">
@@ -3073,22 +3073,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G88">
-        <v>14.29</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="89">
@@ -3104,22 +3104,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F89">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G89">
-        <v>71.43000000000001</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="90">
@@ -3135,22 +3135,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F90">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G90">
-        <v>14.29</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G91">
         <v>14.29</v>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3206,13 +3206,13 @@
         </is>
       </c>
       <c r="E92">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F92">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G92">
-        <v>35.29</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3237,13 +3237,13 @@
         </is>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G93">
-        <v>5.88</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="94">
@@ -3254,12 +3254,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3268,13 +3268,13 @@
         </is>
       </c>
       <c r="E94">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G94">
-        <v>58.82</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="95">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3299,13 +3299,13 @@
         </is>
       </c>
       <c r="E95">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F95">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G95">
-        <v>21.88</v>
+        <v>35.29</v>
       </c>
     </row>
     <row r="96">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3330,13 +3330,13 @@
         </is>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F96">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G96">
-        <v>15.62</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="97">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3361,13 +3361,13 @@
         </is>
       </c>
       <c r="E97">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F97">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G97">
-        <v>62.5</v>
+        <v>58.82</v>
       </c>
     </row>
     <row r="98">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3392,13 +3392,13 @@
         </is>
       </c>
       <c r="E98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G98">
-        <v>16.67</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="99">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G99">
-        <v>12.5</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="100">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3454,29 +3454,29 @@
         </is>
       </c>
       <c r="E100">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F100">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G100">
-        <v>70.83</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3485,29 +3485,29 @@
         </is>
       </c>
       <c r="E101">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F101">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G101">
-        <v>79.41</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3516,29 +3516,29 @@
         </is>
       </c>
       <c r="E102">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F102">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G102">
-        <v>11.76</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3547,13 +3547,13 @@
         </is>
       </c>
       <c r="E103">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F103">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G103">
-        <v>8.82</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="104">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3578,13 +3578,13 @@
         </is>
       </c>
       <c r="E104">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F104">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G104">
-        <v>77.61</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="105">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3609,13 +3609,13 @@
         </is>
       </c>
       <c r="E105">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F105">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G105">
-        <v>17.91</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="106">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3640,13 +3640,13 @@
         </is>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F106">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G106">
-        <v>4.48</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="107">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3671,13 +3671,13 @@
         </is>
       </c>
       <c r="E107">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F107">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G107">
-        <v>96</v>
+        <v>77.61</v>
       </c>
     </row>
     <row r="108">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3702,13 +3702,13 @@
         </is>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F108">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="109">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F109">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="110">
@@ -3750,12 +3750,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3764,13 +3764,13 @@
         </is>
       </c>
       <c r="E110">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F110">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G110">
-        <v>88.89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3795,13 +3795,13 @@
         </is>
       </c>
       <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>50</v>
+      </c>
+      <c r="G111">
         <v>2</v>
-      </c>
-      <c r="F111">
-        <v>18</v>
-      </c>
-      <c r="G111">
-        <v>11.11</v>
       </c>
     </row>
     <row r="112">
@@ -3812,27 +3812,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E112">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G112">
-        <v>45.45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -3848,22 +3848,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F113">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G113">
-        <v>36.36</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="114">
@@ -3879,22 +3879,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F114">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G114">
-        <v>18.18</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="115">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="E115">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F115">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G115">
-        <v>100</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="116">
@@ -3936,27 +3936,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E116">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F116">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G116">
-        <v>98.81</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="117">
@@ -3967,12 +3967,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3981,13 +3981,13 @@
         </is>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F117">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G117">
-        <v>1.19</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="118">
@@ -3998,12 +3998,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4012,13 +4012,13 @@
         </is>
       </c>
       <c r="E118">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F118">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G118">
-        <v>83.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
@@ -4034,22 +4034,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E119">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F119">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G119">
-        <v>8.33</v>
+        <v>98.81</v>
       </c>
     </row>
     <row r="120">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="E120">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G120">
-        <v>8.33</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="121">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="E121">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F121">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G121">
-        <v>81.40000000000001</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="122">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4136,13 +4136,13 @@
         </is>
       </c>
       <c r="E122">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F122">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G122">
-        <v>12.79</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="123">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4167,29 +4167,29 @@
         </is>
       </c>
       <c r="E123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F123">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G123">
-        <v>5.81</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4198,29 +4198,29 @@
         </is>
       </c>
       <c r="E124">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F124">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G124">
-        <v>87.93000000000001</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4229,29 +4229,29 @@
         </is>
       </c>
       <c r="E125">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F125">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G125">
-        <v>8.619999999999999</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4260,13 +4260,13 @@
         </is>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F126">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G126">
-        <v>3.45</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="127">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4291,13 +4291,13 @@
         </is>
       </c>
       <c r="E127">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F127">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G127">
-        <v>78.69</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4322,13 +4322,13 @@
         </is>
       </c>
       <c r="E128">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F128">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G128">
-        <v>19.67</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="129">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F129">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G129">
-        <v>1.64</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="130">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4384,13 +4384,13 @@
         </is>
       </c>
       <c r="E130">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F130">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G130">
-        <v>97.44</v>
+        <v>78.69</v>
       </c>
     </row>
     <row r="131">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4415,13 +4415,13 @@
         </is>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F131">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G131">
-        <v>2.56</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="132">
@@ -4432,27 +4432,27 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E132">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G132">
-        <v>92.86</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="133">
@@ -4463,27 +4463,27 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F133">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G133">
-        <v>7.14</v>
+        <v>97.44</v>
       </c>
     </row>
     <row r="134">
@@ -4494,27 +4494,27 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E134">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G134">
-        <v>56.25</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="135">
@@ -4530,22 +4530,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E135">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F135">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G135">
-        <v>25</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="136">
@@ -4561,22 +4561,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G136">
-        <v>18.75</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="137">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4601,13 +4601,13 @@
         </is>
       </c>
       <c r="E137">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F137">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G137">
-        <v>100</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="138">
@@ -4618,27 +4618,27 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E138">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="F138">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="G138">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139">
@@ -4649,27 +4649,27 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E139">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="F139">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G139">
-        <v>86.36</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="140">
@@ -4680,27 +4680,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E140">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F140">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G140">
-        <v>7.58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141">
@@ -4716,22 +4716,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E141">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="F141">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G141">
-        <v>6.06</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="E142">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F142">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G142">
-        <v>86.25</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="143">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4787,13 +4787,13 @@
         </is>
       </c>
       <c r="E143">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F143">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G143">
-        <v>10</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="144">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4818,29 +4818,29 @@
         </is>
       </c>
       <c r="E144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F144">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G144">
-        <v>3.75</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4849,29 +4849,29 @@
         </is>
       </c>
       <c r="E145">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F145">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G145">
-        <v>90.38</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4880,29 +4880,29 @@
         </is>
       </c>
       <c r="E146">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F146">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G146">
-        <v>7.69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4911,13 +4911,13 @@
         </is>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F147">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G147">
-        <v>1.92</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="148">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4942,13 +4942,13 @@
         </is>
       </c>
       <c r="E148">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F148">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G148">
-        <v>81.81999999999999</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="149">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4973,13 +4973,13 @@
         </is>
       </c>
       <c r="E149">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F149">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G149">
-        <v>18.18</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="150">
@@ -4995,22 +4995,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E150">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G150">
-        <v>96.43000000000001</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="151">
@@ -5026,22 +5026,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F151">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G151">
-        <v>3.57</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="152">
@@ -5052,27 +5052,27 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E152">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F152">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G152">
-        <v>100</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="153">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5097,13 +5097,13 @@
         </is>
       </c>
       <c r="E153">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F153">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G153">
-        <v>66.67</v>
+        <v>96.43000000000001</v>
       </c>
     </row>
     <row r="154">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5128,13 +5128,13 @@
         </is>
       </c>
       <c r="E154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G154">
-        <v>25</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="155">
@@ -5150,22 +5150,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F155">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G155">
-        <v>8.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5190,13 +5190,13 @@
         </is>
       </c>
       <c r="E156">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F156">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G156">
-        <v>100</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="157">
@@ -5207,27 +5207,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E157">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F157">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G157">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158">
@@ -5238,27 +5238,27 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E158">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G158">
-        <v>91.38</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="159">
@@ -5269,27 +5269,27 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E159">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F159">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="G159">
-        <v>3.45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160">
@@ -5305,22 +5305,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E160">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="F160">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G160">
-        <v>5.17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="E161">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F161">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G161">
-        <v>89.19</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="162">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5376,13 +5376,13 @@
         </is>
       </c>
       <c r="E162">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F162">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G162">
-        <v>8.109999999999999</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="163">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5407,29 +5407,29 @@
         </is>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F163">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G163">
-        <v>2.7</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5438,29 +5438,29 @@
         </is>
       </c>
       <c r="E164">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F164">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G164">
-        <v>90.77</v>
+        <v>89.19</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5472,21 +5472,21 @@
         <v>6</v>
       </c>
       <c r="F165">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G165">
-        <v>9.23</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5496,17 +5496,17 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E166">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F166">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G166">
-        <v>100</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="167">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E167">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F167">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="G167">
-        <v>97.22</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="168">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F168">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="G168">
-        <v>2.78</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="169">
@@ -5579,12 +5579,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5593,13 +5593,13 @@
         </is>
       </c>
       <c r="E169">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F169">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G169">
-        <v>93.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170">
@@ -5610,27 +5610,27 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F170">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G170">
-        <v>6.67</v>
+        <v>97.22</v>
       </c>
     </row>
     <row r="171">
@@ -5641,27 +5641,27 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E171">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G171">
-        <v>90</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="172">
@@ -5677,22 +5677,22 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F172">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G172">
-        <v>10</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="173">
@@ -5708,22 +5708,22 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E173">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G173">
-        <v>100</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="174">
@@ -5734,12 +5734,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5748,13 +5748,13 @@
         </is>
       </c>
       <c r="E174">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F174">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G174">
-        <v>98.31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="175">
@@ -5765,12 +5765,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5782,10 +5782,10 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G175">
-        <v>1.69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
@@ -5796,12 +5796,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5810,13 +5810,13 @@
         </is>
       </c>
       <c r="E176">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F176">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G176">
-        <v>96.67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177">
@@ -5832,22 +5832,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F177">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G177">
-        <v>3.33</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="178">
@@ -5863,22 +5863,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E178">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G178">
-        <v>94.73999999999999</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="179">
@@ -5894,22 +5894,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E179">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F179">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G179">
-        <v>3.51</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="180">
@@ -5925,38 +5925,38 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F180">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G180">
-        <v>1.75</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5965,29 +5965,29 @@
         </is>
       </c>
       <c r="E181">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F181">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G181">
-        <v>81.94</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5996,29 +5996,29 @@
         </is>
       </c>
       <c r="E182">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F182">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G182">
-        <v>13.89</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="E183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G183">
-        <v>4.17</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="184">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6058,13 +6058,13 @@
         </is>
       </c>
       <c r="E184">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F184">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G184">
-        <v>92.31</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="185">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6089,13 +6089,13 @@
         </is>
       </c>
       <c r="E185">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F185">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G185">
-        <v>7.69</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="186">
@@ -6111,22 +6111,22 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E186">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="F186">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G186">
-        <v>98.31</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="187">
@@ -6142,22 +6142,22 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F187">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G187">
-        <v>1.69</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="188">
@@ -6168,27 +6168,27 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E188">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F188">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G188">
-        <v>94.12</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="189">
@@ -6199,27 +6199,27 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="F189">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G189">
-        <v>5.88</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="190">
@@ -6230,27 +6230,27 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E190">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G190">
-        <v>71.43000000000001</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="191">
@@ -6266,22 +6266,22 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E191">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F191">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G191">
-        <v>21.43</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="192">
@@ -6297,22 +6297,22 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G192">
-        <v>7.14</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="193">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="E193">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F193">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G193">
-        <v>100</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="194">
@@ -6354,27 +6354,27 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E194">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="F194">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="G194">
-        <v>97.94</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="195">
@@ -6385,27 +6385,27 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="G195">
-        <v>2.06</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="196">
@@ -6416,12 +6416,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E196">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F196">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="G196">
-        <v>90.14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197">
@@ -6452,22 +6452,22 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E197">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="F197">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G197">
-        <v>4.23</v>
+        <v>97.94</v>
       </c>
     </row>
     <row r="198">
@@ -6483,22 +6483,22 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F198">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G198">
-        <v>5.63</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="199">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E199">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F199">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G199">
-        <v>89.61</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="200">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6554,13 +6554,13 @@
         </is>
       </c>
       <c r="E200">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F200">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G200">
-        <v>6.49</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="201">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6585,29 +6585,29 @@
         </is>
       </c>
       <c r="E201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F201">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G201">
-        <v>3.9</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6616,29 +6616,29 @@
         </is>
       </c>
       <c r="E202">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F202">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G202">
-        <v>78.08</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6647,29 +6647,29 @@
         </is>
       </c>
       <c r="E203">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F203">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G203">
-        <v>13.7</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6678,13 +6678,13 @@
         </is>
       </c>
       <c r="E204">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F204">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G204">
-        <v>8.220000000000001</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="205">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6709,13 +6709,13 @@
         </is>
       </c>
       <c r="E205">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F205">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G205">
-        <v>72.37</v>
+        <v>78.08</v>
       </c>
     </row>
     <row r="206">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6740,13 +6740,13 @@
         </is>
       </c>
       <c r="E206">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F206">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G206">
-        <v>18.42</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="207">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6771,13 +6771,13 @@
         </is>
       </c>
       <c r="E207">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F207">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G207">
-        <v>9.210000000000001</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="208">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6802,13 +6802,13 @@
         </is>
       </c>
       <c r="E208">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F208">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G208">
-        <v>86.84</v>
+        <v>72.37</v>
       </c>
     </row>
     <row r="209">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6833,13 +6833,13 @@
         </is>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F209">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G209">
-        <v>5.26</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="210">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6864,13 +6864,13 @@
         </is>
       </c>
       <c r="E210">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F210">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G210">
-        <v>7.89</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="211">
@@ -6881,12 +6881,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6895,13 +6895,13 @@
         </is>
       </c>
       <c r="E211">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F211">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G211">
-        <v>89.47</v>
+        <v>86.84</v>
       </c>
     </row>
     <row r="212">
@@ -6912,12 +6912,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6929,10 +6929,10 @@
         <v>2</v>
       </c>
       <c r="F212">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G212">
-        <v>10.53</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="213">
@@ -6943,27 +6943,27 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E213">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F213">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G213">
-        <v>45.83</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="214">
@@ -6979,22 +6979,22 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E214">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F214">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G214">
-        <v>37.5</v>
+        <v>89.47</v>
       </c>
     </row>
     <row r="215">
@@ -7010,22 +7010,22 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F215">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G215">
-        <v>16.67</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="216">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7050,13 +7050,13 @@
         </is>
       </c>
       <c r="E216">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F216">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G216">
-        <v>94.12</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="217">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7081,13 +7081,13 @@
         </is>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F217">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G217">
-        <v>5.88</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="218">
@@ -7098,27 +7098,27 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E218">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F218">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="G218">
-        <v>92.75</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="219">
@@ -7129,27 +7129,27 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E219">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F219">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="G219">
-        <v>7.25</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="220">
@@ -7160,27 +7160,27 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E220">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G220">
-        <v>84.42</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="221">
@@ -7196,22 +7196,22 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E221">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="F221">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G221">
-        <v>6.49</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="222">
@@ -7227,22 +7227,22 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E222">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F222">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G222">
-        <v>9.09</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="223">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7267,13 +7267,13 @@
         </is>
       </c>
       <c r="E223">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F223">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G223">
-        <v>77.27</v>
+        <v>84.42</v>
       </c>
     </row>
     <row r="224">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="E224">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F224">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G224">
-        <v>12.5</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="225">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7329,29 +7329,29 @@
         </is>
       </c>
       <c r="E225">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F225">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G225">
-        <v>10.23</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7360,29 +7360,29 @@
         </is>
       </c>
       <c r="E226">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F226">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G226">
-        <v>67.20999999999999</v>
+        <v>77.27</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7391,29 +7391,29 @@
         </is>
       </c>
       <c r="E227">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F227">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G227">
-        <v>24.59</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E228">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F228">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G228">
-        <v>8.199999999999999</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="229">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7453,13 +7453,13 @@
         </is>
       </c>
       <c r="E229">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F229">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G229">
-        <v>78.12</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="230">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7484,13 +7484,13 @@
         </is>
       </c>
       <c r="E230">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F230">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G230">
-        <v>15.62</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="231">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7515,13 +7515,13 @@
         </is>
       </c>
       <c r="E231">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F231">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G231">
-        <v>6.25</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="232">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7546,13 +7546,13 @@
         </is>
       </c>
       <c r="E232">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F232">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G232">
-        <v>86.67</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="233">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7577,13 +7577,13 @@
         </is>
       </c>
       <c r="E233">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F233">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G233">
-        <v>10</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="234">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="E234">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F234">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G234">
-        <v>3.33</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="235">
@@ -7625,12 +7625,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7639,13 +7639,13 @@
         </is>
       </c>
       <c r="E235">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F235">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G235">
-        <v>69.23</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="236">
@@ -7656,12 +7656,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7670,13 +7670,13 @@
         </is>
       </c>
       <c r="E236">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F236">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G236">
-        <v>30.77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
@@ -7687,27 +7687,27 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E237">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F237">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G237">
-        <v>50</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="238">
@@ -7723,22 +7723,22 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E238">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F238">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G238">
-        <v>35.71</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="239">
@@ -7754,22 +7754,22 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E239">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F239">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G239">
-        <v>14.29</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="240">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="E240">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F240">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G240">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="241">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7825,13 +7825,13 @@
         </is>
       </c>
       <c r="E241">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F241">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G241">
-        <v>8</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="242">
@@ -7842,27 +7842,27 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E242">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="F242">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="G242">
-        <v>89.11</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="243">
@@ -7873,27 +7873,27 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E243">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F243">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="G243">
-        <v>9.9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="244">
@@ -7904,27 +7904,27 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F244">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="G244">
-        <v>0.99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
@@ -7940,7 +7940,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7949,13 +7949,13 @@
         </is>
       </c>
       <c r="E245">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F245">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="G245">
-        <v>66.67</v>
+        <v>89.11</v>
       </c>
     </row>
     <row r="246">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7980,13 +7980,13 @@
         </is>
       </c>
       <c r="E246">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F246">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="G246">
-        <v>28.57</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="247">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8011,13 +8011,13 @@
         </is>
       </c>
       <c r="E247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="G247">
-        <v>4.76</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="248">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -8042,13 +8042,13 @@
         </is>
       </c>
       <c r="E248">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F248">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G248">
-        <v>70.93000000000001</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="249">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -8073,13 +8073,13 @@
         </is>
       </c>
       <c r="E249">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F249">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G249">
-        <v>22.09</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="250">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -8104,29 +8104,29 @@
         </is>
       </c>
       <c r="E250">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F250">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G250">
-        <v>6.98</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -8135,29 +8135,29 @@
         </is>
       </c>
       <c r="E251">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F251">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="G251">
-        <v>56.86</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -8166,29 +8166,29 @@
         </is>
       </c>
       <c r="E252">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F252">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="G252">
-        <v>31.37</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8200,10 +8200,10 @@
         <v>6</v>
       </c>
       <c r="F253">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="G253">
-        <v>11.76</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="254">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8228,13 +8228,13 @@
         </is>
       </c>
       <c r="E254">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F254">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G254">
-        <v>73.68000000000001</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="255">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -8259,13 +8259,13 @@
         </is>
       </c>
       <c r="E255">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F255">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G255">
-        <v>17.54</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="256">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8290,13 +8290,13 @@
         </is>
       </c>
       <c r="E256">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F256">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G256">
-        <v>8.77</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="257">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -8321,13 +8321,13 @@
         </is>
       </c>
       <c r="E257">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F257">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G257">
-        <v>89.09</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="258">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8352,13 +8352,13 @@
         </is>
       </c>
       <c r="E258">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F258">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G258">
-        <v>10.91</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="259">
@@ -8369,27 +8369,27 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E259">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F259">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G259">
-        <v>88.89</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="260">
@@ -8400,27 +8400,27 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F260">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G260">
-        <v>11.11</v>
+        <v>89.09</v>
       </c>
     </row>
     <row r="261">
@@ -8431,27 +8431,27 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E261">
         <v>6</v>
       </c>
       <c r="F261">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G261">
-        <v>50</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="262">
@@ -8467,22 +8467,22 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E262">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F262">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G262">
-        <v>50</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="263">
@@ -8498,22 +8498,22 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E263">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F263">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G263">
-        <v>92</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="264">
@@ -8529,22 +8529,22 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E264">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F264">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G264">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="265">
@@ -8555,27 +8555,27 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E265">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="F265">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G265">
-        <v>93.62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="266">
@@ -8586,27 +8586,27 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E266">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F266">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="G266">
-        <v>5.32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="267">
@@ -8617,27 +8617,27 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F267">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="G267">
-        <v>1.06</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -8662,13 +8662,13 @@
         </is>
       </c>
       <c r="E268">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F268">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="G268">
-        <v>64.58</v>
+        <v>93.62</v>
       </c>
     </row>
     <row r="269">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -8693,13 +8693,13 @@
         </is>
       </c>
       <c r="E269">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F269">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="G269">
-        <v>25</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="270">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -8724,13 +8724,13 @@
         </is>
       </c>
       <c r="E270">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F270">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="G270">
-        <v>10.42</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="271">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -8755,13 +8755,13 @@
         </is>
       </c>
       <c r="E271">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F271">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G271">
-        <v>74.67</v>
+        <v>64.58</v>
       </c>
     </row>
     <row r="272">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -8786,13 +8786,13 @@
         </is>
       </c>
       <c r="E272">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F272">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G272">
-        <v>21.33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8817,29 +8817,29 @@
         </is>
       </c>
       <c r="E273">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F273">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G273">
-        <v>4</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8848,29 +8848,29 @@
         </is>
       </c>
       <c r="E274">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F274">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G274">
-        <v>72.73</v>
+        <v>74.67</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -8879,29 +8879,29 @@
         </is>
       </c>
       <c r="E275">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F275">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G275">
-        <v>18.18</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -8910,13 +8910,13 @@
         </is>
       </c>
       <c r="E276">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F276">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G276">
-        <v>9.09</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -8941,13 +8941,13 @@
         </is>
       </c>
       <c r="E277">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F277">
         <v>55</v>
       </c>
       <c r="G277">
-        <v>78.18000000000001</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="278">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -9003,13 +9003,13 @@
         </is>
       </c>
       <c r="E279">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F279">
         <v>55</v>
       </c>
       <c r="G279">
-        <v>3.64</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="280">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -9034,13 +9034,13 @@
         </is>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F280">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G280">
-        <v>20</v>
+        <v>78.18000000000001</v>
       </c>
     </row>
     <row r="281">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -9065,13 +9065,13 @@
         </is>
       </c>
       <c r="E281">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F281">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G281">
-        <v>80</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="282">
@@ -9082,27 +9082,27 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E282">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F282">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G282">
-        <v>66.67</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="283">
@@ -9113,27 +9113,27 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E283">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F283">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G283">
-        <v>33.33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284">
@@ -9144,27 +9144,27 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E284">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F284">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G284">
-        <v>46.15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285">
@@ -9180,22 +9180,22 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E285">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F285">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G285">
-        <v>46.15</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="286">
@@ -9211,22 +9211,22 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F286">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G286">
-        <v>7.69</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="287">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9251,13 +9251,13 @@
         </is>
       </c>
       <c r="E287">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F287">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G287">
-        <v>100</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="288">
@@ -9268,27 +9268,27 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E288">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F288">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G288">
-        <v>73.53</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="289">
@@ -9299,27 +9299,27 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E289">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F289">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G289">
-        <v>26.47</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="290">
@@ -9330,12 +9330,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -9344,13 +9344,13 @@
         </is>
       </c>
       <c r="E290">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F290">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="G290">
-        <v>76.47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="291">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E291">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F291">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G291">
-        <v>17.65</v>
+        <v>73.53</v>
       </c>
     </row>
     <row r="292">
@@ -9397,22 +9397,22 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E292">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F292">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G292">
-        <v>5.88</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="293">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -9437,13 +9437,13 @@
         </is>
       </c>
       <c r="E293">
+        <v>52</v>
+      </c>
+      <c r="F293">
         <v>68</v>
       </c>
-      <c r="F293">
-        <v>78</v>
-      </c>
       <c r="G293">
-        <v>87.18000000000001</v>
+        <v>76.47</v>
       </c>
     </row>
     <row r="294">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -9468,13 +9468,13 @@
         </is>
       </c>
       <c r="E294">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F294">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G294">
-        <v>8.970000000000001</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="295">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -9499,12 +9499,105 @@
         </is>
       </c>
       <c r="E295">
+        <v>4</v>
+      </c>
+      <c r="F295">
+        <v>68</v>
+      </c>
+      <c r="G295">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E296">
+        <v>68</v>
+      </c>
+      <c r="F296">
+        <v>78</v>
+      </c>
+      <c r="G296">
+        <v>87.18000000000001</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E297">
+        <v>7</v>
+      </c>
+      <c r="F297">
+        <v>78</v>
+      </c>
+      <c r="G297">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E298">
         <v>3</v>
       </c>
-      <c r="F295">
+      <c r="F298">
         <v>78</v>
       </c>
-      <c r="G295">
+      <c r="G298">
         <v>3.85</v>
       </c>
     </row>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -6709,13 +6709,13 @@
         </is>
       </c>
       <c r="E205">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F205">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G205">
-        <v>78.08</v>
+        <v>81.16</v>
       </c>
     </row>
     <row r="206">
@@ -6740,13 +6740,13 @@
         </is>
       </c>
       <c r="E206">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F206">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G206">
-        <v>13.7</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="207">
@@ -6771,13 +6771,13 @@
         </is>
       </c>
       <c r="E207">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F207">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G207">
-        <v>8.220000000000001</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="208">
@@ -6802,13 +6802,13 @@
         </is>
       </c>
       <c r="E208">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F208">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G208">
-        <v>72.37</v>
+        <v>74.65000000000001</v>
       </c>
     </row>
     <row r="209">
@@ -6836,10 +6836,10 @@
         <v>14</v>
       </c>
       <c r="F209">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G209">
-        <v>18.42</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="210">
@@ -6864,13 +6864,13 @@
         </is>
       </c>
       <c r="E210">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F210">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G210">
-        <v>9.210000000000001</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="211">
@@ -6895,13 +6895,13 @@
         </is>
       </c>
       <c r="E211">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F211">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G211">
-        <v>86.84</v>
+        <v>94.92</v>
       </c>
     </row>
     <row r="212">
@@ -6929,10 +6929,10 @@
         <v>2</v>
       </c>
       <c r="F212">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G212">
-        <v>5.26</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="213">
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="E213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G213">
-        <v>7.89</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="214">
@@ -6988,13 +6988,13 @@
         </is>
       </c>
       <c r="E214">
+        <v>16</v>
+      </c>
+      <c r="F214">
         <v>17</v>
       </c>
-      <c r="F214">
-        <v>19</v>
-      </c>
       <c r="G214">
-        <v>89.47</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="215">
@@ -7019,13 +7019,13 @@
         </is>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G215">
-        <v>10.53</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="216">
@@ -7081,13 +7081,13 @@
         </is>
       </c>
       <c r="E217">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F217">
         <v>24</v>
       </c>
       <c r="G217">
-        <v>37.5</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="218">
@@ -7112,13 +7112,13 @@
         </is>
       </c>
       <c r="E218">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F218">
         <v>24</v>
       </c>
       <c r="G218">
-        <v>16.67</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="219">
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="E219">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F219">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G219">
-        <v>94.12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7170,17 +7170,17 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="F220">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="G220">
-        <v>5.88</v>
+        <v>97.83</v>
       </c>
     </row>
     <row r="221">
@@ -7201,17 +7201,17 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E221">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="G221">
-        <v>92.75</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="222">
@@ -7232,17 +7232,17 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E222">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="G222">
-        <v>7.25</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="223">
@@ -7270,10 +7270,10 @@
         <v>65</v>
       </c>
       <c r="F223">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G223">
-        <v>84.42</v>
+        <v>85.53</v>
       </c>
     </row>
     <row r="224">
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="E224">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F224">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G224">
-        <v>6.49</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="225">
@@ -7329,13 +7329,13 @@
         </is>
       </c>
       <c r="E225">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F225">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G225">
-        <v>9.09</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="226">
@@ -7360,13 +7360,13 @@
         </is>
       </c>
       <c r="E226">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F226">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G226">
-        <v>77.27</v>
+        <v>79.31</v>
       </c>
     </row>
     <row r="227">
@@ -7391,13 +7391,13 @@
         </is>
       </c>
       <c r="E227">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F227">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G227">
-        <v>12.5</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="228">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E228">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F228">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G228">
-        <v>10.23</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="229">

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F5">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G5">
-        <v>97.95999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -526,27 +526,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>2.04</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="7">
@@ -567,17 +567,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>15</v>
       </c>
       <c r="G7">
-        <v>93.33</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="8">
@@ -593,22 +593,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>6.67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -629,17 +629,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -650,27 +650,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>96.61</v>
       </c>
     </row>
     <row r="11">
@@ -681,27 +681,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="12">
@@ -717,7 +717,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="E12">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F12">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G12">
-        <v>96.25</v>
+        <v>94.64</v>
       </c>
     </row>
     <row r="13">
@@ -748,7 +748,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -760,10 +760,10 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G13">
-        <v>2.5</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="14">
@@ -779,7 +779,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -791,21 +791,21 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G14">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -819,24 +819,24 @@
         </is>
       </c>
       <c r="E15">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F15">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15">
-        <v>96.61</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -850,55 +850,55 @@
         </is>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16">
-        <v>3.39</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E17">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>56</v>
       </c>
       <c r="G17">
-        <v>94.64</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -908,28 +908,28 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F18">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G18">
-        <v>3.57</v>
+        <v>90.56999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -939,17 +939,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G19">
-        <v>1.79</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="20">
@@ -965,7 +965,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="E20">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G20">
-        <v>85.70999999999999</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -996,22 +996,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G21">
-        <v>10.71</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="22">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G22">
-        <v>3.57</v>
+        <v>88.23999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1053,27 +1053,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E23">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G23">
-        <v>90.56999999999999</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="24">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1094,17 +1094,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>9.43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -1115,27 +1115,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E25">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>95.83</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="26">
@@ -1146,27 +1146,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G26">
-        <v>2.08</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="27">
@@ -1177,27 +1177,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F27">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G27">
-        <v>2.08</v>
+        <v>88.06</v>
       </c>
     </row>
     <row r="28">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1218,17 +1218,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G28">
-        <v>88.23999999999999</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="29">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1249,17 +1249,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G29">
-        <v>11.76</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="30">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G30">
-        <v>75</v>
+        <v>91.18000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G31">
-        <v>16.67</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="32">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1346,29 +1346,29 @@
         </is>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G32">
-        <v>8.33</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1377,292 +1377,292 @@
         </is>
       </c>
       <c r="E33">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>68.84999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E34">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F34">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G34">
-        <v>94.05</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G35">
-        <v>3.57</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="F36">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G36">
-        <v>2.38</v>
+        <v>83.87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="F37">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G37">
-        <v>88.06</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G38">
-        <v>5.97</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="F39">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G39">
-        <v>5.97</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G40">
-        <v>91.18000000000001</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G41">
-        <v>5.88</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G42">
-        <v>2.94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E43">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
-        <v>68.84999999999999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -1704,27 +1704,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F44">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G44">
-        <v>29.51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -1735,27 +1735,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G45">
-        <v>1.64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1780,13 +1780,13 @@
         </is>
       </c>
       <c r="E46">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F46">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G46">
-        <v>83.87</v>
+        <v>75.70999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1811,13 +1811,13 @@
         </is>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F47">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G47">
-        <v>11.29</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="48">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G48">
-        <v>4.84</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="49">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1873,13 +1873,13 @@
         </is>
       </c>
       <c r="E49">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F49">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G49">
-        <v>86.44</v>
+        <v>76.70999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1890,12 +1890,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1904,13 +1904,13 @@
         </is>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G50">
-        <v>10.17</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="51">
@@ -1921,12 +1921,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1935,24 +1935,24 @@
         </is>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G51">
-        <v>3.39</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1966,24 +1966,24 @@
         </is>
       </c>
       <c r="E52">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F52">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G52">
-        <v>80</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1997,24 +1997,24 @@
         </is>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G53">
-        <v>20</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2028,24 +2028,24 @@
         </is>
       </c>
       <c r="E54">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G54">
-        <v>90</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2055,28 +2055,28 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2090,19 +2090,19 @@
         </is>
       </c>
       <c r="E56">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F56">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G56">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2112,121 +2112,121 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E58">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G58">
-        <v>91.01000000000001</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F59">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G59">
-        <v>8.99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E60">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G60">
-        <v>75.70999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2241,23 +2241,23 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E61">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F61">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G61">
-        <v>21.43</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2272,23 +2272,23 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G62">
-        <v>2.86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2307,19 +2307,19 @@
         </is>
       </c>
       <c r="E63">
+        <v>52</v>
+      </c>
+      <c r="F63">
         <v>56</v>
       </c>
-      <c r="F63">
-        <v>73</v>
-      </c>
       <c r="G63">
-        <v>76.70999999999999</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2338,19 +2338,19 @@
         </is>
       </c>
       <c r="E64">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G64">
-        <v>16.44</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2369,19 +2369,19 @@
         </is>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G65">
-        <v>6.85</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2400,19 +2400,19 @@
         </is>
       </c>
       <c r="E66">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F66">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G66">
-        <v>90.77</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2431,19 +2431,19 @@
         </is>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G67">
-        <v>9.23</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2453,28 +2453,28 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F68">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G68">
-        <v>98.04000000000001</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2489,85 +2489,85 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F69">
         <v>51</v>
       </c>
       <c r="G69">
-        <v>1.96</v>
+        <v>41.18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E70">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F70">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G70">
-        <v>93.33</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F71">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G71">
-        <v>6.67</v>
+        <v>49.02</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2586,19 +2586,19 @@
         </is>
       </c>
       <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
         <v>9</v>
       </c>
-      <c r="F72">
-        <v>10</v>
-      </c>
       <c r="G72">
-        <v>90</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2617,24 +2617,24 @@
         </is>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G73">
-        <v>10</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2644,59 +2644,59 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E74">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G74">
-        <v>95</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2706,23 +2706,23 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E76">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="G76">
-        <v>92.86</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2732,28 +2732,28 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F77">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G77">
-        <v>5.36</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2763,22 +2763,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F78">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G78">
-        <v>1.79</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="79">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E79">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F79">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G79">
-        <v>42.86</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="80">
@@ -2820,27 +2820,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F80">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G80">
-        <v>17.86</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="81">
@@ -2851,27 +2851,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E81">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F81">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G81">
-        <v>39.29</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="82">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2892,23 +2892,23 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E82">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F82">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G82">
-        <v>41.18</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2918,28 +2918,28 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F83">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G83">
-        <v>9.800000000000001</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2949,28 +2949,28 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E84">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F84">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G84">
-        <v>49.02</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2980,28 +2980,28 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E85">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F85">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="G85">
-        <v>33.33</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3011,90 +3011,90 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E86">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F86">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="G86">
-        <v>66.67</v>
+        <v>77.61</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="G87">
-        <v>11.11</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F88">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="G88">
-        <v>66.67</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3109,23 +3109,23 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G89">
-        <v>22.22</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3135,28 +3135,28 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G90">
-        <v>85.70999999999999</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3171,23 +3171,23 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G91">
-        <v>14.29</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3197,28 +3197,28 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F92">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G92">
-        <v>71.43000000000001</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3228,59 +3228,59 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G93">
-        <v>14.29</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="F94">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G94">
-        <v>14.29</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3290,28 +3290,28 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E95">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F95">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G95">
-        <v>35.29</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3321,28 +3321,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F96">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G96">
-        <v>5.88</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3352,28 +3352,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E97">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F97">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="G97">
-        <v>58.82</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3383,28 +3383,28 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F98">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="G98">
-        <v>21.88</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3414,33 +3414,33 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E99">
         <v>5</v>
       </c>
       <c r="F99">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="G99">
-        <v>15.62</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3450,90 +3450,90 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E100">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F100">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G100">
-        <v>62.5</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E101">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F101">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G101">
-        <v>16.67</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F102">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G102">
-        <v>12.5</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3543,23 +3543,23 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E103">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F103">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G103">
-        <v>70.83</v>
+        <v>78.69</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3569,28 +3569,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E104">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F104">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G104">
-        <v>79.41</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3600,33 +3600,33 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E105">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G105">
-        <v>11.76</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3636,59 +3636,59 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E106">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F106">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G106">
-        <v>8.82</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E107">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="G107">
-        <v>77.61</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3698,28 +3698,28 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E108">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F108">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="G108">
-        <v>17.91</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3729,121 +3729,121 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F109">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="G109">
-        <v>4.48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E110">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="F110">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G110">
-        <v>96</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F111">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F112">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3853,59 +3853,59 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E113">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F113">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G113">
-        <v>88.89</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="F114">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="G114">
-        <v>11.11</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3915,28 +3915,28 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E115">
+        <v>8</v>
+      </c>
+      <c r="F115">
+        <v>80</v>
+      </c>
+      <c r="G115">
         <v>10</v>
-      </c>
-      <c r="F115">
-        <v>22</v>
-      </c>
-      <c r="G115">
-        <v>45.45</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3946,183 +3946,183 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E116">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F116">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G116">
-        <v>36.36</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E117">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F117">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G117">
-        <v>18.18</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E118">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F118">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G118">
-        <v>100</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E119">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G119">
-        <v>98.81</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F120">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="G120">
-        <v>1.19</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E121">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F121">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G121">
-        <v>83.33</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4132,59 +4132,59 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E122">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F122">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="G122">
-        <v>8.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E123">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F123">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G123">
-        <v>8.33</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4194,28 +4194,28 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E124">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="F124">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G124">
-        <v>81.40000000000001</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4225,23 +4225,23 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E125">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G125">
-        <v>12.79</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4251,33 +4251,33 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E126">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F126">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G126">
-        <v>5.81</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4287,28 +4287,28 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E127">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F127">
         <v>58</v>
       </c>
       <c r="G127">
-        <v>87.93000000000001</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4318,59 +4318,59 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F128">
         <v>58</v>
       </c>
       <c r="G128">
-        <v>8.619999999999999</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="F129">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G129">
-        <v>3.45</v>
+        <v>89.19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4380,28 +4380,28 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E130">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F130">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G130">
-        <v>78.69</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4411,23 +4411,23 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E131">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F131">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G131">
-        <v>19.67</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4437,28 +4437,28 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F132">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G132">
-        <v>1.64</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4468,28 +4468,28 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E133">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F133">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G133">
-        <v>97.44</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4499,38 +4499,38 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F134">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G134">
-        <v>2.56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4539,19 +4539,19 @@
         </is>
       </c>
       <c r="E135">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F135">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G135">
-        <v>92.86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4566,23 +4566,23 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F136">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G136">
-        <v>7.14</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4592,28 +4592,28 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E137">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G137">
-        <v>56.25</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4628,23 +4628,23 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E138">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F138">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G138">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4659,33 +4659,33 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G139">
-        <v>18.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4694,19 +4694,19 @@
         </is>
       </c>
       <c r="E140">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F140">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G140">
-        <v>100</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4716,28 +4716,28 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E141">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="F141">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G141">
-        <v>100</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4756,19 +4756,19 @@
         </is>
       </c>
       <c r="E142">
+        <v>54</v>
+      </c>
+      <c r="F142">
         <v>57</v>
       </c>
-      <c r="F142">
-        <v>66</v>
-      </c>
       <c r="G142">
-        <v>86.36</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4787,19 +4787,19 @@
         </is>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F143">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G143">
-        <v>7.58</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4818,29 +4818,29 @@
         </is>
       </c>
       <c r="E144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G144">
-        <v>6.06</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4849,29 +4849,29 @@
         </is>
       </c>
       <c r="E145">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F145">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G145">
-        <v>86.25</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4880,29 +4880,29 @@
         </is>
       </c>
       <c r="E146">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F146">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G146">
-        <v>10</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4914,16 +4914,16 @@
         <v>3</v>
       </c>
       <c r="F147">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G147">
-        <v>3.75</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4942,19 +4942,19 @@
         </is>
       </c>
       <c r="E148">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F148">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G148">
-        <v>90.38</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4973,10 +4973,10 @@
         </is>
       </c>
       <c r="E149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F149">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G149">
         <v>7.69</v>
@@ -4985,7 +4985,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4995,28 +4995,28 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F150">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G150">
-        <v>1.92</v>
+        <v>96.83</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5026,28 +5026,28 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E151">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G151">
-        <v>81.81999999999999</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5057,38 +5057,38 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E152">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G152">
-        <v>18.18</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5097,29 +5097,29 @@
         </is>
       </c>
       <c r="E153">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F153">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G153">
-        <v>96.43000000000001</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5131,16 +5131,16 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G154">
-        <v>3.57</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5159,19 +5159,19 @@
         </is>
       </c>
       <c r="E155">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F155">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G155">
-        <v>100</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E156">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F156">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G156">
-        <v>66.67</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5217,85 +5217,85 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G157">
-        <v>25</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F158">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G158">
-        <v>8.33</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E159">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F159">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="G159">
-        <v>100</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5305,28 +5305,28 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E160">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F160">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G160">
-        <v>100</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5345,19 +5345,19 @@
         </is>
       </c>
       <c r="E161">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F161">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G161">
-        <v>91.38</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5376,19 +5376,19 @@
         </is>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F162">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G162">
-        <v>3.45</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5410,26 +5410,26 @@
         <v>3</v>
       </c>
       <c r="F163">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G163">
-        <v>5.17</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5438,29 +5438,29 @@
         </is>
       </c>
       <c r="E164">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F164">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G164">
-        <v>89.19</v>
+        <v>81.16</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5469,29 +5469,29 @@
         </is>
       </c>
       <c r="E165">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F165">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G165">
-        <v>8.109999999999999</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5500,19 +5500,19 @@
         </is>
       </c>
       <c r="E166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F166">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G166">
-        <v>2.7</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5531,19 +5531,19 @@
         </is>
       </c>
       <c r="E167">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F167">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G167">
-        <v>90.77</v>
+        <v>74.65000000000001</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5562,19 +5562,19 @@
         </is>
       </c>
       <c r="E168">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F168">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G168">
-        <v>9.23</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5589,23 +5589,23 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E169">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F169">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G169">
-        <v>100</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5624,19 +5624,19 @@
         </is>
       </c>
       <c r="E170">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F170">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G170">
-        <v>97.22</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5655,19 +5655,19 @@
         </is>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F171">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G171">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5686,19 +5686,19 @@
         </is>
       </c>
       <c r="E172">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F172">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G172">
-        <v>93.33</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5720,16 +5720,16 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G173">
-        <v>6.67</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5748,19 +5748,19 @@
         </is>
       </c>
       <c r="E174">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F174">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G174">
-        <v>90</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5779,19 +5779,19 @@
         </is>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F175">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G175">
-        <v>10</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5801,28 +5801,28 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E176">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F176">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G176">
-        <v>100</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5841,19 +5841,19 @@
         </is>
       </c>
       <c r="E177">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F177">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G177">
-        <v>98.31</v>
+        <v>85.53</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5872,19 +5872,19 @@
         </is>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F178">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G178">
-        <v>1.69</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5899,23 +5899,23 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E179">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="F179">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G179">
-        <v>96.67</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5925,28 +5925,28 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E180">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="F180">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="G180">
-        <v>3.33</v>
+        <v>79.31</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5961,23 +5961,23 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E181">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F181">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G181">
-        <v>94.73999999999999</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5992,54 +5992,54 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E182">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F182">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G182">
-        <v>3.51</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F183">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G183">
-        <v>1.75</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6054,23 +6054,23 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E184">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F184">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G184">
-        <v>81.94</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6085,23 +6085,23 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E185">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F185">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G185">
-        <v>13.89</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6111,28 +6111,28 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E186">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F186">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G186">
-        <v>4.17</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6147,23 +6147,23 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E187">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F187">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G187">
-        <v>92.31</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6178,23 +6178,23 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E188">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F188">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G188">
-        <v>7.69</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6213,19 +6213,19 @@
         </is>
       </c>
       <c r="E189">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F189">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G189">
-        <v>98.31</v>
+        <v>86.48999999999999</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6244,19 +6244,19 @@
         </is>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F190">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G190">
-        <v>1.69</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6275,19 +6275,19 @@
         </is>
       </c>
       <c r="E191">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F191">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G191">
-        <v>94.12</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6306,19 +6306,19 @@
         </is>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F192">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G192">
-        <v>5.88</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="E193">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F193">
         <v>14</v>
       </c>
       <c r="G193">
-        <v>71.43000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6368,19 +6368,19 @@
         </is>
       </c>
       <c r="E194">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F194">
         <v>14</v>
       </c>
       <c r="G194">
-        <v>21.43</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6399,29 +6399,29 @@
         </is>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F195">
         <v>14</v>
       </c>
       <c r="G195">
-        <v>7.14</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6430,19 +6430,19 @@
         </is>
       </c>
       <c r="E196">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F196">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="G196">
-        <v>100</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6452,28 +6452,28 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E197">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="F197">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="G197">
-        <v>97.94</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6483,28 +6483,28 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F198">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="G198">
-        <v>2.06</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6523,19 +6523,19 @@
         </is>
       </c>
       <c r="E199">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F199">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G199">
-        <v>90.14</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6554,19 +6554,19 @@
         </is>
       </c>
       <c r="E200">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F200">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G200">
-        <v>4.23</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6585,29 +6585,29 @@
         </is>
       </c>
       <c r="E201">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F201">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G201">
-        <v>5.63</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6616,29 +6616,29 @@
         </is>
       </c>
       <c r="E202">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F202">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G202">
-        <v>89.61</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6647,29 +6647,29 @@
         </is>
       </c>
       <c r="E203">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F203">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G203">
-        <v>6.49</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6678,19 +6678,19 @@
         </is>
       </c>
       <c r="E204">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F204">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G204">
-        <v>3.9</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6709,19 +6709,19 @@
         </is>
       </c>
       <c r="E205">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F205">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G205">
-        <v>81.16</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6740,19 +6740,19 @@
         </is>
       </c>
       <c r="E206">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F206">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G206">
-        <v>11.59</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6774,16 +6774,16 @@
         <v>5</v>
       </c>
       <c r="F207">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G207">
-        <v>7.25</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6802,19 +6802,19 @@
         </is>
       </c>
       <c r="E208">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F208">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G208">
-        <v>74.65000000000001</v>
+        <v>86.44</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6833,19 +6833,19 @@
         </is>
       </c>
       <c r="E209">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F209">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G209">
-        <v>19.72</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6864,29 +6864,29 @@
         </is>
       </c>
       <c r="E210">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G210">
-        <v>5.63</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6895,29 +6895,29 @@
         </is>
       </c>
       <c r="E211">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="F211">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="G211">
-        <v>94.92</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6926,50 +6926,50 @@
         </is>
       </c>
       <c r="E212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="G212">
-        <v>3.39</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F213">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G213">
-        <v>1.69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6979,33 +6979,33 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E214">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F214">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G214">
-        <v>94.12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7015,90 +7015,90 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F215">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G215">
-        <v>5.88</v>
+        <v>64.58</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E216">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G216">
-        <v>45.83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E217">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F217">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G217">
-        <v>41.67</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7108,54 +7108,54 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E218">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="F218">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G218">
-        <v>12.5</v>
+        <v>74.67</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E219">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F219">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="G219">
-        <v>100</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7165,95 +7165,95 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E220">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="F220">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G220">
-        <v>97.83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F221">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="G221">
-        <v>1.09</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F222">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="G222">
-        <v>1.09</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7263,90 +7263,90 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E223">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="F223">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G223">
-        <v>85.53</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E224">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F224">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G224">
-        <v>7.89</v>
+        <v>78.18000000000001</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E225">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F225">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G225">
-        <v>6.58</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7356,85 +7356,85 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E226">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="F226">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="G226">
-        <v>79.31</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E227">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F227">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G227">
-        <v>11.49</v>
+        <v>86.95999999999999</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E228">
         <v>8</v>
       </c>
       <c r="F228">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G228">
-        <v>9.199999999999999</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7444,33 +7444,33 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E229">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G229">
-        <v>67.20999999999999</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -7480,28 +7480,28 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E230">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F230">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G230">
-        <v>24.59</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -7511,28 +7511,28 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E231">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F231">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G231">
-        <v>8.199999999999999</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -7546,24 +7546,24 @@
         </is>
       </c>
       <c r="E232">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F232">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G232">
-        <v>78.12</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7577,24 +7577,24 @@
         </is>
       </c>
       <c r="E233">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F233">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G233">
-        <v>15.62</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7608,29 +7608,29 @@
         </is>
       </c>
       <c r="E234">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G234">
-        <v>6.25</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7642,26 +7642,26 @@
         <v>52</v>
       </c>
       <c r="F235">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G235">
-        <v>86.67</v>
+        <v>76.47</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7670,29 +7670,29 @@
         </is>
       </c>
       <c r="E236">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F236">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G236">
-        <v>10</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7701,29 +7701,29 @@
         </is>
       </c>
       <c r="E237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F237">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G237">
-        <v>3.33</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7732,29 +7732,29 @@
         </is>
       </c>
       <c r="E238">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F238">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="G238">
-        <v>69.23</v>
+        <v>87.18000000000001</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7763,24 +7763,24 @@
         </is>
       </c>
       <c r="E239">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F239">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="G239">
-        <v>30.77</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -7790,1814 +7790,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E240">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F240">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="G240">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E241">
-        <v>5</v>
-      </c>
-      <c r="F241">
-        <v>14</v>
-      </c>
-      <c r="G241">
-        <v>35.71</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E242">
-        <v>2</v>
-      </c>
-      <c r="F242">
-        <v>14</v>
-      </c>
-      <c r="G242">
-        <v>14.29</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E243">
-        <v>23</v>
-      </c>
-      <c r="F243">
-        <v>25</v>
-      </c>
-      <c r="G243">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E244">
-        <v>2</v>
-      </c>
-      <c r="F244">
-        <v>25</v>
-      </c>
-      <c r="G244">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E245">
-        <v>90</v>
-      </c>
-      <c r="F245">
-        <v>101</v>
-      </c>
-      <c r="G245">
-        <v>89.11</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E246">
-        <v>10</v>
-      </c>
-      <c r="F246">
-        <v>101</v>
-      </c>
-      <c r="G246">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>101</v>
-      </c>
-      <c r="G247">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E248">
-        <v>42</v>
-      </c>
-      <c r="F248">
-        <v>63</v>
-      </c>
-      <c r="G248">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E249">
-        <v>18</v>
-      </c>
-      <c r="F249">
-        <v>63</v>
-      </c>
-      <c r="G249">
-        <v>28.57</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E250">
-        <v>3</v>
-      </c>
-      <c r="F250">
-        <v>63</v>
-      </c>
-      <c r="G250">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E251">
-        <v>61</v>
-      </c>
-      <c r="F251">
-        <v>86</v>
-      </c>
-      <c r="G251">
-        <v>70.93000000000001</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E252">
-        <v>19</v>
-      </c>
-      <c r="F252">
-        <v>86</v>
-      </c>
-      <c r="G252">
-        <v>22.09</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Mothur</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E253">
-        <v>6</v>
-      </c>
-      <c r="F253">
-        <v>86</v>
-      </c>
-      <c r="G253">
-        <v>6.98</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E254">
-        <v>29</v>
-      </c>
-      <c r="F254">
-        <v>51</v>
-      </c>
-      <c r="G254">
-        <v>56.86</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E255">
-        <v>16</v>
-      </c>
-      <c r="F255">
-        <v>51</v>
-      </c>
-      <c r="G255">
-        <v>31.37</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E256">
-        <v>6</v>
-      </c>
-      <c r="F256">
-        <v>51</v>
-      </c>
-      <c r="G256">
-        <v>11.76</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E257">
-        <v>42</v>
-      </c>
-      <c r="F257">
-        <v>57</v>
-      </c>
-      <c r="G257">
-        <v>73.68000000000001</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E258">
-        <v>10</v>
-      </c>
-      <c r="F258">
-        <v>57</v>
-      </c>
-      <c r="G258">
-        <v>17.54</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E259">
-        <v>5</v>
-      </c>
-      <c r="F259">
-        <v>57</v>
-      </c>
-      <c r="G259">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E260">
-        <v>49</v>
-      </c>
-      <c r="F260">
-        <v>55</v>
-      </c>
-      <c r="G260">
-        <v>89.09</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E261">
-        <v>6</v>
-      </c>
-      <c r="F261">
-        <v>55</v>
-      </c>
-      <c r="G261">
-        <v>10.91</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E262">
-        <v>8</v>
-      </c>
-      <c r="F262">
-        <v>9</v>
-      </c>
-      <c r="G262">
-        <v>88.89</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>9</v>
-      </c>
-      <c r="G263">
-        <v>11.11</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E264">
-        <v>6</v>
-      </c>
-      <c r="F264">
-        <v>12</v>
-      </c>
-      <c r="G264">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E265">
-        <v>6</v>
-      </c>
-      <c r="F265">
-        <v>12</v>
-      </c>
-      <c r="G265">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E266">
-        <v>23</v>
-      </c>
-      <c r="F266">
-        <v>25</v>
-      </c>
-      <c r="G266">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E267">
-        <v>2</v>
-      </c>
-      <c r="F267">
-        <v>25</v>
-      </c>
-      <c r="G267">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E268">
-        <v>88</v>
-      </c>
-      <c r="F268">
-        <v>94</v>
-      </c>
-      <c r="G268">
-        <v>93.62</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E269">
-        <v>5</v>
-      </c>
-      <c r="F269">
-        <v>94</v>
-      </c>
-      <c r="G269">
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E270">
-        <v>1</v>
-      </c>
-      <c r="F270">
-        <v>94</v>
-      </c>
-      <c r="G270">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E271">
-        <v>31</v>
-      </c>
-      <c r="F271">
-        <v>48</v>
-      </c>
-      <c r="G271">
-        <v>64.58</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E272">
-        <v>12</v>
-      </c>
-      <c r="F272">
-        <v>48</v>
-      </c>
-      <c r="G272">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E273">
-        <v>5</v>
-      </c>
-      <c r="F273">
-        <v>48</v>
-      </c>
-      <c r="G273">
-        <v>10.42</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E274">
-        <v>56</v>
-      </c>
-      <c r="F274">
-        <v>75</v>
-      </c>
-      <c r="G274">
-        <v>74.67</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E275">
-        <v>16</v>
-      </c>
-      <c r="F275">
-        <v>75</v>
-      </c>
-      <c r="G275">
-        <v>21.33</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E276">
-        <v>3</v>
-      </c>
-      <c r="F276">
-        <v>75</v>
-      </c>
-      <c r="G276">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E277">
-        <v>40</v>
-      </c>
-      <c r="F277">
-        <v>55</v>
-      </c>
-      <c r="G277">
-        <v>72.73</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E278">
-        <v>10</v>
-      </c>
-      <c r="F278">
-        <v>55</v>
-      </c>
-      <c r="G278">
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E279">
-        <v>5</v>
-      </c>
-      <c r="F279">
-        <v>55</v>
-      </c>
-      <c r="G279">
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E280">
-        <v>43</v>
-      </c>
-      <c r="F280">
-        <v>55</v>
-      </c>
-      <c r="G280">
-        <v>78.18000000000001</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E281">
-        <v>10</v>
-      </c>
-      <c r="F281">
-        <v>55</v>
-      </c>
-      <c r="G281">
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E282">
-        <v>2</v>
-      </c>
-      <c r="F282">
-        <v>55</v>
-      </c>
-      <c r="G282">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E283">
-        <v>1</v>
-      </c>
-      <c r="F283">
-        <v>5</v>
-      </c>
-      <c r="G283">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>100 Australian species</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E284">
-        <v>4</v>
-      </c>
-      <c r="F284">
-        <v>5</v>
-      </c>
-      <c r="G284">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E285">
-        <v>8</v>
-      </c>
-      <c r="F285">
-        <v>12</v>
-      </c>
-      <c r="G285">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E286">
-        <v>4</v>
-      </c>
-      <c r="F286">
-        <v>12</v>
-      </c>
-      <c r="G286">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E287">
-        <v>6</v>
-      </c>
-      <c r="F287">
-        <v>13</v>
-      </c>
-      <c r="G287">
-        <v>46.15</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E288">
-        <v>6</v>
-      </c>
-      <c r="F288">
-        <v>13</v>
-      </c>
-      <c r="G288">
-        <v>46.15</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E289">
-        <v>1</v>
-      </c>
-      <c r="F289">
-        <v>13</v>
-      </c>
-      <c r="G289">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Lutjanidae</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E290">
-        <v>5</v>
-      </c>
-      <c r="F290">
-        <v>5</v>
-      </c>
-      <c r="G290">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E291">
-        <v>25</v>
-      </c>
-      <c r="F291">
-        <v>34</v>
-      </c>
-      <c r="G291">
-        <v>73.53</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>COI</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E292">
-        <v>9</v>
-      </c>
-      <c r="F292">
-        <v>34</v>
-      </c>
-      <c r="G292">
-        <v>26.47</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E293">
-        <v>52</v>
-      </c>
-      <c r="F293">
-        <v>68</v>
-      </c>
-      <c r="G293">
-        <v>76.47</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E294">
-        <v>12</v>
-      </c>
-      <c r="F294">
-        <v>68</v>
-      </c>
-      <c r="G294">
-        <v>17.65</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>12S</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E295">
-        <v>4</v>
-      </c>
-      <c r="F295">
-        <v>68</v>
-      </c>
-      <c r="G295">
-        <v>5.88</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Genus and species correct</t>
-        </is>
-      </c>
-      <c r="E296">
-        <v>68</v>
-      </c>
-      <c r="F296">
-        <v>78</v>
-      </c>
-      <c r="G296">
-        <v>87.18000000000001</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Genus correct, species wrong</t>
-        </is>
-      </c>
-      <c r="E297">
-        <v>7</v>
-      </c>
-      <c r="F297">
-        <v>78</v>
-      </c>
-      <c r="G297">
-        <v>8.970000000000001</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>Genus and species wrong</t>
-        </is>
-      </c>
-      <c r="E298">
-        <v>3</v>
-      </c>
-      <c r="F298">
-        <v>78</v>
-      </c>
-      <c r="G298">
         <v>3.85</v>
       </c>
     </row>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2572,12 +2572,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2586,13 +2586,13 @@
         </is>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G72">
-        <v>11.11</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="73">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2617,13 +2617,13 @@
         </is>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G73">
-        <v>66.67</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="74">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2648,13 +2648,13 @@
         </is>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F74">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G74">
-        <v>22.22</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="75">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2679,13 +2679,13 @@
         </is>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G75">
-        <v>85.70999999999999</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="76">
@@ -2701,22 +2701,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F76">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G76">
-        <v>14.29</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="77">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2737,17 +2737,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G77">
-        <v>21.88</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="78">
@@ -2758,27 +2758,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F78">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G78">
-        <v>15.62</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -2789,12 +2789,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G79">
-        <v>62.5</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="80">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="E80">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G80">
-        <v>16.67</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="81">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2865,13 +2865,13 @@
         </is>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G81">
-        <v>12.5</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="82">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2896,29 +2896,29 @@
         </is>
       </c>
       <c r="E82">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F82">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G82">
-        <v>70.83</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2927,29 +2927,29 @@
         </is>
       </c>
       <c r="E83">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F83">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G83">
-        <v>79.41</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2958,29 +2958,29 @@
         </is>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F84">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G84">
-        <v>11.76</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2989,13 +2989,13 @@
         </is>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F85">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G85">
-        <v>8.82</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="86">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="E86">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F86">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G86">
-        <v>77.61</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="87">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="E87">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F87">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G87">
-        <v>17.91</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="88">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3082,13 +3082,13 @@
         </is>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F88">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G88">
-        <v>4.48</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="89">
@@ -3099,12 +3099,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="E89">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F89">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G89">
-        <v>88.89</v>
+        <v>77.61</v>
       </c>
     </row>
     <row r="90">
@@ -3130,12 +3130,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3144,13 +3144,13 @@
         </is>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G90">
-        <v>11.11</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="91">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3171,17 +3171,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F91">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G91">
-        <v>45.45</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="92">
@@ -3197,22 +3197,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E92">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F92">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G92">
-        <v>36.36</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="93">
@@ -3228,22 +3228,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G93">
-        <v>18.18</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="94">
@@ -3254,12 +3254,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3268,13 +3268,13 @@
         </is>
       </c>
       <c r="E94">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F94">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G94">
-        <v>83.33</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="95">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3299,13 +3299,13 @@
         </is>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F95">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G95">
-        <v>8.33</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="96">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3330,13 +3330,13 @@
         </is>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F96">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G96">
-        <v>8.33</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="97">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3361,13 +3361,13 @@
         </is>
       </c>
       <c r="E97">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F97">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G97">
-        <v>81.40000000000001</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="98">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3392,13 +3392,13 @@
         </is>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F98">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G98">
-        <v>12.79</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="99">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3423,29 +3423,29 @@
         </is>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F99">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G99">
-        <v>5.81</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3454,29 +3454,29 @@
         </is>
       </c>
       <c r="E100">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F100">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G100">
-        <v>87.93000000000001</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3485,29 +3485,29 @@
         </is>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F101">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G101">
-        <v>8.619999999999999</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3516,13 +3516,13 @@
         </is>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F102">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G102">
-        <v>3.45</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="103">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3547,13 +3547,13 @@
         </is>
       </c>
       <c r="E103">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F103">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G103">
-        <v>78.69</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3578,13 +3578,13 @@
         </is>
       </c>
       <c r="E104">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F104">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G104">
-        <v>19.67</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3609,13 +3609,13 @@
         </is>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G105">
-        <v>1.64</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="106">
@@ -3626,12 +3626,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3640,13 +3640,13 @@
         </is>
       </c>
       <c r="E106">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F106">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G106">
-        <v>92.86</v>
+        <v>78.69</v>
       </c>
     </row>
     <row r="107">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3671,13 +3671,13 @@
         </is>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F107">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G107">
-        <v>7.14</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="108">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3698,17 +3698,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E108">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G108">
-        <v>56.25</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="109">
@@ -3724,22 +3724,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F109">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G109">
-        <v>25</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="110">
@@ -3755,22 +3755,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G110">
-        <v>18.75</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="111">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3795,13 +3795,13 @@
         </is>
       </c>
       <c r="E111">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F111">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G111">
-        <v>86.36</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="112">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3826,13 +3826,13 @@
         </is>
       </c>
       <c r="E112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F112">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G112">
-        <v>7.58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3857,13 +3857,13 @@
         </is>
       </c>
       <c r="E113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F113">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G113">
-        <v>6.06</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="114">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3888,13 +3888,13 @@
         </is>
       </c>
       <c r="E114">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F114">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G114">
-        <v>86.25</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="115">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="E115">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F115">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G115">
-        <v>10</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="116">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3950,29 +3950,29 @@
         </is>
       </c>
       <c r="E116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F116">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G116">
-        <v>3.75</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3981,29 +3981,29 @@
         </is>
       </c>
       <c r="E117">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F117">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G117">
-        <v>90.38</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4012,29 +4012,29 @@
         </is>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F118">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G118">
-        <v>7.69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4043,13 +4043,13 @@
         </is>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F119">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G119">
-        <v>1.92</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="120">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="E120">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F120">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G120">
-        <v>81.81999999999999</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="121">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F121">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G121">
-        <v>18.18</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="122">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4132,17 +4132,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E122">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="G122">
-        <v>100</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="123">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="E123">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F123">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G123">
-        <v>66.67</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4198,13 +4198,13 @@
         </is>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F124">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G124">
-        <v>25</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="125">
@@ -4220,22 +4220,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F125">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G125">
-        <v>8.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
@@ -4246,12 +4246,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4260,13 +4260,13 @@
         </is>
       </c>
       <c r="E126">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F126">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G126">
-        <v>91.38</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="127">
@@ -4277,12 +4277,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4291,13 +4291,13 @@
         </is>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F127">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G127">
-        <v>3.45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128">
@@ -4308,12 +4308,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4322,13 +4322,13 @@
         </is>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G128">
-        <v>5.17</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="129">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="E129">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F129">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G129">
-        <v>89.19</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="130">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4384,13 +4384,13 @@
         </is>
       </c>
       <c r="E130">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F130">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G130">
-        <v>8.109999999999999</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="131">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4415,29 +4415,29 @@
         </is>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F131">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G131">
-        <v>2.7</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4446,29 +4446,29 @@
         </is>
       </c>
       <c r="E132">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F132">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G132">
-        <v>90.77</v>
+        <v>89.19</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4480,21 +4480,21 @@
         <v>6</v>
       </c>
       <c r="F133">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G133">
-        <v>9.23</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4504,17 +4504,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E134">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F134">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G134">
-        <v>100</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="135">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4539,13 +4539,13 @@
         </is>
       </c>
       <c r="E135">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F135">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G135">
-        <v>100</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="136">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4566,17 +4566,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E136">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F136">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G136">
-        <v>93.33</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="137">
@@ -4587,27 +4587,27 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F137">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G137">
-        <v>6.67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138">
@@ -4618,12 +4618,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="E138">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F138">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="G138">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139">
@@ -4654,22 +4654,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F139">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G139">
-        <v>10</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="140">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4690,17 +4690,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E140">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G140">
-        <v>96.67</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="141">
@@ -4711,27 +4711,27 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F141">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G141">
-        <v>3.33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4752,17 +4752,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E142">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="G142">
-        <v>94.73999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
@@ -4778,22 +4778,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E143">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F143">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G143">
-        <v>3.51</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="144">
@@ -4809,38 +4809,38 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F144">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G144">
-        <v>1.75</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4849,29 +4849,29 @@
         </is>
       </c>
       <c r="E145">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F145">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G145">
-        <v>81.94</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4880,29 +4880,29 @@
         </is>
       </c>
       <c r="E146">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F146">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G146">
-        <v>13.89</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4911,13 +4911,13 @@
         </is>
       </c>
       <c r="E147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G147">
-        <v>4.17</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="148">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4942,13 +4942,13 @@
         </is>
       </c>
       <c r="E148">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F148">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G148">
-        <v>92.31</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="149">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4973,13 +4973,13 @@
         </is>
       </c>
       <c r="E149">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F149">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G149">
-        <v>7.69</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="150">
@@ -4995,22 +4995,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E150">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="F150">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G150">
-        <v>96.83</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="151">
@@ -5026,22 +5026,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F151">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G151">
-        <v>1.59</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="152">
@@ -5057,22 +5057,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F152">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G152">
-        <v>1.59</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="153">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5097,13 +5097,13 @@
         </is>
       </c>
       <c r="E153">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F153">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G153">
-        <v>94.12</v>
+        <v>96.83</v>
       </c>
     </row>
     <row r="154">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5131,10 +5131,10 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G154">
-        <v>5.88</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="155">
@@ -5145,27 +5145,27 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E155">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="G155">
-        <v>71.43000000000001</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="156">
@@ -5181,22 +5181,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F156">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G156">
-        <v>21.43</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="157">
@@ -5212,22 +5212,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G157">
-        <v>7.14</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="158">
@@ -5238,12 +5238,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="E158">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F158">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G158">
-        <v>90.14</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="159">
@@ -5269,12 +5269,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5286,10 +5286,10 @@
         <v>3</v>
       </c>
       <c r="F159">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G159">
-        <v>4.23</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="160">
@@ -5300,12 +5300,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5314,13 +5314,13 @@
         </is>
       </c>
       <c r="E160">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G160">
-        <v>5.63</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="161">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="E161">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F161">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G161">
-        <v>89.61</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="162">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5376,13 +5376,13 @@
         </is>
       </c>
       <c r="E162">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F162">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G162">
-        <v>6.49</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="163">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5407,29 +5407,29 @@
         </is>
       </c>
       <c r="E163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F163">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G163">
-        <v>3.9</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5438,29 +5438,29 @@
         </is>
       </c>
       <c r="E164">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F164">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G164">
-        <v>81.16</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5469,29 +5469,29 @@
         </is>
       </c>
       <c r="E165">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F165">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G165">
-        <v>11.59</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="E166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F166">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G166">
-        <v>7.25</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="167">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E167">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F167">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G167">
-        <v>74.65000000000001</v>
+        <v>81.16</v>
       </c>
     </row>
     <row r="168">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="E168">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F168">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G168">
-        <v>19.72</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="169">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5593,13 +5593,13 @@
         </is>
       </c>
       <c r="E169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F169">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G169">
-        <v>5.63</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="170">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E170">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="F170">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G170">
-        <v>92.31</v>
+        <v>74.65000000000001</v>
       </c>
     </row>
     <row r="171">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5655,13 +5655,13 @@
         </is>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F171">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G171">
-        <v>7.69</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="172">
@@ -5672,27 +5672,27 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E172">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F172">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="G172">
-        <v>94.12</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="173">
@@ -5703,27 +5703,27 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F173">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G173">
-        <v>5.88</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="174">
@@ -5734,27 +5734,27 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E174">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F174">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G174">
-        <v>45.83</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="175">
@@ -5770,22 +5770,22 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E175">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F175">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G175">
-        <v>41.67</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="176">
@@ -5801,22 +5801,22 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G176">
-        <v>12.5</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="177">
@@ -5827,12 +5827,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5841,13 +5841,13 @@
         </is>
       </c>
       <c r="E177">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F177">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="G177">
-        <v>85.53</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="178">
@@ -5858,12 +5858,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5872,13 +5872,13 @@
         </is>
       </c>
       <c r="E178">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F178">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="G178">
-        <v>7.89</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="179">
@@ -5889,12 +5889,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5903,13 +5903,13 @@
         </is>
       </c>
       <c r="E179">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F179">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="G179">
-        <v>6.58</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="180">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5934,13 +5934,13 @@
         </is>
       </c>
       <c r="E180">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F180">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G180">
-        <v>79.31</v>
+        <v>85.53</v>
       </c>
     </row>
     <row r="181">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="E181">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F181">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G181">
-        <v>11.49</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="182">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5996,29 +5996,29 @@
         </is>
       </c>
       <c r="E182">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F182">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G182">
-        <v>9.199999999999999</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6027,29 +6027,29 @@
         </is>
       </c>
       <c r="E183">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F183">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G183">
-        <v>67.20999999999999</v>
+        <v>79.31</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6058,29 +6058,29 @@
         </is>
       </c>
       <c r="E184">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F184">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G184">
-        <v>24.59</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6089,13 +6089,13 @@
         </is>
       </c>
       <c r="E185">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F185">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G185">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="186">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6120,13 +6120,13 @@
         </is>
       </c>
       <c r="E186">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F186">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G186">
-        <v>78.12</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="187">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6151,13 +6151,13 @@
         </is>
       </c>
       <c r="E187">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F187">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G187">
-        <v>15.62</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="188">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6182,13 +6182,13 @@
         </is>
       </c>
       <c r="E188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F188">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G188">
-        <v>6.25</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="189">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6213,13 +6213,13 @@
         </is>
       </c>
       <c r="E189">
+        <v>50</v>
+      </c>
+      <c r="F189">
         <v>64</v>
       </c>
-      <c r="F189">
-        <v>74</v>
-      </c>
       <c r="G189">
-        <v>86.48999999999999</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="190">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6247,10 +6247,10 @@
         <v>10</v>
       </c>
       <c r="F190">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G190">
-        <v>13.51</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="191">
@@ -6261,27 +6261,27 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E191">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F191">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G191">
-        <v>69.23</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="192">
@@ -6292,27 +6292,27 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E192">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F192">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="G192">
-        <v>30.77</v>
+        <v>86.48999999999999</v>
       </c>
     </row>
     <row r="193">
@@ -6323,27 +6323,27 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E193">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F193">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G193">
-        <v>50</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="194">
@@ -6359,22 +6359,22 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E194">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F194">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G194">
-        <v>35.71</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="195">
@@ -6390,22 +6390,22 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F195">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G195">
-        <v>14.29</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="196">
@@ -6416,12 +6416,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E196">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="F196">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G196">
-        <v>66.67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="197">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6461,13 +6461,13 @@
         </is>
       </c>
       <c r="E197">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F197">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G197">
-        <v>28.57</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="198">
@@ -6478,12 +6478,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="E198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F198">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G198">
-        <v>4.76</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="199">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E199">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F199">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G199">
-        <v>70.93000000000001</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="200">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6554,13 +6554,13 @@
         </is>
       </c>
       <c r="E200">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F200">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G200">
-        <v>22.09</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="201">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6585,29 +6585,29 @@
         </is>
       </c>
       <c r="E201">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F201">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G201">
-        <v>6.98</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6616,29 +6616,29 @@
         </is>
       </c>
       <c r="E202">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F202">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="G202">
-        <v>56.86</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6647,29 +6647,29 @@
         </is>
       </c>
       <c r="E203">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F203">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="G203">
-        <v>31.37</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6681,10 +6681,10 @@
         <v>6</v>
       </c>
       <c r="F204">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="G204">
-        <v>11.76</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="205">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6709,13 +6709,13 @@
         </is>
       </c>
       <c r="E205">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F205">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G205">
-        <v>73.68000000000001</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="206">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6740,13 +6740,13 @@
         </is>
       </c>
       <c r="E206">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F206">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G206">
-        <v>17.54</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="207">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6771,13 +6771,13 @@
         </is>
       </c>
       <c r="E207">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F207">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G207">
-        <v>8.77</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="208">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6802,13 +6802,13 @@
         </is>
       </c>
       <c r="E208">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F208">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G208">
-        <v>86.44</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="209">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6833,13 +6833,13 @@
         </is>
       </c>
       <c r="E209">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F209">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G209">
-        <v>11.86</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="210">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6864,13 +6864,13 @@
         </is>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F210">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G210">
-        <v>1.69</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="211">
@@ -6881,12 +6881,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6895,13 +6895,13 @@
         </is>
       </c>
       <c r="E211">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F211">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="G211">
-        <v>88.89</v>
+        <v>86.44</v>
       </c>
     </row>
     <row r="212">
@@ -6912,12 +6912,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6926,13 +6926,13 @@
         </is>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F212">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="G212">
-        <v>11.11</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="213">
@@ -6943,27 +6943,27 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E213">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G213">
-        <v>50</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="214">
@@ -6979,22 +6979,22 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E214">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F214">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G214">
-        <v>50</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="215">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7015,17 +7015,17 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E215">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G215">
-        <v>64.58</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="216">
@@ -7036,27 +7036,27 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E216">
+        <v>6</v>
+      </c>
+      <c r="F216">
         <v>12</v>
       </c>
-      <c r="F216">
-        <v>48</v>
-      </c>
       <c r="G216">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217">
@@ -7067,27 +7067,27 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E217">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F217">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G217">
-        <v>10.42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="218">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7112,13 +7112,13 @@
         </is>
       </c>
       <c r="E218">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F218">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G218">
-        <v>74.67</v>
+        <v>64.58</v>
       </c>
     </row>
     <row r="219">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="E219">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F219">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G219">
-        <v>21.33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7174,29 +7174,29 @@
         </is>
       </c>
       <c r="E220">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F220">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G220">
-        <v>4</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7205,29 +7205,29 @@
         </is>
       </c>
       <c r="E221">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F221">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G221">
-        <v>72.73</v>
+        <v>74.67</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7236,29 +7236,29 @@
         </is>
       </c>
       <c r="E222">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F222">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G222">
-        <v>18.18</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7267,13 +7267,13 @@
         </is>
       </c>
       <c r="E223">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F223">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G223">
-        <v>9.09</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="E224">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F224">
         <v>55</v>
       </c>
       <c r="G224">
-        <v>78.18000000000001</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="225">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7360,13 +7360,13 @@
         </is>
       </c>
       <c r="E226">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F226">
         <v>55</v>
       </c>
       <c r="G226">
-        <v>3.64</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="227">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7391,13 +7391,13 @@
         </is>
       </c>
       <c r="E227">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F227">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G227">
-        <v>86.95999999999999</v>
+        <v>78.18000000000001</v>
       </c>
     </row>
     <row r="228">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E228">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F228">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G228">
-        <v>11.59</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="229">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7453,13 +7453,13 @@
         </is>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F229">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G229">
-        <v>1.45</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="230">
@@ -7470,12 +7470,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7484,13 +7484,13 @@
         </is>
       </c>
       <c r="E230">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F230">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G230">
-        <v>66.67</v>
+        <v>86.95999999999999</v>
       </c>
     </row>
     <row r="231">
@@ -7501,12 +7501,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7515,13 +7515,13 @@
         </is>
       </c>
       <c r="E231">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F231">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G231">
-        <v>33.33</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="232">
@@ -7532,27 +7532,27 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E232">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G232">
-        <v>46.15</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="233">
@@ -7568,22 +7568,22 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E233">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F233">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G233">
-        <v>46.15</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="234">
@@ -7599,22 +7599,22 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F234">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G234">
-        <v>7.69</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="235">
@@ -7625,12 +7625,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7639,13 +7639,13 @@
         </is>
       </c>
       <c r="E235">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F235">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="G235">
-        <v>76.47</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="236">
@@ -7656,12 +7656,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7670,13 +7670,13 @@
         </is>
       </c>
       <c r="E236">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F236">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="G236">
-        <v>17.65</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="237">
@@ -7687,12 +7687,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="E237">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="G237">
-        <v>5.88</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="238">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7732,13 +7732,13 @@
         </is>
       </c>
       <c r="E238">
+        <v>52</v>
+      </c>
+      <c r="F238">
         <v>68</v>
       </c>
-      <c r="F238">
-        <v>78</v>
-      </c>
       <c r="G238">
-        <v>87.18000000000001</v>
+        <v>76.47</v>
       </c>
     </row>
     <row r="239">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7763,13 +7763,13 @@
         </is>
       </c>
       <c r="E239">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F239">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G239">
-        <v>8.970000000000001</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="240">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7794,12 +7794,105 @@
         </is>
       </c>
       <c r="E240">
+        <v>4</v>
+      </c>
+      <c r="F240">
+        <v>68</v>
+      </c>
+      <c r="G240">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E241">
+        <v>68</v>
+      </c>
+      <c r="F241">
+        <v>78</v>
+      </c>
+      <c r="G241">
+        <v>87.18000000000001</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E242">
+        <v>7</v>
+      </c>
+      <c r="F242">
+        <v>78</v>
+      </c>
+      <c r="G242">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E243">
         <v>3</v>
       </c>
-      <c r="F240">
+      <c r="F243">
         <v>78</v>
       </c>
-      <c r="G240">
+      <c r="G243">
         <v>3.85</v>
       </c>
     </row>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3206,13 +3206,13 @@
         </is>
       </c>
       <c r="E92">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F92">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G92">
-        <v>88.89</v>
+        <v>94.55</v>
       </c>
     </row>
     <row r="93">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3237,13 +3237,13 @@
         </is>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G93">
-        <v>11.11</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="94">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3268,13 +3268,13 @@
         </is>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F94">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G94">
-        <v>45.45</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="95">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3299,13 +3299,13 @@
         </is>
       </c>
       <c r="E95">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G95">
-        <v>36.36</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="96">
@@ -3326,17 +3326,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E96">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F96">
         <v>22</v>
       </c>
       <c r="G96">
-        <v>18.18</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="97">
@@ -3347,27 +3347,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E97">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F97">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G97">
-        <v>83.33</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="98">
@@ -3378,27 +3378,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F98">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G98">
-        <v>8.33</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="99">
@@ -3419,17 +3419,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F99">
         <v>72</v>
       </c>
       <c r="G99">
-        <v>8.33</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="100">
@@ -3445,22 +3445,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E100">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="F100">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G100">
-        <v>81.40000000000001</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="101">
@@ -3476,22 +3476,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E101">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F101">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G101">
-        <v>12.79</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="102">
@@ -3512,79 +3512,79 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E102">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F102">
         <v>86</v>
       </c>
       <c r="G102">
-        <v>5.81</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E103">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F103">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G103">
-        <v>87.93000000000001</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E104">
         <v>5</v>
       </c>
       <c r="F104">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G104">
-        <v>8.619999999999999</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="105">
@@ -3605,17 +3605,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F105">
         <v>58</v>
       </c>
       <c r="G105">
-        <v>3.45</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="106">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E106">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F106">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G106">
-        <v>78.69</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -3662,22 +3662,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E107">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F107">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G107">
-        <v>19.67</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="108">
@@ -3698,17 +3698,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F108">
         <v>61</v>
       </c>
       <c r="G108">
-        <v>1.64</v>
+        <v>78.69</v>
       </c>
     </row>
     <row r="109">
@@ -3719,27 +3719,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E109">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F109">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G109">
-        <v>92.86</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="110">
@@ -3750,27 +3750,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G110">
-        <v>7.14</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="111">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3795,13 +3795,13 @@
         </is>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F111">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G111">
-        <v>56.25</v>
+        <v>97.78</v>
       </c>
     </row>
     <row r="112">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3826,13 +3826,13 @@
         </is>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G112">
-        <v>25</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="113">
@@ -3848,22 +3848,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F113">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G113">
-        <v>18.75</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="114">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3884,17 +3884,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E114">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="G114">
-        <v>86.36</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="115">
@@ -3905,27 +3905,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F115">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G115">
-        <v>7.58</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="116">
@@ -3936,27 +3936,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E116">
         <v>4</v>
       </c>
       <c r="F116">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G116">
-        <v>6.06</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3977,17 +3977,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E117">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="F117">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="G117">
-        <v>86.25</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="118">
@@ -4003,22 +4003,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E118">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F118">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G118">
-        <v>10</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="119">
@@ -4034,33 +4034,33 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F119">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G119">
-        <v>3.75</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4070,90 +4070,90 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E120">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F120">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G120">
-        <v>90.38</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E121">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F121">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G121">
-        <v>7.69</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F122">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G122">
-        <v>1.92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4163,17 +4163,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E123">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F123">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G123">
-        <v>81.81999999999999</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="124">
@@ -4189,22 +4189,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E124">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F124">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G124">
-        <v>18.18</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="125">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4225,17 +4225,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E125">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F125">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="G125">
-        <v>100</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="126">
@@ -4246,27 +4246,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E126">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G126">
-        <v>66.67</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="127">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F127">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G127">
-        <v>25</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="128">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4318,17 +4318,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F128">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G128">
-        <v>8.33</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="129">
@@ -4339,12 +4339,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="E129">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F129">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G129">
-        <v>91.38</v>
+        <v>97.06</v>
       </c>
     </row>
     <row r="130">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4384,13 +4384,13 @@
         </is>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G130">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="131">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4411,17 +4411,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F131">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G131">
-        <v>5.17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4446,13 +4446,13 @@
         </is>
       </c>
       <c r="E132">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="F132">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G132">
-        <v>89.19</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="133">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4477,13 +4477,13 @@
         </is>
       </c>
       <c r="E133">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F133">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G133">
-        <v>8.109999999999999</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4508,24 +4508,24 @@
         </is>
       </c>
       <c r="E134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G134">
-        <v>2.7</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4539,24 +4539,24 @@
         </is>
       </c>
       <c r="E135">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F135">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G135">
-        <v>90.77</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4570,60 +4570,60 @@
         </is>
       </c>
       <c r="E136">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F136">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G136">
-        <v>9.23</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E137">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F137">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G137">
-        <v>100</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4632,75 +4632,75 @@
         </is>
       </c>
       <c r="E138">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F138">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G138">
-        <v>100</v>
+        <v>89.19</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E139">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F139">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="G139">
-        <v>93.33</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F140">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="G140">
-        <v>6.67</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="141">
@@ -4711,12 +4711,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4725,13 +4725,13 @@
         </is>
       </c>
       <c r="E141">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F141">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G141">
-        <v>90</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="142">
@@ -4742,12 +4742,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G142">
-        <v>10</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="143">
@@ -4773,12 +4773,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4787,13 +4787,13 @@
         </is>
       </c>
       <c r="E143">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F143">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G143">
-        <v>96.67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144">
@@ -4804,27 +4804,27 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E144">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F144">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G144">
-        <v>3.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4849,13 +4849,13 @@
         </is>
       </c>
       <c r="E145">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F145">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="G145">
-        <v>94.73999999999999</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="146">
@@ -4866,12 +4866,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4880,13 +4880,13 @@
         </is>
       </c>
       <c r="E146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="G146">
-        <v>3.51</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="147">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4907,59 +4907,59 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F147">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="G147">
-        <v>1.75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E148">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G148">
-        <v>81.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4969,28 +4969,28 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E149">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F149">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G149">
-        <v>13.89</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5000,28 +5000,28 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F150">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G150">
-        <v>4.17</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5035,24 +5035,24 @@
         </is>
       </c>
       <c r="E151">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F151">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G151">
-        <v>92.31</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5066,44 +5066,44 @@
         </is>
       </c>
       <c r="E152">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F152">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G152">
-        <v>7.69</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E153">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G153">
-        <v>96.83</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="154">
@@ -5119,22 +5119,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F154">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G154">
-        <v>1.59</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="155">
@@ -5150,22 +5150,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F155">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G155">
-        <v>1.59</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="156">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5186,17 +5186,17 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E156">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F156">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G156">
-        <v>94.12</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="157">
@@ -5207,27 +5207,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F157">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G157">
-        <v>5.88</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="158">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5248,17 +5248,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E158">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F158">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G158">
-        <v>71.43000000000001</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="159">
@@ -5269,27 +5269,27 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E159">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F159">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="G159">
-        <v>21.43</v>
+        <v>96.83</v>
       </c>
     </row>
     <row r="160">
@@ -5300,27 +5300,27 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="G160">
-        <v>7.14</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="161">
@@ -5331,27 +5331,27 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E161">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G161">
-        <v>90.14</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="162">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5372,17 +5372,17 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E162">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F162">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="G162">
-        <v>4.23</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="163">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5403,17 +5403,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="G163">
-        <v>5.63</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="164">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5438,13 +5438,13 @@
         </is>
       </c>
       <c r="E164">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="F164">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="G164">
-        <v>89.61</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="165">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5469,13 +5469,13 @@
         </is>
       </c>
       <c r="E165">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F165">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="G165">
-        <v>6.49</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="166">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5500,24 +5500,24 @@
         </is>
       </c>
       <c r="E166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="G166">
-        <v>3.9</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5531,24 +5531,24 @@
         </is>
       </c>
       <c r="E167">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F167">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G167">
-        <v>81.16</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5562,24 +5562,24 @@
         </is>
       </c>
       <c r="E168">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F168">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G168">
-        <v>11.59</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5593,24 +5593,24 @@
         </is>
       </c>
       <c r="E169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F169">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G169">
-        <v>7.25</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5624,24 +5624,24 @@
         </is>
       </c>
       <c r="E170">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F170">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G170">
-        <v>74.65000000000001</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5655,24 +5655,24 @@
         </is>
       </c>
       <c r="E171">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F171">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G171">
-        <v>19.72</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5686,13 +5686,13 @@
         </is>
       </c>
       <c r="E172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F172">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G172">
-        <v>5.63</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="173">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5717,13 +5717,13 @@
         </is>
       </c>
       <c r="E173">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F173">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="G173">
-        <v>92.31</v>
+        <v>81.16</v>
       </c>
     </row>
     <row r="174">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5748,13 +5748,13 @@
         </is>
       </c>
       <c r="E174">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F174">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="G174">
-        <v>7.69</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="175">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E175">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F175">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G175">
-        <v>94.12</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="176">
@@ -5796,27 +5796,27 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F176">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="G176">
-        <v>5.88</v>
+        <v>74.65000000000001</v>
       </c>
     </row>
     <row r="177">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5837,17 +5837,17 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E177">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F177">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G177">
-        <v>45.83</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="178">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5868,17 +5868,17 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E178">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F178">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G178">
-        <v>41.67</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="179">
@@ -5889,27 +5889,27 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E179">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F179">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G179">
-        <v>12.5</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="180">
@@ -5920,27 +5920,27 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E180">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="F180">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G180">
-        <v>85.53</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="181">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5961,17 +5961,17 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E181">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F181">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="G181">
-        <v>7.89</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="182">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5992,17 +5992,17 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E182">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="G182">
-        <v>6.58</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="183">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="E183">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F183">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="G183">
-        <v>79.31</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="184">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6061,10 +6061,10 @@
         <v>10</v>
       </c>
       <c r="F184">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="G184">
-        <v>11.49</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="185">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6089,24 +6089,24 @@
         </is>
       </c>
       <c r="E185">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F185">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="G185">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6120,24 +6120,24 @@
         </is>
       </c>
       <c r="E186">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F186">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G186">
-        <v>67.20999999999999</v>
+        <v>85.53</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6151,24 +6151,24 @@
         </is>
       </c>
       <c r="E187">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F187">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G187">
-        <v>24.59</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6185,21 +6185,21 @@
         <v>5</v>
       </c>
       <c r="F188">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G188">
-        <v>8.199999999999999</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6213,24 +6213,24 @@
         </is>
       </c>
       <c r="E189">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F189">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G189">
-        <v>78.12</v>
+        <v>79.31</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6247,21 +6247,21 @@
         <v>10</v>
       </c>
       <c r="F190">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G190">
-        <v>15.62</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6275,13 +6275,13 @@
         </is>
       </c>
       <c r="E191">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F191">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G191">
-        <v>6.25</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="192">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="E192">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F192">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G192">
-        <v>86.48999999999999</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="193">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="E193">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F193">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G193">
-        <v>13.51</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="194">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6364,17 +6364,17 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F194">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G194">
-        <v>69.23</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="195">
@@ -6385,27 +6385,27 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E195">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F195">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G195">
-        <v>30.77</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="196">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6426,17 +6426,17 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E196">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F196">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G196">
-        <v>50</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="197">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6457,17 +6457,17 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E197">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F197">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G197">
-        <v>35.71</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="198">
@@ -6478,27 +6478,27 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="F198">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G198">
-        <v>14.29</v>
+        <v>86.48999999999999</v>
       </c>
     </row>
     <row r="199">
@@ -6509,27 +6509,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E199">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F199">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G199">
-        <v>66.67</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="200">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6550,17 +6550,17 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E200">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F200">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="G200">
-        <v>28.57</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="201">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6581,17 +6581,17 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F201">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="G201">
-        <v>4.76</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="202">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="E202">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F202">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="G202">
-        <v>70.93000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6647,13 +6647,13 @@
         </is>
       </c>
       <c r="E203">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F203">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="G203">
-        <v>22.09</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="204">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6678,24 +6678,24 @@
         </is>
       </c>
       <c r="E204">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F204">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="G204">
-        <v>6.98</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6709,24 +6709,24 @@
         </is>
       </c>
       <c r="E205">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F205">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G205">
-        <v>56.86</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -6740,24 +6740,24 @@
         </is>
       </c>
       <c r="E206">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F206">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G206">
-        <v>31.37</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6771,24 +6771,24 @@
         </is>
       </c>
       <c r="E207">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F207">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G207">
-        <v>11.76</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6802,24 +6802,24 @@
         </is>
       </c>
       <c r="E208">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F208">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="G208">
-        <v>73.68000000000001</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6833,24 +6833,24 @@
         </is>
       </c>
       <c r="E209">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F209">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="G209">
-        <v>17.54</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6864,13 +6864,13 @@
         </is>
       </c>
       <c r="E210">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F210">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="G210">
-        <v>8.77</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="211">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6895,13 +6895,13 @@
         </is>
       </c>
       <c r="E211">
+        <v>29</v>
+      </c>
+      <c r="F211">
         <v>51</v>
       </c>
-      <c r="F211">
-        <v>59</v>
-      </c>
       <c r="G211">
-        <v>86.44</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="212">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6926,13 +6926,13 @@
         </is>
       </c>
       <c r="E212">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F212">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G212">
-        <v>11.86</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="213">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F213">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G213">
-        <v>1.69</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="214">
@@ -6974,12 +6974,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6988,13 +6988,13 @@
         </is>
       </c>
       <c r="E214">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F214">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G214">
-        <v>88.89</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="215">
@@ -7005,12 +7005,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7019,13 +7019,13 @@
         </is>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F215">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G215">
-        <v>11.11</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="216">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7046,17 +7046,17 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E216">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F216">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G216">
-        <v>50</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="217">
@@ -7067,27 +7067,27 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E217">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F217">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G217">
-        <v>50</v>
+        <v>86.44</v>
       </c>
     </row>
     <row r="218">
@@ -7098,27 +7098,27 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E218">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F218">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G218">
-        <v>64.58</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="219">
@@ -7129,27 +7129,27 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E219">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G219">
-        <v>25</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="220">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7170,17 +7170,17 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E220">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F220">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G220">
-        <v>10.42</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="221">
@@ -7191,27 +7191,27 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E221">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="G221">
-        <v>74.67</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="222">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7232,17 +7232,17 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E222">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F222">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G222">
-        <v>21.33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="223">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7263,28 +7263,28 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E223">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F223">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G223">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7298,24 +7298,24 @@
         </is>
       </c>
       <c r="E224">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F224">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G224">
-        <v>72.73</v>
+        <v>64.58</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7329,24 +7329,24 @@
         </is>
       </c>
       <c r="E225">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F225">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G225">
-        <v>18.18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7363,21 +7363,21 @@
         <v>5</v>
       </c>
       <c r="F226">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G226">
-        <v>9.09</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7391,24 +7391,24 @@
         </is>
       </c>
       <c r="E227">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F227">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G227">
-        <v>78.18000000000001</v>
+        <v>74.67</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -7422,24 +7422,24 @@
         </is>
       </c>
       <c r="E228">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F228">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G228">
-        <v>18.18</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7453,13 +7453,13 @@
         </is>
       </c>
       <c r="E229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F229">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G229">
-        <v>3.64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7484,13 +7484,13 @@
         </is>
       </c>
       <c r="E230">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F230">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G230">
-        <v>86.95999999999999</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="231">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7515,13 +7515,13 @@
         </is>
       </c>
       <c r="E231">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F231">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G231">
-        <v>11.59</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="232">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7546,13 +7546,13 @@
         </is>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F232">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G232">
-        <v>1.45</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="233">
@@ -7563,12 +7563,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7577,13 +7577,13 @@
         </is>
       </c>
       <c r="E233">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F233">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G233">
-        <v>66.67</v>
+        <v>78.18000000000001</v>
       </c>
     </row>
     <row r="234">
@@ -7594,12 +7594,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="E234">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F234">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G234">
-        <v>33.33</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="235">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7635,17 +7635,17 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E235">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F235">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G235">
-        <v>46.15</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="236">
@@ -7656,27 +7656,27 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E236">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F236">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G236">
-        <v>46.15</v>
+        <v>86.95999999999999</v>
       </c>
     </row>
     <row r="237">
@@ -7687,27 +7687,27 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F237">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G237">
-        <v>7.69</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="238">
@@ -7718,27 +7718,27 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E238">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G238">
-        <v>76.47</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="239">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -7759,17 +7759,17 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E239">
+        <v>8</v>
+      </c>
+      <c r="F239">
         <v>12</v>
       </c>
-      <c r="F239">
-        <v>68</v>
-      </c>
       <c r="G239">
-        <v>17.65</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="240">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -7790,17 +7790,17 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E240">
         <v>4</v>
       </c>
       <c r="F240">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G240">
-        <v>5.88</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="241">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -7825,13 +7825,13 @@
         </is>
       </c>
       <c r="E241">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="F241">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="G241">
-        <v>87.18000000000001</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="242">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -7856,13 +7856,13 @@
         </is>
       </c>
       <c r="E242">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F242">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="G242">
-        <v>8.970000000000001</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="243">
@@ -7873,26 +7873,212 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>13</v>
+      </c>
+      <c r="G243">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
           <t>Wadjemup</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E244">
+        <v>52</v>
+      </c>
+      <c r="F244">
+        <v>68</v>
+      </c>
+      <c r="G244">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E245">
+        <v>12</v>
+      </c>
+      <c r="F245">
+        <v>68</v>
+      </c>
+      <c r="G245">
+        <v>17.65</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
         <is>
           <t>Genus and species wrong</t>
         </is>
       </c>
-      <c r="E243">
+      <c r="E246">
+        <v>4</v>
+      </c>
+      <c r="F246">
+        <v>68</v>
+      </c>
+      <c r="G246">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E247">
+        <v>68</v>
+      </c>
+      <c r="F247">
+        <v>78</v>
+      </c>
+      <c r="G247">
+        <v>87.18000000000001</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E248">
+        <v>7</v>
+      </c>
+      <c r="F248">
+        <v>78</v>
+      </c>
+      <c r="G248">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E249">
         <v>3</v>
       </c>
-      <c r="F243">
+      <c r="F249">
         <v>78</v>
       </c>
-      <c r="G243">
+      <c r="G249">
         <v>3.85</v>
       </c>
     </row>

--- a/results/tables/Error_types_table.xlsx
+++ b/results/tables/Error_types_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>93.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -567,17 +567,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>15</v>
       </c>
       <c r="G7">
-        <v>6.67</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="8">
@@ -593,22 +593,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>90</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="9">
@@ -629,17 +629,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -650,27 +650,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E10">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>96.61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -691,17 +691,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <v>59</v>
       </c>
       <c r="G11">
-        <v>3.39</v>
+        <v>96.61</v>
       </c>
     </row>
     <row r="12">
@@ -717,22 +717,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E12">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G12">
-        <v>94.64</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="13">
@@ -753,17 +753,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>56</v>
       </c>
       <c r="G13">
-        <v>3.57</v>
+        <v>94.64</v>
       </c>
     </row>
     <row r="14">
@@ -784,141 +784,141 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>56</v>
       </c>
       <c r="G14">
-        <v>1.79</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E15">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>56</v>
       </c>
       <c r="G15">
-        <v>85.70999999999999</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="F16">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="G16">
-        <v>10.71</v>
+        <v>97.67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="G17">
-        <v>3.57</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E18">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G18">
-        <v>90.56999999999999</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="19">
@@ -934,22 +934,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F19">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G19">
-        <v>9.43</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -965,22 +965,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G20">
-        <v>98.04000000000001</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="21">
@@ -996,7 +996,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G21">
-        <v>1.96</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="22">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G22">
-        <v>88.23999999999999</v>
+        <v>90.56999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G23">
-        <v>11.76</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="24">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G24">
-        <v>75</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -1115,27 +1115,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G25">
-        <v>16.67</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="26">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G26">
-        <v>8.33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -1177,27 +1177,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E27">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="G27">
-        <v>88.06</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1218,17 +1218,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G28">
-        <v>5.97</v>
+        <v>88.23999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1249,17 +1249,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G29">
-        <v>5.97</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="30">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F30">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>91.18000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>5.88</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="32">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1346,24 +1346,24 @@
         </is>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>2.94</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1377,24 +1377,24 @@
         </is>
       </c>
       <c r="E33">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F33">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G33">
-        <v>68.84999999999999</v>
+        <v>88.06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1408,24 +1408,24 @@
         </is>
       </c>
       <c r="E34">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G34">
-        <v>29.51</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1439,24 +1439,24 @@
         </is>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G35">
-        <v>1.64</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1470,24 +1470,24 @@
         </is>
       </c>
       <c r="E36">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F36">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G36">
-        <v>83.87</v>
+        <v>91.18000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1501,24 +1501,24 @@
         </is>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G37">
-        <v>11.29</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1532,24 +1532,24 @@
         </is>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G38">
-        <v>4.84</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1563,24 +1563,24 @@
         </is>
       </c>
       <c r="E39">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F39">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G39">
-        <v>86.3</v>
+        <v>97.59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1594,24 +1594,24 @@
         </is>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G40">
-        <v>10.96</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G41">
-        <v>2.74</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="42">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1656,13 +1656,13 @@
         </is>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G42">
-        <v>80</v>
+        <v>68.84999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F43">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G43">
-        <v>20</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="44">
@@ -1704,27 +1704,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G44">
-        <v>90</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="45">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1745,17 +1745,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>83.87</v>
       </c>
     </row>
     <row r="46">
@@ -1766,27 +1766,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E46">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="F46">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G46">
-        <v>75.70999999999999</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="47">
@@ -1797,27 +1797,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G47">
-        <v>21.43</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="48">
@@ -1828,27 +1828,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="F48">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G48">
-        <v>2.86</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="49">
@@ -1859,27 +1859,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E49">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="F49">
         <v>73</v>
       </c>
       <c r="G49">
-        <v>76.70999999999999</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="50">
@@ -1890,27 +1890,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E50">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>73</v>
       </c>
       <c r="G50">
-        <v>16.44</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="51">
@@ -1921,69 +1921,69 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F51">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G51">
-        <v>6.85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E52">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G52">
-        <v>90.77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1993,59 +1993,59 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F53">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G53">
-        <v>9.23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G54">
-        <v>98.04000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2055,59 +2055,59 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F55">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>1.96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E56">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="G56">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2121,24 +2121,24 @@
         </is>
       </c>
       <c r="E57">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F57">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G57">
-        <v>93.33</v>
+        <v>75.70999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2152,55 +2152,55 @@
         </is>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F58">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G58">
-        <v>6.67</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E59">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G59">
-        <v>90</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2210,23 +2210,23 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>76.70999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2236,28 +2236,28 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E61">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F61">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G61">
-        <v>95</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2267,28 +2267,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2307,19 +2307,19 @@
         </is>
       </c>
       <c r="E63">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F63">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="G63">
-        <v>92.86</v>
+        <v>91.58</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2338,19 +2338,19 @@
         </is>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F64">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="G64">
-        <v>5.36</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DADA2Spec</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2369,19 +2369,19 @@
         </is>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="G65">
-        <v>1.79</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2400,19 +2400,19 @@
         </is>
       </c>
       <c r="E66">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F66">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G66">
-        <v>42.86</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2431,19 +2431,19 @@
         </is>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G67">
-        <v>17.86</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2453,28 +2453,28 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E68">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F68">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G68">
-        <v>39.29</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2489,23 +2489,23 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E69">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>51</v>
       </c>
       <c r="G69">
-        <v>41.18</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2515,69 +2515,69 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F70">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G70">
-        <v>9.800000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E71">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F71">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G71">
-        <v>49.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2586,29 +2586,29 @@
         </is>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F72">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G72">
-        <v>25.64</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2617,50 +2617,50 @@
         </is>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G73">
-        <v>5.13</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E74">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F74">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>69.23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2670,33 +2670,33 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G75">
-        <v>11.11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2706,28 +2706,28 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F76">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G76">
-        <v>66.67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2737,28 +2737,28 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G77">
-        <v>22.22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2772,24 +2772,24 @@
         </is>
       </c>
       <c r="E78">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="G78">
-        <v>85.70999999999999</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2799,23 +2799,23 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="G79">
-        <v>14.29</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2825,28 +2825,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E80">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G80">
-        <v>21.88</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2856,28 +2856,28 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="F81">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="G81">
-        <v>15.62</v>
+        <v>96.59</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2887,28 +2887,28 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F82">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="G82">
-        <v>62.5</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2918,22 +2918,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E83">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="G83">
-        <v>16.67</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="84">
@@ -2944,27 +2944,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F84">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G84">
-        <v>12.5</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="85">
@@ -2975,33 +2975,33 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E85">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F85">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G85">
-        <v>70.83</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3016,23 +3016,23 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E86">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F86">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G86">
-        <v>79.41</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3042,28 +3042,28 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E87">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F87">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G87">
-        <v>11.76</v>
+        <v>41.18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3073,28 +3073,28 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G88">
-        <v>8.82</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3109,23 +3109,23 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E89">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F89">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G89">
-        <v>77.61</v>
+        <v>49.02</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3135,28 +3135,28 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E90">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F90">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G90">
-        <v>17.91</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3166,28 +3166,28 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G91">
-        <v>4.48</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3202,28 +3202,28 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E92">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F92">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G92">
-        <v>94.55</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3233,23 +3233,23 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F93">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G93">
-        <v>5.45</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3259,28 +3259,28 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E94">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G94">
-        <v>88.89</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3290,28 +3290,28 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G95">
-        <v>11.11</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3330,19 +3330,19 @@
         </is>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G96">
-        <v>45.45</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3361,19 +3361,19 @@
         </is>
       </c>
       <c r="E97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F97">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G97">
-        <v>36.36</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3392,29 +3392,29 @@
         </is>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F98">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G98">
-        <v>18.18</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3423,50 +3423,50 @@
         </is>
       </c>
       <c r="E99">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F99">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G99">
-        <v>83.33</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>8.33</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3481,23 +3481,23 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F101">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G101">
-        <v>8.33</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3507,28 +3507,28 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E102">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F102">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G102">
-        <v>81.40000000000001</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3538,28 +3538,28 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E103">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F103">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G103">
-        <v>12.79</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kraken2_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3574,178 +3574,178 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F104">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="G104">
-        <v>5.81</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E105">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F105">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G105">
-        <v>87.93000000000001</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F106">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G106">
-        <v>8.619999999999999</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F107">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G107">
-        <v>3.45</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E108">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F108">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G108">
-        <v>78.69</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E109">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F109">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G109">
-        <v>19.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3755,28 +3755,28 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="F110">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G110">
-        <v>1.64</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3786,28 +3786,28 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E111">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F111">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G111">
-        <v>97.78</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3817,38 +3817,38 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F112">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G112">
-        <v>2.22</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3857,29 +3857,29 @@
         </is>
       </c>
       <c r="E113">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F113">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="G113">
-        <v>92.86</v>
+        <v>77.61</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3888,24 +3888,24 @@
         </is>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F114">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="G114">
-        <v>7.14</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3915,95 +3915,95 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E115">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F115">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G115">
-        <v>56.25</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F116">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G116">
-        <v>25</v>
+        <v>94.55</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E117">
         <v>3</v>
       </c>
       <c r="F117">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G117">
-        <v>18.75</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4012,29 +4012,29 @@
         </is>
       </c>
       <c r="E118">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F118">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="G118">
-        <v>86.36</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4043,24 +4043,24 @@
         </is>
       </c>
       <c r="E119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="G119">
-        <v>7.58</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4070,59 +4070,59 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E120">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F120">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="G120">
-        <v>6.06</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E121">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="F121">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G121">
-        <v>86.25</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4132,28 +4132,28 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E122">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F122">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G122">
-        <v>10</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Kraken2_0.05</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4163,59 +4163,59 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F123">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G123">
-        <v>3.75</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E124">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F124">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="G124">
-        <v>90.38</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4225,28 +4225,28 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E125">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F125">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G125">
-        <v>7.69</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4256,59 +4256,59 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F126">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G126">
-        <v>1.92</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E127">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="F127">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G127">
-        <v>81.81999999999999</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4318,95 +4318,95 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E128">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F128">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G128">
-        <v>18.18</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E129">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F129">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="G129">
-        <v>97.06</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F130">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="G130">
-        <v>2.94</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4415,117 +4415,117 @@
         </is>
       </c>
       <c r="E131">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F131">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="G131">
-        <v>100</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E132">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="G132">
-        <v>66.67</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="G133">
-        <v>25</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F134">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G134">
-        <v>8.33</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4535,28 +4535,28 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E135">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="F135">
         <v>58</v>
       </c>
       <c r="G135">
-        <v>91.38</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E136">
@@ -4582,43 +4582,43 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F137">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G137">
-        <v>5.17</v>
+        <v>78.69</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4628,28 +4628,28 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E138">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F138">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G138">
-        <v>89.19</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4659,54 +4659,54 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E139">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G139">
-        <v>8.109999999999999</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Kraken2_0.1</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F140">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G140">
-        <v>2.7</v>
+        <v>97.78</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4716,69 +4716,69 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E141">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G141">
-        <v>90.77</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E142">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F142">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G142">
-        <v>9.23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4787,50 +4787,50 @@
         </is>
       </c>
       <c r="E143">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F143">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G143">
-        <v>100</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E144">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G144">
-        <v>100</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4849,19 +4849,19 @@
         </is>
       </c>
       <c r="E145">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F145">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G145">
-        <v>93.33</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4880,19 +4880,19 @@
         </is>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F146">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G146">
-        <v>6.67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4907,54 +4907,54 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E147">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F147">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G147">
-        <v>90</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="G148">
-        <v>10</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4969,23 +4969,23 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E149">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="F149">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G149">
-        <v>96.67</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5000,23 +5000,23 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F150">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G150">
-        <v>3.33</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5035,19 +5035,19 @@
         </is>
       </c>
       <c r="E151">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F151">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="G151">
-        <v>94.73999999999999</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5066,19 +5066,19 @@
         </is>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F152">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="G152">
-        <v>3.51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5097,29 +5097,29 @@
         </is>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F153">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="G153">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.05</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5128,19 +5128,19 @@
         </is>
       </c>
       <c r="E154">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F154">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G154">
-        <v>81.94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5155,23 +5155,23 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E155">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F155">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G155">
-        <v>13.89</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F156">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G156">
-        <v>4.17</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5212,28 +5212,28 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E157">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G157">
-        <v>92.31</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5248,23 +5248,23 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E158">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F158">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G158">
-        <v>7.69</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5274,28 +5274,28 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E159">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F159">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G159">
-        <v>96.83</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5310,23 +5310,23 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F160">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="G160">
-        <v>1.59</v>
+        <v>97.06</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5341,23 +5341,23 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="G161">
-        <v>1.59</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5376,19 +5376,19 @@
         </is>
       </c>
       <c r="E162">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F162">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G162">
-        <v>94.12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5403,23 +5403,23 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F163">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G163">
-        <v>5.88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5438,19 +5438,19 @@
         </is>
       </c>
       <c r="E164">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F164">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G164">
-        <v>71.43000000000001</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5472,16 +5472,16 @@
         <v>3</v>
       </c>
       <c r="F165">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G165">
-        <v>21.43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5503,16 +5503,16 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G166">
-        <v>7.14</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5531,19 +5531,19 @@
         </is>
       </c>
       <c r="E167">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F167">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G167">
-        <v>90.14</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5562,19 +5562,19 @@
         </is>
       </c>
       <c r="E168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F168">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G168">
-        <v>4.23</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5593,19 +5593,19 @@
         </is>
       </c>
       <c r="E169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F169">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G169">
-        <v>5.63</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5624,19 +5624,19 @@
         </is>
       </c>
       <c r="E170">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F170">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G170">
-        <v>89.61</v>
+        <v>89.19</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5655,19 +5655,19 @@
         </is>
       </c>
       <c r="E171">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F171">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G171">
-        <v>6.49</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5686,29 +5686,29 @@
         </is>
       </c>
       <c r="E172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F172">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G172">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Kraken2_0.1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5717,19 +5717,19 @@
         </is>
       </c>
       <c r="E173">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F173">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G173">
-        <v>81.16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5744,23 +5744,23 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E174">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="F174">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G174">
-        <v>11.59</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5775,23 +5775,23 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E175">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F175">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G175">
-        <v>7.25</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5810,19 +5810,19 @@
         </is>
       </c>
       <c r="E176">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F176">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G176">
-        <v>74.65000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5832,69 +5832,69 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E177">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F177">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G177">
-        <v>19.72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E178">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F178">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G178">
-        <v>5.63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5903,29 +5903,29 @@
         </is>
       </c>
       <c r="E179">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F179">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G179">
-        <v>92.31</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5934,19 +5934,19 @@
         </is>
       </c>
       <c r="E180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G180">
-        <v>7.69</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="E181">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F181">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G181">
-        <v>94.12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5999,26 +5999,26 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G182">
-        <v>5.88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6027,29 +6027,29 @@
         </is>
       </c>
       <c r="E183">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F183">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G183">
-        <v>45.83</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6058,24 +6058,24 @@
         </is>
       </c>
       <c r="E184">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F184">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G184">
-        <v>41.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6085,23 +6085,23 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E185">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="F185">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="G185">
-        <v>12.5</v>
+        <v>94.73999999999999</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6111,28 +6111,28 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E186">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="F186">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G186">
-        <v>85.53</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6142,28 +6142,28 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E187">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G187">
-        <v>7.89</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6173,28 +6173,28 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E188">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="F188">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G188">
-        <v>6.58</v>
+        <v>97.73</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6204,28 +6204,28 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E189">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G189">
-        <v>79.31</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6235,59 +6235,59 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E190">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G190">
-        <v>11.49</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E191">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="F191">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G191">
-        <v>9.199999999999999</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6302,23 +6302,23 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E192">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F192">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G192">
-        <v>67.20999999999999</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6333,23 +6333,23 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E193">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F193">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G193">
-        <v>24.59</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6359,28 +6359,28 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E194">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F194">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G194">
-        <v>8.199999999999999</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6395,23 +6395,23 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E195">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F195">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G195">
-        <v>78.12</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6421,28 +6421,28 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E196">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F196">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G196">
-        <v>15.62</v>
+        <v>96.83</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6452,28 +6452,28 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G197">
-        <v>6.25</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6488,28 +6488,28 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E198">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G198">
-        <v>86.48999999999999</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6519,23 +6519,23 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E199">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F199">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="G199">
-        <v>13.51</v>
+        <v>95.23999999999999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6545,28 +6545,28 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E200">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G200">
-        <v>69.23</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6581,23 +6581,23 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E201">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F201">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G201">
-        <v>30.77</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -6607,28 +6607,28 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E202">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G202">
-        <v>50</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6643,23 +6643,23 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E203">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F203">
         <v>14</v>
       </c>
       <c r="G203">
-        <v>35.71</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6674,54 +6674,54 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F204">
         <v>14</v>
       </c>
       <c r="G204">
-        <v>14.29</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E205">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G205">
-        <v>66.67</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6736,23 +6736,23 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E206">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F206">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G206">
-        <v>28.57</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6767,23 +6767,23 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E207">
         <v>3</v>
       </c>
       <c r="F207">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G207">
-        <v>4.76</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6793,28 +6793,28 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E208">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F208">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G208">
-        <v>70.93000000000001</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6829,23 +6829,23 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E209">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F209">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G209">
-        <v>22.09</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6860,147 +6860,147 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E210">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F210">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G210">
-        <v>6.98</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E211">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F211">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G211">
-        <v>56.86</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E212">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F212">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="G212">
-        <v>31.37</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E213">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="G213">
-        <v>11.76</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E214">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="G214">
-        <v>73.68000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7010,28 +7010,28 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E215">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F215">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G215">
-        <v>17.54</v>
+        <v>81.16</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7041,28 +7041,28 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E216">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F216">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G216">
-        <v>8.77</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7072,28 +7072,28 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E217">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="F217">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G217">
-        <v>86.44</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -7103,28 +7103,28 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E218">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="F218">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G218">
-        <v>11.86</v>
+        <v>74.65000000000001</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7134,121 +7134,121 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F219">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G219">
-        <v>1.69</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E220">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F220">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="G220">
-        <v>88.89</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F221">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G221">
-        <v>11.11</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E222">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F222">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G222">
-        <v>50</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7258,33 +7258,33 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E223">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F223">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G223">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7298,24 +7298,24 @@
         </is>
       </c>
       <c r="E224">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F224">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G224">
-        <v>64.58</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7329,55 +7329,55 @@
         </is>
       </c>
       <c r="E225">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G225">
-        <v>25</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E226">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F226">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G226">
-        <v>10.42</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7387,28 +7387,28 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E227">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F227">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G227">
-        <v>74.67</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -7418,23 +7418,23 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E228">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F228">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G228">
-        <v>21.33</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7444,33 +7444,33 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E229">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="F229">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G229">
-        <v>4</v>
+        <v>85.53</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -7480,28 +7480,28 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E230">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F230">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G230">
-        <v>72.73</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -7511,59 +7511,59 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E231">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F231">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G231">
-        <v>18.18</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E232">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F232">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="G232">
-        <v>9.09</v>
+        <v>79.31</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7573,28 +7573,28 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E233">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F233">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="G233">
-        <v>78.18000000000001</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7604,59 +7604,59 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E234">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F234">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="G234">
-        <v>18.18</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E235">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F235">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G235">
-        <v>3.64</v>
+        <v>95.73999999999999</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>100 Australian species</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7666,23 +7666,23 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E236">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F236">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G236">
-        <v>86.95999999999999</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -7692,28 +7692,28 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E237">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F237">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G237">
-        <v>11.59</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -7723,33 +7723,33 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>COI</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F238">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G238">
-        <v>1.45</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -7759,59 +7759,59 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E239">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F239">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G239">
-        <v>66.67</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E240">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F240">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G240">
-        <v>33.33</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -7821,28 +7821,28 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E241">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F241">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G241">
-        <v>46.15</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -7852,157 +7852,157 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species wrong</t>
         </is>
       </c>
       <c r="E242">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F242">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G242">
-        <v>46.15</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Lutjanidae</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F243">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="G243">
-        <v>7.69</v>
+        <v>86.48999999999999</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>100 Australian species</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Genus and species correct</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E244">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F244">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G244">
-        <v>76.47</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Genus correct, species wrong</t>
+          <t>Genus and species correct</t>
         </is>
       </c>
       <c r="E245">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F245">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="G245">
-        <v>17.65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Genus and species wrong</t>
+          <t>Genus correct, species wrong</t>
         </is>
       </c>
       <c r="E246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F246">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="G246">
-        <v>5.88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8011,29 +8011,29 @@
         </is>
       </c>
       <c r="E247">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F247">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="G247">
-        <v>87.18000000000001</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Wadjemup</t>
+          <t>Lutjanidae</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -8042,44 +8042,1904 @@
         </is>
       </c>
       <c r="E248">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F248">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="G248">
-        <v>8.970000000000001</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E249">
+        <v>7</v>
+      </c>
+      <c r="F249">
+        <v>14</v>
+      </c>
+      <c r="G249">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E250">
+        <v>5</v>
+      </c>
+      <c r="F250">
+        <v>14</v>
+      </c>
+      <c r="G250">
+        <v>35.71</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E251">
+        <v>2</v>
+      </c>
+      <c r="F251">
+        <v>14</v>
+      </c>
+      <c r="G251">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E252">
+        <v>42</v>
+      </c>
+      <c r="F252">
+        <v>63</v>
+      </c>
+      <c r="G252">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E253">
+        <v>18</v>
+      </c>
+      <c r="F253">
+        <v>63</v>
+      </c>
+      <c r="G253">
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E254">
+        <v>3</v>
+      </c>
+      <c r="F254">
+        <v>63</v>
+      </c>
+      <c r="G254">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E255">
+        <v>61</v>
+      </c>
+      <c r="F255">
+        <v>86</v>
+      </c>
+      <c r="G255">
+        <v>70.93000000000001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E256">
+        <v>19</v>
+      </c>
+      <c r="F256">
+        <v>86</v>
+      </c>
+      <c r="G256">
+        <v>22.09</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E257">
+        <v>6</v>
+      </c>
+      <c r="F257">
+        <v>86</v>
+      </c>
+      <c r="G257">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E258">
+        <v>91</v>
+      </c>
+      <c r="F258">
+        <v>102</v>
+      </c>
+      <c r="G258">
+        <v>89.22</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E259">
+        <v>9</v>
+      </c>
+      <c r="F259">
+        <v>102</v>
+      </c>
+      <c r="G259">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E260">
+        <v>2</v>
+      </c>
+      <c r="F260">
+        <v>102</v>
+      </c>
+      <c r="G260">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E261">
+        <v>29</v>
+      </c>
+      <c r="F261">
+        <v>51</v>
+      </c>
+      <c r="G261">
+        <v>56.86</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E262">
+        <v>16</v>
+      </c>
+      <c r="F262">
+        <v>51</v>
+      </c>
+      <c r="G262">
+        <v>31.37</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E263">
+        <v>6</v>
+      </c>
+      <c r="F263">
+        <v>51</v>
+      </c>
+      <c r="G263">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E264">
+        <v>42</v>
+      </c>
+      <c r="F264">
+        <v>57</v>
+      </c>
+      <c r="G264">
+        <v>73.68000000000001</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E265">
+        <v>10</v>
+      </c>
+      <c r="F265">
+        <v>57</v>
+      </c>
+      <c r="G265">
+        <v>17.54</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E266">
+        <v>5</v>
+      </c>
+      <c r="F266">
+        <v>57</v>
+      </c>
+      <c r="G266">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E267">
+        <v>51</v>
+      </c>
+      <c r="F267">
+        <v>59</v>
+      </c>
+      <c r="G267">
+        <v>86.44</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E268">
+        <v>7</v>
+      </c>
+      <c r="F268">
+        <v>59</v>
+      </c>
+      <c r="G268">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>59</v>
+      </c>
+      <c r="G269">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E270">
+        <v>22</v>
+      </c>
+      <c r="F270">
+        <v>24</v>
+      </c>
+      <c r="G270">
+        <v>91.67</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E271">
+        <v>2</v>
+      </c>
+      <c r="F271">
+        <v>24</v>
+      </c>
+      <c r="G271">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E272">
+        <v>8</v>
+      </c>
+      <c r="F272">
+        <v>9</v>
+      </c>
+      <c r="G272">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>9</v>
+      </c>
+      <c r="G273">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E274">
+        <v>6</v>
+      </c>
+      <c r="F274">
+        <v>12</v>
+      </c>
+      <c r="G274">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E275">
+        <v>6</v>
+      </c>
+      <c r="F275">
+        <v>12</v>
+      </c>
+      <c r="G275">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E276">
+        <v>31</v>
+      </c>
+      <c r="F276">
+        <v>48</v>
+      </c>
+      <c r="G276">
+        <v>64.58</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E277">
+        <v>12</v>
+      </c>
+      <c r="F277">
+        <v>48</v>
+      </c>
+      <c r="G277">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E278">
+        <v>5</v>
+      </c>
+      <c r="F278">
+        <v>48</v>
+      </c>
+      <c r="G278">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E279">
+        <v>56</v>
+      </c>
+      <c r="F279">
+        <v>75</v>
+      </c>
+      <c r="G279">
+        <v>74.67</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E280">
+        <v>16</v>
+      </c>
+      <c r="F280">
+        <v>75</v>
+      </c>
+      <c r="G280">
+        <v>21.33</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E281">
+        <v>3</v>
+      </c>
+      <c r="F281">
+        <v>75</v>
+      </c>
+      <c r="G281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E282">
+        <v>89</v>
+      </c>
+      <c r="F282">
+        <v>95</v>
+      </c>
+      <c r="G282">
+        <v>93.68000000000001</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E283">
+        <v>4</v>
+      </c>
+      <c r="F283">
+        <v>95</v>
+      </c>
+      <c r="G283">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E284">
+        <v>2</v>
+      </c>
+      <c r="F284">
+        <v>95</v>
+      </c>
+      <c r="G284">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
           <t>VSEARCH</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Wadjemup</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>16S</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E285">
+        <v>40</v>
+      </c>
+      <c r="F285">
+        <v>55</v>
+      </c>
+      <c r="G285">
+        <v>72.73</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E286">
+        <v>10</v>
+      </c>
+      <c r="F286">
+        <v>55</v>
+      </c>
+      <c r="G286">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
         <is>
           <t>Genus and species wrong</t>
         </is>
       </c>
-      <c r="E249">
+      <c r="E287">
+        <v>5</v>
+      </c>
+      <c r="F287">
+        <v>55</v>
+      </c>
+      <c r="G287">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E288">
+        <v>43</v>
+      </c>
+      <c r="F288">
+        <v>55</v>
+      </c>
+      <c r="G288">
+        <v>78.18000000000001</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E289">
+        <v>10</v>
+      </c>
+      <c r="F289">
+        <v>55</v>
+      </c>
+      <c r="G289">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E290">
+        <v>2</v>
+      </c>
+      <c r="F290">
+        <v>55</v>
+      </c>
+      <c r="G290">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E291">
+        <v>60</v>
+      </c>
+      <c r="F291">
+        <v>69</v>
+      </c>
+      <c r="G291">
+        <v>86.95999999999999</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E292">
+        <v>8</v>
+      </c>
+      <c r="F292">
+        <v>69</v>
+      </c>
+      <c r="G292">
+        <v>11.59</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>100 Australian species</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>69</v>
+      </c>
+      <c r="G293">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E294">
+        <v>20</v>
+      </c>
+      <c r="F294">
+        <v>21</v>
+      </c>
+      <c r="G294">
+        <v>95.23999999999999</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>21</v>
+      </c>
+      <c r="G295">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E296">
+        <v>8</v>
+      </c>
+      <c r="F296">
+        <v>12</v>
+      </c>
+      <c r="G296">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E297">
+        <v>4</v>
+      </c>
+      <c r="F297">
+        <v>12</v>
+      </c>
+      <c r="G297">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E298">
+        <v>6</v>
+      </c>
+      <c r="F298">
+        <v>13</v>
+      </c>
+      <c r="G298">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E299">
+        <v>6</v>
+      </c>
+      <c r="F299">
+        <v>13</v>
+      </c>
+      <c r="G299">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Lutjanidae</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>13</v>
+      </c>
+      <c r="G300">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E301">
+        <v>52</v>
+      </c>
+      <c r="F301">
+        <v>68</v>
+      </c>
+      <c r="G301">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E302">
+        <v>12</v>
+      </c>
+      <c r="F302">
+        <v>68</v>
+      </c>
+      <c r="G302">
+        <v>17.65</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>12S</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E303">
+        <v>4</v>
+      </c>
+      <c r="F303">
+        <v>68</v>
+      </c>
+      <c r="G303">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E304">
+        <v>68</v>
+      </c>
+      <c r="F304">
+        <v>78</v>
+      </c>
+      <c r="G304">
+        <v>87.18000000000001</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E305">
+        <v>7</v>
+      </c>
+      <c r="F305">
+        <v>78</v>
+      </c>
+      <c r="G305">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>16S</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E306">
         <v>3</v>
       </c>
-      <c r="F249">
+      <c r="F306">
         <v>78</v>
       </c>
-      <c r="G249">
+      <c r="G306">
         <v>3.85</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Genus and species correct</t>
+        </is>
+      </c>
+      <c r="E307">
+        <v>101</v>
+      </c>
+      <c r="F307">
+        <v>109</v>
+      </c>
+      <c r="G307">
+        <v>92.66</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Genus correct, species wrong</t>
+        </is>
+      </c>
+      <c r="E308">
+        <v>6</v>
+      </c>
+      <c r="F308">
+        <v>109</v>
+      </c>
+      <c r="G308">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Wadjemup</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>COI</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Genus and species wrong</t>
+        </is>
+      </c>
+      <c r="E309">
+        <v>2</v>
+      </c>
+      <c r="F309">
+        <v>109</v>
+      </c>
+      <c r="G309">
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>
